--- a/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="485">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -1262,9 +1262,6 @@
     <t>36,300</t>
   </si>
   <si>
-    <t>36.500</t>
-  </si>
-  <si>
     <t>36,600</t>
   </si>
   <si>
@@ -1301,187 +1298,205 @@
     <t>38,600</t>
   </si>
   <si>
-    <t>38.700</t>
+    <t>泰山弟子</t>
+  </si>
+  <si>
+    <t>35,200</t>
+  </si>
+  <si>
+    <t>35,300</t>
+  </si>
+  <si>
+    <t>35,400</t>
+  </si>
+  <si>
+    <t>35,500</t>
+  </si>
+  <si>
+    <t>青城弟子</t>
+  </si>
+  <si>
+    <t>32,300</t>
+  </si>
+  <si>
+    <t>32,400</t>
+  </si>
+  <si>
+    <t>五毒教徒</t>
+  </si>
+  <si>
+    <t>77,200</t>
+  </si>
+  <si>
+    <t>77,300</t>
+  </si>
+  <si>
+    <t>77,500</t>
+  </si>
+  <si>
+    <t>日月教徒</t>
+  </si>
+  <si>
+    <t>71,300</t>
+  </si>
+  <si>
+    <t>71,500</t>
+  </si>
+  <si>
+    <t>71,600</t>
+  </si>
+  <si>
+    <t>71,700</t>
+  </si>
+  <si>
+    <t>71,800</t>
+  </si>
+  <si>
+    <t>71,900</t>
+  </si>
+  <si>
+    <t>雪山弟子</t>
+  </si>
+  <si>
+    <t>33,200</t>
+  </si>
+  <si>
+    <t>33,300</t>
+  </si>
+  <si>
+    <t>33,400</t>
+  </si>
+  <si>
+    <t>33,500</t>
+  </si>
+  <si>
+    <t>33,600</t>
+  </si>
+  <si>
+    <t>番僧</t>
+  </si>
+  <si>
+    <t>70,300</t>
+  </si>
+  <si>
+    <t>70,400</t>
+  </si>
+  <si>
+    <t>70,500</t>
+  </si>
+  <si>
+    <t>70,600</t>
+  </si>
+  <si>
+    <t>70,700</t>
+  </si>
+  <si>
+    <t>70,800</t>
+  </si>
+  <si>
+    <t>星宿门人</t>
+  </si>
+  <si>
+    <t>72,300</t>
+  </si>
+  <si>
+    <t>72,400</t>
+  </si>
+  <si>
+    <t>72,500</t>
+  </si>
+  <si>
+    <t>72,600</t>
+  </si>
+  <si>
+    <t>丐帮弟子</t>
+  </si>
+  <si>
+    <t>73,500</t>
+  </si>
+  <si>
+    <t>73,600</t>
+  </si>
+  <si>
+    <t>73,700</t>
+  </si>
+  <si>
+    <t>73,800</t>
+  </si>
+  <si>
+    <t>73,900</t>
+  </si>
+  <si>
+    <t>铁掌帮众</t>
+  </si>
+  <si>
+    <t>63,100</t>
+  </si>
+  <si>
+    <t>63,200</t>
+  </si>
+  <si>
+    <t>63,400</t>
+  </si>
+  <si>
+    <t>全真教徒</t>
+  </si>
+  <si>
+    <t>39,700</t>
+  </si>
+  <si>
+    <t>39,800</t>
+  </si>
+  <si>
+    <t>39,900</t>
+  </si>
+  <si>
+    <t>明教弟子</t>
+  </si>
+  <si>
+    <t>74,300</t>
+  </si>
+  <si>
+    <t>74,400</t>
+  </si>
+  <si>
+    <t>74,500</t>
+  </si>
+  <si>
+    <t>74,700</t>
+  </si>
+  <si>
+    <t>74,600</t>
+  </si>
+  <si>
+    <t>大鳄鱼</t>
+  </si>
+  <si>
+    <t>75,600</t>
+  </si>
+  <si>
+    <t>38,700</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>38,800</t>
-  </si>
-  <si>
-    <t>泰山弟子</t>
-  </si>
-  <si>
-    <t>35,200</t>
-  </si>
-  <si>
-    <t>35,300</t>
-  </si>
-  <si>
-    <t>35,400</t>
-  </si>
-  <si>
-    <t>35,500</t>
-  </si>
-  <si>
-    <t>青城弟子</t>
-  </si>
-  <si>
-    <t>32,300</t>
-  </si>
-  <si>
-    <t>32,400</t>
-  </si>
-  <si>
-    <t>五毒教徒</t>
-  </si>
-  <si>
-    <t>77,200</t>
-  </si>
-  <si>
-    <t>77,300</t>
-  </si>
-  <si>
-    <t>77,500</t>
-  </si>
-  <si>
-    <t>日月教徒</t>
-  </si>
-  <si>
-    <t>71,300</t>
-  </si>
-  <si>
-    <t>71,500</t>
-  </si>
-  <si>
-    <t>71,600</t>
-  </si>
-  <si>
-    <t>71,700</t>
-  </si>
-  <si>
-    <t>71,800</t>
-  </si>
-  <si>
-    <t>71,900</t>
-  </si>
-  <si>
-    <t>雪山弟子</t>
-  </si>
-  <si>
-    <t>33,200</t>
-  </si>
-  <si>
-    <t>33,300</t>
-  </si>
-  <si>
-    <t>33,400</t>
-  </si>
-  <si>
-    <t>33,500</t>
-  </si>
-  <si>
-    <t>33,600</t>
-  </si>
-  <si>
-    <t>番僧</t>
-  </si>
-  <si>
-    <t>70,300</t>
-  </si>
-  <si>
-    <t>70,400</t>
-  </si>
-  <si>
-    <t>70,500</t>
-  </si>
-  <si>
-    <t>70,600</t>
-  </si>
-  <si>
-    <t>70,700</t>
-  </si>
-  <si>
-    <t>70,800</t>
-  </si>
-  <si>
-    <t>星宿门人</t>
-  </si>
-  <si>
-    <t>72,300</t>
-  </si>
-  <si>
-    <t>72,400</t>
-  </si>
-  <si>
-    <t>72,500</t>
-  </si>
-  <si>
-    <t>72,600</t>
-  </si>
-  <si>
-    <t>丐帮弟子</t>
-  </si>
-  <si>
-    <t>73,500</t>
-  </si>
-  <si>
-    <t>73,600</t>
-  </si>
-  <si>
-    <t>73,700</t>
-  </si>
-  <si>
-    <t>73,800</t>
-  </si>
-  <si>
-    <t>73,900</t>
-  </si>
-  <si>
-    <t>铁掌帮众</t>
-  </si>
-  <si>
-    <t>63,100</t>
-  </si>
-  <si>
-    <t>63,200</t>
-  </si>
-  <si>
-    <t>63,400</t>
-  </si>
-  <si>
-    <t>全真教徒</t>
-  </si>
-  <si>
-    <t>39,700</t>
-  </si>
-  <si>
-    <t>39,800</t>
-  </si>
-  <si>
-    <t>39,900</t>
-  </si>
-  <si>
-    <t>明教弟子</t>
-  </si>
-  <si>
-    <t>74,300</t>
-  </si>
-  <si>
-    <t>74,400</t>
-  </si>
-  <si>
-    <t>74,500</t>
-  </si>
-  <si>
-    <t>74,700</t>
-  </si>
-  <si>
-    <t>74,600</t>
-  </si>
-  <si>
-    <t>大鳄鱼</t>
-  </si>
-  <si>
-    <t>75,600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1938,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="W49" workbookViewId="0">
+      <selection activeCell="AN323" sqref="AN323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24371,7 +24386,7 @@
         <v>0</v>
       </c>
       <c r="AN180" s="7" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="AO180" s="7">
         <v>-1</v>
@@ -24496,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="AN181" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AO181" s="7">
         <v>-1</v>
@@ -24621,7 +24636,7 @@
         <v>0</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AO182" s="7">
         <v>-1</v>
@@ -24746,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="AN183" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO183" s="7">
         <v>-1</v>
@@ -24871,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="AN184" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO184" s="7">
         <v>-1</v>
@@ -24888,10 +24903,10 @@
         <v>5</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F185" s="3">
         <v>0</v>
@@ -24996,10 +25011,10 @@
         <v>0</v>
       </c>
       <c r="AN185" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="AO185" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="AO185" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.2">
@@ -25013,10 +25028,10 @@
         <v>5</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F186" s="3">
         <v>0</v>
@@ -25121,10 +25136,10 @@
         <v>0</v>
       </c>
       <c r="AN186" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="AO186" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="AO186" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.2">
@@ -25138,10 +25153,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F187" s="3">
         <v>0</v>
@@ -25246,10 +25261,10 @@
         <v>0</v>
       </c>
       <c r="AN187" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="AO187" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="AO187" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.2">
@@ -25263,10 +25278,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F188" s="3">
         <v>0</v>
@@ -25371,10 +25386,10 @@
         <v>0</v>
       </c>
       <c r="AN188" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO188" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.2">
@@ -25388,10 +25403,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F189" s="3">
         <v>0</v>
@@ -25496,10 +25511,10 @@
         <v>0</v>
       </c>
       <c r="AN189" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO189" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.2">
@@ -25513,10 +25528,10 @@
         <v>5</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F190" s="3">
         <v>0</v>
@@ -25621,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="AN190" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO190" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.2">
@@ -25638,10 +25653,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F191" s="3">
         <v>0</v>
@@ -25746,10 +25761,10 @@
         <v>0</v>
       </c>
       <c r="AN191" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO191" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.2">
@@ -25763,10 +25778,10 @@
         <v>5</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F192" s="3">
         <v>0</v>
@@ -25871,10 +25886,10 @@
         <v>0</v>
       </c>
       <c r="AN192" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO192" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="193" spans="1:41" x14ac:dyDescent="0.2">
@@ -25888,10 +25903,10 @@
         <v>5</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F193" s="3">
         <v>0</v>
@@ -25996,10 +26011,10 @@
         <v>0</v>
       </c>
       <c r="AN193" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO193" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.2">
@@ -26013,10 +26028,10 @@
         <v>5</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F194" s="3">
         <v>0</v>
@@ -26121,10 +26136,10 @@
         <v>0</v>
       </c>
       <c r="AN194" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO194" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:41" x14ac:dyDescent="0.2">
@@ -26138,10 +26153,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F195" s="3">
         <v>0</v>
@@ -26246,10 +26261,10 @@
         <v>0</v>
       </c>
       <c r="AN195" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="AO195" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="AO195" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="196" spans="1:41" x14ac:dyDescent="0.2">
@@ -26263,10 +26278,10 @@
         <v>7</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F196" s="3">
         <v>0</v>
@@ -26371,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="AN196" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="AO196" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="AO196" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="197" spans="1:41" x14ac:dyDescent="0.2">
@@ -26388,10 +26403,10 @@
         <v>7</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F197" s="3">
         <v>0</v>
@@ -26496,10 +26511,10 @@
         <v>0</v>
       </c>
       <c r="AN197" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO197" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="198" spans="1:41" x14ac:dyDescent="0.2">
@@ -26513,10 +26528,10 @@
         <v>7</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F198" s="3">
         <v>0</v>
@@ -26621,10 +26636,10 @@
         <v>0</v>
       </c>
       <c r="AN198" s="7" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="AO198" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199" spans="1:41" x14ac:dyDescent="0.2">
@@ -26638,10 +26653,10 @@
         <v>7</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F199" s="3">
         <v>0</v>
@@ -26746,10 +26761,10 @@
         <v>0</v>
       </c>
       <c r="AN199" s="7" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="AO199" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="200" spans="1:41" x14ac:dyDescent="0.2">
@@ -26763,10 +26778,10 @@
         <v>7</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F200" s="3">
         <v>0</v>
@@ -26871,10 +26886,10 @@
         <v>0</v>
       </c>
       <c r="AN200" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AO200" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="201" spans="1:41" x14ac:dyDescent="0.2">
@@ -26888,10 +26903,10 @@
         <v>7</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F201" s="3">
         <v>0</v>
@@ -26996,10 +27011,10 @@
         <v>0</v>
       </c>
       <c r="AN201" s="7" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="AO201" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.2">
@@ -27013,10 +27028,10 @@
         <v>7</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F202" s="3">
         <v>0</v>
@@ -27121,10 +27136,10 @@
         <v>0</v>
       </c>
       <c r="AN202" s="7" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="AO202" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="203" spans="1:41" x14ac:dyDescent="0.2">
@@ -27138,10 +27153,10 @@
         <v>8</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F203" s="3">
         <v>0</v>
@@ -27246,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="AN203" s="7" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
       <c r="AO203" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="204" spans="1:41" x14ac:dyDescent="0.2">
@@ -27263,10 +27278,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F204" s="3">
         <v>0</v>
@@ -27371,10 +27386,10 @@
         <v>0</v>
       </c>
       <c r="AN204" s="7" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="AO204" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="205" spans="1:41" x14ac:dyDescent="0.2">
@@ -27388,10 +27403,10 @@
         <v>6</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F205" s="3">
         <v>0</v>
@@ -27496,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="AN205" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AO205" s="7">
         <v>-1</v>
@@ -27513,10 +27528,10 @@
         <v>6</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F206" s="3">
         <v>0</v>
@@ -27621,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="AN206" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AO206" s="7">
         <v>-1</v>
@@ -27638,10 +27653,10 @@
         <v>6</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F207" s="3">
         <v>0</v>
@@ -27746,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="AN207" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AO207" s="7">
         <v>-1</v>
@@ -27763,10 +27778,10 @@
         <v>6</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F208" s="3">
         <v>0</v>
@@ -27871,7 +27886,7 @@
         <v>0</v>
       </c>
       <c r="AN208" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AO208" s="7">
         <v>-1</v>
@@ -27888,10 +27903,10 @@
         <v>6</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
@@ -27996,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="AN209" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AO209" s="7">
         <v>-1</v>
@@ -28013,10 +28028,10 @@
         <v>6</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
@@ -28121,7 +28136,7 @@
         <v>0</v>
       </c>
       <c r="AN210" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AO210" s="7">
         <v>-1</v>
@@ -28138,10 +28153,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
@@ -28246,7 +28261,7 @@
         <v>0</v>
       </c>
       <c r="AN211" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AO211" s="7">
         <v>-1</v>
@@ -28263,10 +28278,10 @@
         <v>6</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
@@ -28371,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="AN212" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AO212" s="7">
         <v>-1</v>
@@ -28388,10 +28403,10 @@
         <v>6</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
@@ -28496,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="AN213" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AO213" s="7">
         <v>-1</v>
@@ -28513,10 +28528,10 @@
         <v>6</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F214" s="3">
         <v>0</v>
@@ -28621,7 +28636,7 @@
         <v>0</v>
       </c>
       <c r="AN214" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AO214" s="7">
         <v>-1</v>
@@ -28638,10 +28653,10 @@
         <v>4</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F215" s="3">
         <v>0</v>
@@ -28746,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="AN215" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO215" s="7">
         <v>-1</v>
@@ -28763,10 +28778,10 @@
         <v>4</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F216" s="3">
         <v>0</v>
@@ -28871,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="AN216" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO216" s="7">
         <v>-1</v>
@@ -28888,10 +28903,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F217" s="3">
         <v>0</v>
@@ -28996,7 +29011,7 @@
         <v>0</v>
       </c>
       <c r="AN217" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AO217" s="7">
         <v>-1</v>
@@ -29013,10 +29028,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F218" s="3">
         <v>0</v>
@@ -29121,7 +29136,7 @@
         <v>0</v>
       </c>
       <c r="AN218" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AO218" s="7">
         <v>-1</v>
@@ -29138,10 +29153,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F219" s="3">
         <v>0</v>
@@ -29246,7 +29261,7 @@
         <v>0</v>
       </c>
       <c r="AN219" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO219" s="7">
         <v>-1</v>
@@ -29263,10 +29278,10 @@
         <v>4</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F220" s="3">
         <v>0</v>
@@ -29371,7 +29386,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO220" s="7">
         <v>-1</v>
@@ -29388,10 +29403,10 @@
         <v>4</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F221" s="3">
         <v>0</v>
@@ -29496,7 +29511,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO221" s="7">
         <v>-1</v>
@@ -29513,10 +29528,10 @@
         <v>4</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F222" s="3">
         <v>0</v>
@@ -29621,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO222" s="7">
         <v>-1</v>
@@ -29638,10 +29653,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F223" s="3">
         <v>0</v>
@@ -29746,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO223" s="7">
         <v>-1</v>
@@ -29763,10 +29778,10 @@
         <v>4</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F224" s="3">
         <v>0</v>
@@ -29871,7 +29886,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AO224" s="7">
         <v>-1</v>
@@ -29888,10 +29903,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F225" s="3">
         <v>0</v>
@@ -29996,7 +30011,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AO225" s="7">
         <v>-1</v>
@@ -30013,10 +30028,10 @@
         <v>4</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F226" s="3">
         <v>0</v>
@@ -30121,7 +30136,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AO226" s="7">
         <v>-1</v>
@@ -30138,10 +30153,10 @@
         <v>4</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F227" s="3">
         <v>0</v>
@@ -30246,7 +30261,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AO227" s="7">
         <v>-1</v>
@@ -30263,10 +30278,10 @@
         <v>4</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F228" s="3">
         <v>0</v>
@@ -30371,7 +30386,7 @@
         <v>0</v>
       </c>
       <c r="AN228" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AO228" s="7">
         <v>-1</v>
@@ -30388,10 +30403,10 @@
         <v>4</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F229" s="3">
         <v>0</v>
@@ -30513,10 +30528,10 @@
         <v>4</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F230" s="3">
         <v>0</v>
@@ -30638,10 +30653,10 @@
         <v>4</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F231" s="3">
         <v>0</v>
@@ -30763,10 +30778,10 @@
         <v>4</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F232" s="3">
         <v>0</v>
@@ -30871,7 +30886,7 @@
         <v>0</v>
       </c>
       <c r="AN232" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AO232" s="7">
         <v>-1</v>
@@ -30888,10 +30903,10 @@
         <v>4</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F233" s="3">
         <v>0</v>
@@ -30996,7 +31011,7 @@
         <v>0</v>
       </c>
       <c r="AN233" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AO233" s="7">
         <v>-1</v>
@@ -31013,10 +31028,10 @@
         <v>4</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F234" s="3">
         <v>0</v>
@@ -31121,7 +31136,7 @@
         <v>0</v>
       </c>
       <c r="AN234" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AO234" s="7">
         <v>-1</v>
@@ -31138,10 +31153,10 @@
         <v>8</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F235" s="3">
         <v>0</v>
@@ -31246,7 +31261,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AO235" s="7">
         <v>-1</v>
@@ -31263,10 +31278,10 @@
         <v>8</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F236" s="3">
         <v>0</v>
@@ -31371,7 +31386,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AO236" s="7">
         <v>-1</v>
@@ -31388,10 +31403,10 @@
         <v>8</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F237" s="3">
         <v>0</v>
@@ -31496,7 +31511,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AO237" s="7">
         <v>-1</v>
@@ -31513,10 +31528,10 @@
         <v>8</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F238" s="3">
         <v>0</v>
@@ -31621,7 +31636,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AO238" s="7">
         <v>-1</v>
@@ -31638,10 +31653,10 @@
         <v>8</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F239" s="3">
         <v>0</v>
@@ -31746,7 +31761,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AO239" s="7">
         <v>-1</v>
@@ -31763,10 +31778,10 @@
         <v>8</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F240" s="3">
         <v>0</v>
@@ -31871,7 +31886,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AO240" s="7">
         <v>-1</v>
@@ -31888,10 +31903,10 @@
         <v>8</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F241" s="3">
         <v>0</v>
@@ -31996,7 +32011,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AO241" s="7">
         <v>-1</v>
@@ -32013,10 +32028,10 @@
         <v>8</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F242" s="3">
         <v>0</v>
@@ -32121,7 +32136,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AO242" s="7">
         <v>-1</v>
@@ -32138,10 +32153,10 @@
         <v>8</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F243" s="3">
         <v>0</v>
@@ -32246,7 +32261,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AO243" s="7">
         <v>-1</v>
@@ -32263,10 +32278,10 @@
         <v>8</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F244" s="3">
         <v>0</v>
@@ -32371,7 +32386,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AO244" s="7">
         <v>-1</v>
@@ -32388,10 +32403,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F245" s="3">
         <v>0</v>
@@ -32496,7 +32511,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AO245" s="7">
         <v>-1</v>
@@ -32513,10 +32528,10 @@
         <v>3</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F246" s="3">
         <v>0</v>
@@ -32621,7 +32636,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AO246" s="7">
         <v>-1</v>
@@ -32638,10 +32653,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F247" s="3">
         <v>0</v>
@@ -32746,7 +32761,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AO247" s="7">
         <v>-1</v>
@@ -32763,10 +32778,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F248" s="3">
         <v>0</v>
@@ -32871,7 +32886,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AO248" s="7">
         <v>-1</v>
@@ -32888,10 +32903,10 @@
         <v>4</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F249" s="3">
         <v>0</v>
@@ -32996,7 +33011,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AO249" s="7">
         <v>-1</v>
@@ -33013,10 +33028,10 @@
         <v>5</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F250" s="3">
         <v>0</v>
@@ -33121,7 +33136,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AO250" s="7">
         <v>-1</v>
@@ -33138,10 +33153,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F251" s="3">
         <v>0</v>
@@ -33246,7 +33261,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AO251" s="7">
         <v>-1</v>
@@ -33263,10 +33278,10 @@
         <v>5</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F252" s="3">
         <v>0</v>
@@ -33371,7 +33386,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AO252" s="7">
         <v>-1</v>
@@ -33388,10 +33403,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F253" s="3">
         <v>0</v>
@@ -33496,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AO253" s="7">
         <v>-1</v>
@@ -33513,10 +33528,10 @@
         <v>5</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F254" s="3">
         <v>0</v>
@@ -33621,7 +33636,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AO254" s="7">
         <v>-1</v>
@@ -33638,10 +33653,10 @@
         <v>7</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F255" s="3">
         <v>0</v>
@@ -33746,7 +33761,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AO255" s="7">
         <v>-1</v>
@@ -33763,10 +33778,10 @@
         <v>7</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F256" s="3">
         <v>0</v>
@@ -33871,7 +33886,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AO256" s="7">
         <v>-1</v>
@@ -33888,10 +33903,10 @@
         <v>7</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F257" s="3">
         <v>0</v>
@@ -33996,7 +34011,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AO257" s="7">
         <v>-1</v>
@@ -34013,10 +34028,10 @@
         <v>7</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F258" s="3">
         <v>0</v>
@@ -34121,7 +34136,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AO258" s="7">
         <v>-1</v>
@@ -34138,10 +34153,10 @@
         <v>7</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F259" s="3">
         <v>0</v>
@@ -34246,7 +34261,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AO259" s="7">
         <v>-1</v>
@@ -34263,10 +34278,10 @@
         <v>7</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F260" s="3">
         <v>0</v>
@@ -34371,7 +34386,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AO260" s="7">
         <v>-1</v>
@@ -34388,10 +34403,10 @@
         <v>7</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F261" s="3">
         <v>0</v>
@@ -34496,7 +34511,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AO261" s="7">
         <v>-1</v>
@@ -34513,10 +34528,10 @@
         <v>7</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F262" s="3">
         <v>0</v>
@@ -34621,7 +34636,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AO262" s="7">
         <v>-1</v>
@@ -34638,10 +34653,10 @@
         <v>7</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F263" s="3">
         <v>0</v>
@@ -34746,7 +34761,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AO263" s="7">
         <v>-1</v>
@@ -34763,10 +34778,10 @@
         <v>7</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F264" s="3">
         <v>0</v>
@@ -34871,7 +34886,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AO264" s="7">
         <v>-1</v>
@@ -34888,10 +34903,10 @@
         <v>5</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F265" s="3">
         <v>0</v>
@@ -34996,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AO265" s="7">
         <v>-1</v>
@@ -35013,10 +35028,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F266" s="3">
         <v>0</v>
@@ -35121,7 +35136,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AO266" s="7">
         <v>-1</v>
@@ -35138,10 +35153,10 @@
         <v>5</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F267" s="3">
         <v>0</v>
@@ -35246,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AO267" s="7">
         <v>-1</v>
@@ -35263,10 +35278,10 @@
         <v>5</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F268" s="3">
         <v>0</v>
@@ -35371,7 +35386,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AO268" s="7">
         <v>-1</v>
@@ -35388,10 +35403,10 @@
         <v>5</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F269" s="3">
         <v>0</v>
@@ -35496,7 +35511,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AO269" s="7">
         <v>-1</v>
@@ -35513,10 +35528,10 @@
         <v>5</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F270" s="3">
         <v>0</v>
@@ -35621,7 +35636,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AO270" s="7">
         <v>-1</v>
@@ -35638,10 +35653,10 @@
         <v>5</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F271" s="3">
         <v>0</v>
@@ -35746,7 +35761,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AO271" s="7">
         <v>-1</v>
@@ -35763,10 +35778,10 @@
         <v>5</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F272" s="3">
         <v>0</v>
@@ -35871,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AO272" s="7">
         <v>-1</v>
@@ -35888,10 +35903,10 @@
         <v>5</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F273" s="3">
         <v>0</v>
@@ -35996,7 +36011,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AO273" s="7">
         <v>-1</v>
@@ -36013,10 +36028,10 @@
         <v>5</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F274" s="3">
         <v>0</v>
@@ -36121,7 +36136,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AO274" s="7">
         <v>-1</v>
@@ -36138,10 +36153,10 @@
         <v>8</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F275" s="3">
         <v>0</v>
@@ -36246,7 +36261,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AO275" s="7">
         <v>-1</v>
@@ -36263,10 +36278,10 @@
         <v>8</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F276" s="3">
         <v>0</v>
@@ -36371,7 +36386,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AO276" s="7">
         <v>-1</v>
@@ -36388,10 +36403,10 @@
         <v>8</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F277" s="3">
         <v>0</v>
@@ -36496,7 +36511,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AO277" s="7">
         <v>-1</v>
@@ -36513,10 +36528,10 @@
         <v>8</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F278" s="3">
         <v>0</v>
@@ -36621,7 +36636,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AO278" s="7">
         <v>-1</v>
@@ -36638,10 +36653,10 @@
         <v>8</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F279" s="3">
         <v>0</v>
@@ -36746,7 +36761,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AO279" s="7">
         <v>-1</v>
@@ -36763,10 +36778,10 @@
         <v>8</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F280" s="3">
         <v>0</v>
@@ -36871,7 +36886,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AO280" s="7">
         <v>-1</v>
@@ -36888,10 +36903,10 @@
         <v>8</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F281" s="3">
         <v>0</v>
@@ -36996,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AO281" s="7">
         <v>-1</v>
@@ -37013,10 +37028,10 @@
         <v>8</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F282" s="3">
         <v>0</v>
@@ -37121,7 +37136,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AO282" s="7">
         <v>-1</v>
@@ -37138,10 +37153,10 @@
         <v>8</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F283" s="3">
         <v>0</v>
@@ -37246,7 +37261,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AO283" s="7">
         <v>-1</v>
@@ -37263,10 +37278,10 @@
         <v>8</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F284" s="3">
         <v>0</v>
@@ -37371,7 +37386,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AO284" s="7">
         <v>-1</v>
@@ -37388,10 +37403,10 @@
         <v>5</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F285" s="3">
         <v>0</v>
@@ -37496,7 +37511,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AO285" s="7">
         <v>-1</v>
@@ -37513,10 +37528,10 @@
         <v>5</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F286" s="3">
         <v>0</v>
@@ -37621,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AO286" s="7">
         <v>-1</v>
@@ -37638,10 +37653,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F287" s="3">
         <v>0</v>
@@ -37746,7 +37761,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO287" s="7">
         <v>-1</v>
@@ -37763,10 +37778,10 @@
         <v>5</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F288" s="3">
         <v>0</v>
@@ -37871,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO288" s="7">
         <v>-1</v>
@@ -37888,10 +37903,10 @@
         <v>5</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F289" s="3">
         <v>0</v>
@@ -38013,10 +38028,10 @@
         <v>6</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F290" s="3">
         <v>0</v>
@@ -38138,10 +38153,10 @@
         <v>7</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F291" s="3">
         <v>0</v>
@@ -38263,10 +38278,10 @@
         <v>7</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F292" s="3">
         <v>0</v>
@@ -38371,7 +38386,7 @@
         <v>0</v>
       </c>
       <c r="AN292" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AO292" s="7">
         <v>-1</v>
@@ -38388,10 +38403,10 @@
         <v>7</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F293" s="3">
         <v>0</v>
@@ -38496,7 +38511,7 @@
         <v>0</v>
       </c>
       <c r="AN293" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AO293" s="7">
         <v>-1</v>
@@ -38513,10 +38528,10 @@
         <v>7</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F294" s="3">
         <v>0</v>
@@ -38621,7 +38636,7 @@
         <v>0</v>
       </c>
       <c r="AN294" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AO294" s="7">
         <v>-1</v>
@@ -38638,10 +38653,10 @@
         <v>5</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F295" s="3">
         <v>0</v>
@@ -38763,10 +38778,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F296" s="3">
         <v>0</v>
@@ -38888,10 +38903,10 @@
         <v>5</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F297" s="3">
         <v>0</v>
@@ -39013,10 +39028,10 @@
         <v>5</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F298" s="3">
         <v>0</v>
@@ -39138,10 +39153,10 @@
         <v>5</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F299" s="3">
         <v>0</v>
@@ -39263,10 +39278,10 @@
         <v>5</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F300" s="3">
         <v>0</v>
@@ -39388,10 +39403,10 @@
         <v>5</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F301" s="3">
         <v>0</v>
@@ -39496,7 +39511,7 @@
         <v>0</v>
       </c>
       <c r="AN301" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AO301" s="7">
         <v>-1</v>
@@ -39513,10 +39528,10 @@
         <v>5</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F302" s="3">
         <v>0</v>
@@ -39621,7 +39636,7 @@
         <v>0</v>
       </c>
       <c r="AN302" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AO302" s="7">
         <v>-1</v>
@@ -39638,10 +39653,10 @@
         <v>5</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F303" s="3">
         <v>0</v>
@@ -39746,7 +39761,7 @@
         <v>0</v>
       </c>
       <c r="AN303" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AO303" s="7">
         <v>-1</v>
@@ -39763,10 +39778,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F304" s="3">
         <v>0</v>
@@ -39871,7 +39886,7 @@
         <v>0</v>
       </c>
       <c r="AN304" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AO304" s="7">
         <v>-1</v>
@@ -39888,10 +39903,10 @@
         <v>7</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F305" s="3">
         <v>0</v>
@@ -39996,7 +40011,7 @@
         <v>0</v>
       </c>
       <c r="AN305" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AO305" s="7">
         <v>-1</v>
@@ -40013,10 +40028,10 @@
         <v>7</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F306" s="3">
         <v>0</v>
@@ -40121,7 +40136,7 @@
         <v>0</v>
       </c>
       <c r="AN306" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AO306" s="7">
         <v>-1</v>
@@ -40138,10 +40153,10 @@
         <v>7</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F307" s="3">
         <v>0</v>
@@ -40246,7 +40261,7 @@
         <v>0</v>
       </c>
       <c r="AN307" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AO307" s="7">
         <v>-1</v>
@@ -40263,10 +40278,10 @@
         <v>7</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F308" s="3">
         <v>0</v>
@@ -40371,7 +40386,7 @@
         <v>0</v>
       </c>
       <c r="AN308" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AO308" s="7">
         <v>-1</v>
@@ -40388,10 +40403,10 @@
         <v>7</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F309" s="3">
         <v>0</v>
@@ -40496,7 +40511,7 @@
         <v>0</v>
       </c>
       <c r="AN309" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AO309" s="7">
         <v>-1</v>
@@ -40513,10 +40528,10 @@
         <v>7</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F310" s="3">
         <v>0</v>
@@ -40621,7 +40636,7 @@
         <v>0</v>
       </c>
       <c r="AN310" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AO310" s="7">
         <v>-1</v>
@@ -40638,10 +40653,10 @@
         <v>7</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F311" s="3">
         <v>0</v>
@@ -40746,7 +40761,7 @@
         <v>0</v>
       </c>
       <c r="AN311" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AO311" s="7">
         <v>-1</v>
@@ -40763,10 +40778,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F312" s="3">
         <v>0</v>
@@ -40871,7 +40886,7 @@
         <v>0</v>
       </c>
       <c r="AN312" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AO312" s="7">
         <v>-1</v>
@@ -40888,10 +40903,10 @@
         <v>7</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F313" s="3">
         <v>0</v>
@@ -40996,7 +41011,7 @@
         <v>0</v>
       </c>
       <c r="AN313" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AO313" s="7">
         <v>-1</v>
@@ -41013,10 +41028,10 @@
         <v>7</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F314" s="3">
         <v>0</v>
@@ -41121,7 +41136,7 @@
         <v>0</v>
       </c>
       <c r="AN314" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AO314" s="7">
         <v>-1</v>
@@ -41138,10 +41153,10 @@
         <v>6</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F315" s="3">
         <v>0</v>
@@ -41246,7 +41261,7 @@
         <v>0</v>
       </c>
       <c r="AN315" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO315" s="7">
         <v>-1</v>
@@ -41263,10 +41278,10 @@
         <v>6</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F316" s="3">
         <v>0</v>
@@ -41371,7 +41386,7 @@
         <v>0</v>
       </c>
       <c r="AN316" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO316" s="7">
         <v>-1</v>
@@ -41388,10 +41403,10 @@
         <v>6</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F317" s="3">
         <v>0</v>
@@ -41496,7 +41511,7 @@
         <v>0</v>
       </c>
       <c r="AN317" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO317" s="7">
         <v>-1</v>
@@ -41513,10 +41528,10 @@
         <v>6</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F318" s="3">
         <v>0</v>
@@ -41621,7 +41636,7 @@
         <v>0</v>
       </c>
       <c r="AN318" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO318" s="7">
         <v>-1</v>
@@ -41638,10 +41653,10 @@
         <v>6</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F319" s="3">
         <v>0</v>
@@ -41746,7 +41761,7 @@
         <v>0</v>
       </c>
       <c r="AN319" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO319" s="7">
         <v>-1</v>
@@ -41763,10 +41778,10 @@
         <v>6</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F320" s="3">
         <v>0</v>
@@ -41871,7 +41886,7 @@
         <v>0</v>
       </c>
       <c r="AN320" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO320" s="7">
         <v>-1</v>
@@ -41888,10 +41903,10 @@
         <v>6</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F321" s="3">
         <v>0</v>
@@ -41996,7 +42011,7 @@
         <v>0</v>
       </c>
       <c r="AN321" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO321" s="7">
         <v>-1</v>
@@ -42013,10 +42028,10 @@
         <v>6</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F322" s="3">
         <v>0</v>
@@ -42121,7 +42136,7 @@
         <v>0</v>
       </c>
       <c r="AN322" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO322" s="7">
         <v>-1</v>
@@ -42138,10 +42153,10 @@
         <v>6</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F323" s="3">
         <v>0</v>
@@ -42246,7 +42261,7 @@
         <v>0</v>
       </c>
       <c r="AN323" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AO323" s="7">
         <v>-1</v>
@@ -42255,7 +42270,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
@@ -1034,9 +1034,6 @@
     <t>86,900</t>
   </si>
   <si>
-    <t>1.10|9,10|20,10|14,20</t>
-  </si>
-  <si>
     <t>孔八拉</t>
   </si>
   <si>
@@ -1496,6 +1493,10 @@
   </si>
   <si>
     <t>36,500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10|9,10|20,10|14,20</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1953,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W49" workbookViewId="0">
-      <selection activeCell="AN323" sqref="AN323"/>
+    <sheetView tabSelected="1" topLeftCell="AF54" workbookViewId="0">
+      <selection activeCell="AO75" sqref="AO75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11261,7 +11262,7 @@
         <v>331</v>
       </c>
       <c r="AO75" s="7" t="s">
-        <v>332</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.2">
@@ -11275,10 +11276,10 @@
         <v>9</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -11400,10 +11401,10 @@
         <v>5</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -11525,10 +11526,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -11650,10 +11651,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -11775,10 +11776,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -11903,10 +11904,10 @@
         <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -12011,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="AN81" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AO81" s="7">
         <v>-1</v>
@@ -12028,10 +12029,10 @@
         <v>6</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -12136,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="AN82" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO82" s="7">
         <v>-1</v>
@@ -12153,7 +12154,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>75</v>
@@ -12278,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>75</v>
@@ -12403,10 +12404,10 @@
         <v>6</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -12511,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="AN85" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO85" s="7">
         <v>-1</v>
@@ -12528,10 +12529,10 @@
         <v>6</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -12636,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="AN86" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO86" s="7">
         <v>-1</v>
@@ -12653,10 +12654,10 @@
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -12761,7 +12762,7 @@
         <v>0</v>
       </c>
       <c r="AN87" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO87" s="7">
         <v>-1</v>
@@ -12778,10 +12779,10 @@
         <v>6</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -12886,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="AN88" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO88" s="7">
         <v>-1</v>
@@ -12903,10 +12904,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -13011,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="AN89" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO89" s="7">
         <v>-1</v>
@@ -13028,10 +13029,10 @@
         <v>6</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -13136,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="AN90" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO90" s="7">
         <v>-1</v>
@@ -13153,10 +13154,10 @@
         <v>6</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -13261,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="AN91" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO91" s="7">
         <v>-1</v>
@@ -13278,10 +13279,10 @@
         <v>6</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -13386,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="AN92" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO92" s="7">
         <v>-1</v>
@@ -13403,10 +13404,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -13511,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="AN93" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO93" s="7">
         <v>-1</v>
@@ -13528,10 +13529,10 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -13636,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="AN94" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO94" s="7">
         <v>-1</v>
@@ -13653,10 +13654,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -13761,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="AN95" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO95" s="7">
         <v>-1</v>
@@ -13778,10 +13779,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -13886,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="AN96" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO96" s="7">
         <v>-1</v>
@@ -13903,10 +13904,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -14011,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="AN97" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO97" s="7">
         <v>-1</v>
@@ -14028,10 +14029,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -14136,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="AN98" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO98" s="7">
         <v>-1</v>
@@ -14153,10 +14154,10 @@
         <v>7</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -14261,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="AN99" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO99" s="7">
         <v>-1</v>
@@ -14278,10 +14279,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -14386,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="AN100" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO100" s="7">
         <v>-1</v>
@@ -14403,10 +14404,10 @@
         <v>7</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -14511,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="AN101" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO101" s="7">
         <v>-1</v>
@@ -14528,10 +14529,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -14636,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="AN102" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO102" s="7">
         <v>-1</v>
@@ -14653,10 +14654,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -14761,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="AN103" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AO103" s="7">
         <v>-1</v>
@@ -14778,10 +14779,10 @@
         <v>7</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -14886,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="AN104" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AO104" s="7">
         <v>-1</v>
@@ -14903,10 +14904,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -15011,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="AN105" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AO105" s="7">
         <v>-1</v>
@@ -15028,10 +15029,10 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -15136,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="AN106" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AO106" s="7">
         <v>-1</v>
@@ -15153,10 +15154,10 @@
         <v>6</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -15261,7 +15262,7 @@
         <v>0</v>
       </c>
       <c r="AN107" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AO107" s="7">
         <v>-1</v>
@@ -15278,10 +15279,10 @@
         <v>7</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -15386,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="AN108" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AO108" s="7">
         <v>-1</v>
@@ -15403,10 +15404,10 @@
         <v>6</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -15511,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="AN109" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AO109" s="7">
         <v>-1</v>
@@ -15528,10 +15529,10 @@
         <v>5</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -15636,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="AN110" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AO110" s="7">
         <v>-1</v>
@@ -15653,10 +15654,10 @@
         <v>6</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -15761,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="AN111" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AO111" s="7">
         <v>-1</v>
@@ -15778,10 +15779,10 @@
         <v>7</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -15886,7 +15887,7 @@
         <v>0</v>
       </c>
       <c r="AN112" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AO112" s="7">
         <v>-1</v>
@@ -15903,10 +15904,10 @@
         <v>6</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -16011,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="AN113" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AO113" s="7">
         <v>-1</v>
@@ -16028,10 +16029,10 @@
         <v>8</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -16136,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="AN114" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO114" s="7">
         <v>-1</v>
@@ -16153,10 +16154,10 @@
         <v>9</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -16261,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="AN115" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AO115" s="7">
         <v>-1</v>
@@ -16278,10 +16279,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -16386,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="AN116" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AO116" s="7">
         <v>-1</v>
@@ -16403,10 +16404,10 @@
         <v>9</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -16511,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="AN117" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO117" s="7">
         <v>-1</v>
@@ -16528,10 +16529,10 @@
         <v>8</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -16636,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="AN118" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AO118" s="7">
         <v>-1</v>
@@ -16653,10 +16654,10 @@
         <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -16761,7 +16762,7 @@
         <v>0</v>
       </c>
       <c r="AN119" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AO119" s="7">
         <v>-1</v>
@@ -16778,10 +16779,10 @@
         <v>9</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -16886,7 +16887,7 @@
         <v>0</v>
       </c>
       <c r="AN120" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO120" s="7">
         <v>-1</v>
@@ -16903,10 +16904,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -17011,7 +17012,7 @@
         <v>0</v>
       </c>
       <c r="AN121" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AO121" s="7">
         <v>-1</v>
@@ -17028,10 +17029,10 @@
         <v>9</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -17136,7 +17137,7 @@
         <v>0</v>
       </c>
       <c r="AN122" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO122" s="7">
         <v>-1</v>
@@ -17153,10 +17154,10 @@
         <v>9</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -17261,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="AN123" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO123" s="7">
         <v>-1</v>
@@ -17278,10 +17279,10 @@
         <v>9</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -17386,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="AN124" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO124" s="7">
         <v>-1</v>
@@ -17403,10 +17404,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -17511,7 +17512,7 @@
         <v>0</v>
       </c>
       <c r="AN125" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO125" s="7">
         <v>-1</v>
@@ -17528,10 +17529,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -17636,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="AN126" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AO126" s="7">
         <v>-1</v>
@@ -17653,10 +17654,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -17761,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="AN127" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AO127" s="7">
         <v>-1</v>
@@ -17778,10 +17779,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -17886,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="AN128" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AO128" s="7">
         <v>-1</v>
@@ -17903,10 +17904,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -18011,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="AN129" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO129" s="7">
         <v>-1</v>
@@ -18028,10 +18029,10 @@
         <v>5</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -18136,7 +18137,7 @@
         <v>0</v>
       </c>
       <c r="AN130" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO130" s="7">
         <v>-1</v>
@@ -18153,10 +18154,10 @@
         <v>6</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -18261,7 +18262,7 @@
         <v>0</v>
       </c>
       <c r="AN131" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AO131" s="7">
         <v>-1</v>
@@ -18278,10 +18279,10 @@
         <v>6</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -18386,7 +18387,7 @@
         <v>0</v>
       </c>
       <c r="AN132" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AO132" s="7">
         <v>-1</v>
@@ -18403,10 +18404,10 @@
         <v>6</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -18511,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="AN133" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO133" s="7">
         <v>-1</v>
@@ -18528,10 +18529,10 @@
         <v>9</v>
       </c>
       <c r="D134" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -18636,7 +18637,7 @@
         <v>0</v>
       </c>
       <c r="AN134" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AO134" s="7">
         <v>-1</v>
@@ -18653,10 +18654,10 @@
         <v>7</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -18761,10 +18762,10 @@
         <v>0</v>
       </c>
       <c r="AN135" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO135" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="AO135" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.2">
@@ -18778,10 +18779,10 @@
         <v>7</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -18886,10 +18887,10 @@
         <v>0</v>
       </c>
       <c r="AN136" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO136" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.2">
@@ -18903,10 +18904,10 @@
         <v>7</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -19011,10 +19012,10 @@
         <v>0</v>
       </c>
       <c r="AN137" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO137" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.2">
@@ -19028,10 +19029,10 @@
         <v>7</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -19136,10 +19137,10 @@
         <v>0</v>
       </c>
       <c r="AN138" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AO138" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.2">
@@ -19153,10 +19154,10 @@
         <v>7</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -19261,10 +19262,10 @@
         <v>0</v>
       </c>
       <c r="AN139" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO139" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.2">
@@ -19278,10 +19279,10 @@
         <v>7</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -19386,10 +19387,10 @@
         <v>0</v>
       </c>
       <c r="AN140" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO140" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.2">
@@ -19403,10 +19404,10 @@
         <v>7</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -19511,10 +19512,10 @@
         <v>0</v>
       </c>
       <c r="AN141" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO141" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.2">
@@ -19528,10 +19529,10 @@
         <v>7</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -19636,10 +19637,10 @@
         <v>0</v>
       </c>
       <c r="AN142" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO142" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.2">
@@ -19653,10 +19654,10 @@
         <v>7</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -19761,10 +19762,10 @@
         <v>0</v>
       </c>
       <c r="AN143" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO143" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.2">
@@ -19778,10 +19779,10 @@
         <v>7</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -19886,10 +19887,10 @@
         <v>0</v>
       </c>
       <c r="AN144" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO144" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.2">
@@ -19903,10 +19904,10 @@
         <v>6</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -20011,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="AN145" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AO145" s="7">
         <v>-1</v>
@@ -20028,10 +20029,10 @@
         <v>6</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -20136,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="AN146" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AO146" s="7">
         <v>-1</v>
@@ -20153,10 +20154,10 @@
         <v>6</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -20261,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="AN147" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AO147" s="7">
         <v>-1</v>
@@ -20278,10 +20279,10 @@
         <v>6</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -20386,7 +20387,7 @@
         <v>0</v>
       </c>
       <c r="AN148" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AO148" s="7">
         <v>-1</v>
@@ -20403,10 +20404,10 @@
         <v>6</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -20511,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="AN149" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO149" s="7">
         <v>-1</v>
@@ -20528,10 +20529,10 @@
         <v>6</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -20636,7 +20637,7 @@
         <v>0</v>
       </c>
       <c r="AN150" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO150" s="7">
         <v>-1</v>
@@ -20653,10 +20654,10 @@
         <v>6</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -20761,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="AN151" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO151" s="7">
         <v>-1</v>
@@ -20778,10 +20779,10 @@
         <v>6</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -20886,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="AN152" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO152" s="7">
         <v>-1</v>
@@ -20903,10 +20904,10 @@
         <v>6</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -21011,7 +21012,7 @@
         <v>0</v>
       </c>
       <c r="AN153" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO153" s="7">
         <v>-1</v>
@@ -21028,10 +21029,10 @@
         <v>6</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -21136,7 +21137,7 @@
         <v>0</v>
       </c>
       <c r="AN154" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO154" s="7">
         <v>-1</v>
@@ -21153,10 +21154,10 @@
         <v>7</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -21261,10 +21262,10 @@
         <v>0</v>
       </c>
       <c r="AN155" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO155" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="AO155" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.2">
@@ -21278,10 +21279,10 @@
         <v>7</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -21386,10 +21387,10 @@
         <v>0</v>
       </c>
       <c r="AN156" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO156" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="AO156" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.2">
@@ -21403,10 +21404,10 @@
         <v>7</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -21514,7 +21515,7 @@
         <v>313</v>
       </c>
       <c r="AO157" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.2">
@@ -21528,10 +21529,10 @@
         <v>7</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -21639,7 +21640,7 @@
         <v>313</v>
       </c>
       <c r="AO158" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.2">
@@ -21653,10 +21654,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -21764,7 +21765,7 @@
         <v>313</v>
       </c>
       <c r="AO159" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.2">
@@ -21778,10 +21779,10 @@
         <v>7</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -21886,10 +21887,10 @@
         <v>0</v>
       </c>
       <c r="AN160" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO160" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.2">
@@ -21903,10 +21904,10 @@
         <v>7</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -22011,10 +22012,10 @@
         <v>0</v>
       </c>
       <c r="AN161" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO161" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.2">
@@ -22028,10 +22029,10 @@
         <v>7</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -22136,10 +22137,10 @@
         <v>0</v>
       </c>
       <c r="AN162" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO162" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.2">
@@ -22153,10 +22154,10 @@
         <v>7</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -22261,10 +22262,10 @@
         <v>0</v>
       </c>
       <c r="AN163" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO163" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.2">
@@ -22278,10 +22279,10 @@
         <v>7</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
@@ -22386,10 +22387,10 @@
         <v>0</v>
       </c>
       <c r="AN164" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO164" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="AO164" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.2">
@@ -22403,10 +22404,10 @@
         <v>5</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
@@ -22511,10 +22512,10 @@
         <v>0</v>
       </c>
       <c r="AN165" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO165" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="AO165" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.2">
@@ -22528,10 +22529,10 @@
         <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
@@ -22636,10 +22637,10 @@
         <v>0</v>
       </c>
       <c r="AN166" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO166" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="AO166" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.2">
@@ -22653,10 +22654,10 @@
         <v>5</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
@@ -22761,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="AN167" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO167" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="AO167" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.2">
@@ -22778,10 +22779,10 @@
         <v>5</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
@@ -22886,10 +22887,10 @@
         <v>0</v>
       </c>
       <c r="AN168" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO168" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.2">
@@ -22903,10 +22904,10 @@
         <v>5</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F169" s="3">
         <v>0</v>
@@ -23011,10 +23012,10 @@
         <v>0</v>
       </c>
       <c r="AN169" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO169" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.2">
@@ -23028,10 +23029,10 @@
         <v>5</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
@@ -23136,10 +23137,10 @@
         <v>0</v>
       </c>
       <c r="AN170" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO170" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.2">
@@ -23153,10 +23154,10 @@
         <v>5</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F171" s="3">
         <v>0</v>
@@ -23261,10 +23262,10 @@
         <v>0</v>
       </c>
       <c r="AN171" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO171" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.2">
@@ -23278,10 +23279,10 @@
         <v>5</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F172" s="3">
         <v>0</v>
@@ -23386,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="AN172" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO172" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:41" x14ac:dyDescent="0.2">
@@ -23403,10 +23404,10 @@
         <v>5</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
@@ -23511,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="AN173" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO173" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.2">
@@ -23528,10 +23529,10 @@
         <v>5</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
@@ -23636,10 +23637,10 @@
         <v>0</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO174" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.2">
@@ -23653,10 +23654,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
@@ -23761,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO175" s="7">
         <v>-1</v>
@@ -23778,10 +23779,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
@@ -23886,7 +23887,7 @@
         <v>0</v>
       </c>
       <c r="AN176" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO176" s="7">
         <v>-1</v>
@@ -23903,10 +23904,10 @@
         <v>4</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
@@ -24011,7 +24012,7 @@
         <v>0</v>
       </c>
       <c r="AN177" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO177" s="7">
         <v>-1</v>
@@ -24028,10 +24029,10 @@
         <v>4</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
@@ -24136,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="AN178" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO178" s="7">
         <v>-1</v>
@@ -24153,10 +24154,10 @@
         <v>4</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F179" s="3">
         <v>0</v>
@@ -24261,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="AN179" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO179" s="7">
         <v>-1</v>
@@ -24278,10 +24279,10 @@
         <v>5</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
@@ -24386,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="AN180" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AO180" s="7">
         <v>-1</v>
@@ -24403,10 +24404,10 @@
         <v>5</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F181" s="3">
         <v>0</v>
@@ -24511,7 +24512,7 @@
         <v>0</v>
       </c>
       <c r="AN181" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AO181" s="7">
         <v>-1</v>
@@ -24528,10 +24529,10 @@
         <v>5</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F182" s="3">
         <v>0</v>
@@ -24636,7 +24637,7 @@
         <v>0</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AO182" s="7">
         <v>-1</v>
@@ -24653,10 +24654,10 @@
         <v>5</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F183" s="3">
         <v>0</v>
@@ -24761,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="AN183" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AO183" s="7">
         <v>-1</v>
@@ -24778,10 +24779,10 @@
         <v>5</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F184" s="3">
         <v>0</v>
@@ -24886,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="AN184" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AO184" s="7">
         <v>-1</v>
@@ -24903,10 +24904,10 @@
         <v>5</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F185" s="3">
         <v>0</v>
@@ -25011,10 +25012,10 @@
         <v>0</v>
       </c>
       <c r="AN185" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO185" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="AO185" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.2">
@@ -25028,10 +25029,10 @@
         <v>5</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F186" s="3">
         <v>0</v>
@@ -25136,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="AN186" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO186" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="AO186" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.2">
@@ -25153,10 +25154,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F187" s="3">
         <v>0</v>
@@ -25261,10 +25262,10 @@
         <v>0</v>
       </c>
       <c r="AN187" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO187" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="AO187" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.2">
@@ -25278,10 +25279,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F188" s="3">
         <v>0</v>
@@ -25386,10 +25387,10 @@
         <v>0</v>
       </c>
       <c r="AN188" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO188" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.2">
@@ -25403,10 +25404,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F189" s="3">
         <v>0</v>
@@ -25511,10 +25512,10 @@
         <v>0</v>
       </c>
       <c r="AN189" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO189" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.2">
@@ -25528,10 +25529,10 @@
         <v>5</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F190" s="3">
         <v>0</v>
@@ -25636,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="AN190" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO190" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.2">
@@ -25653,10 +25654,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F191" s="3">
         <v>0</v>
@@ -25761,10 +25762,10 @@
         <v>0</v>
       </c>
       <c r="AN191" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO191" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.2">
@@ -25778,10 +25779,10 @@
         <v>5</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F192" s="3">
         <v>0</v>
@@ -25886,10 +25887,10 @@
         <v>0</v>
       </c>
       <c r="AN192" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO192" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="193" spans="1:41" x14ac:dyDescent="0.2">
@@ -25903,10 +25904,10 @@
         <v>5</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F193" s="3">
         <v>0</v>
@@ -26011,10 +26012,10 @@
         <v>0</v>
       </c>
       <c r="AN193" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO193" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.2">
@@ -26028,10 +26029,10 @@
         <v>5</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F194" s="3">
         <v>0</v>
@@ -26136,10 +26137,10 @@
         <v>0</v>
       </c>
       <c r="AN194" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO194" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="195" spans="1:41" x14ac:dyDescent="0.2">
@@ -26153,10 +26154,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F195" s="3">
         <v>0</v>
@@ -26261,10 +26262,10 @@
         <v>0</v>
       </c>
       <c r="AN195" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO195" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="AO195" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="196" spans="1:41" x14ac:dyDescent="0.2">
@@ -26278,10 +26279,10 @@
         <v>7</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F196" s="3">
         <v>0</v>
@@ -26386,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="AN196" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO196" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="AO196" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="197" spans="1:41" x14ac:dyDescent="0.2">
@@ -26403,10 +26404,10 @@
         <v>7</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F197" s="3">
         <v>0</v>
@@ -26511,10 +26512,10 @@
         <v>0</v>
       </c>
       <c r="AN197" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO197" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="198" spans="1:41" x14ac:dyDescent="0.2">
@@ -26528,10 +26529,10 @@
         <v>7</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F198" s="3">
         <v>0</v>
@@ -26636,10 +26637,10 @@
         <v>0</v>
       </c>
       <c r="AN198" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AO198" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="199" spans="1:41" x14ac:dyDescent="0.2">
@@ -26653,10 +26654,10 @@
         <v>7</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F199" s="3">
         <v>0</v>
@@ -26761,10 +26762,10 @@
         <v>0</v>
       </c>
       <c r="AN199" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO199" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="200" spans="1:41" x14ac:dyDescent="0.2">
@@ -26778,10 +26779,10 @@
         <v>7</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F200" s="3">
         <v>0</v>
@@ -26886,10 +26887,10 @@
         <v>0</v>
       </c>
       <c r="AN200" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO200" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="201" spans="1:41" x14ac:dyDescent="0.2">
@@ -26903,10 +26904,10 @@
         <v>7</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F201" s="3">
         <v>0</v>
@@ -27011,10 +27012,10 @@
         <v>0</v>
       </c>
       <c r="AN201" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AO201" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.2">
@@ -27028,10 +27029,10 @@
         <v>7</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F202" s="3">
         <v>0</v>
@@ -27136,10 +27137,10 @@
         <v>0</v>
       </c>
       <c r="AN202" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AO202" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="203" spans="1:41" x14ac:dyDescent="0.2">
@@ -27153,10 +27154,10 @@
         <v>8</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F203" s="3">
         <v>0</v>
@@ -27261,10 +27262,10 @@
         <v>0</v>
       </c>
       <c r="AN203" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO203" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="204" spans="1:41" x14ac:dyDescent="0.2">
@@ -27278,10 +27279,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F204" s="3">
         <v>0</v>
@@ -27386,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="AN204" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AO204" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="205" spans="1:41" x14ac:dyDescent="0.2">
@@ -27403,10 +27404,10 @@
         <v>6</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F205" s="3">
         <v>0</v>
@@ -27511,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="AN205" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO205" s="7">
         <v>-1</v>
@@ -27528,10 +27529,10 @@
         <v>6</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F206" s="3">
         <v>0</v>
@@ -27636,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="AN206" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO206" s="7">
         <v>-1</v>
@@ -27653,10 +27654,10 @@
         <v>6</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F207" s="3">
         <v>0</v>
@@ -27761,7 +27762,7 @@
         <v>0</v>
       </c>
       <c r="AN207" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO207" s="7">
         <v>-1</v>
@@ -27778,10 +27779,10 @@
         <v>6</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F208" s="3">
         <v>0</v>
@@ -27886,7 +27887,7 @@
         <v>0</v>
       </c>
       <c r="AN208" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO208" s="7">
         <v>-1</v>
@@ -27903,10 +27904,10 @@
         <v>6</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
@@ -28011,7 +28012,7 @@
         <v>0</v>
       </c>
       <c r="AN209" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO209" s="7">
         <v>-1</v>
@@ -28028,10 +28029,10 @@
         <v>6</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
@@ -28136,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="AN210" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO210" s="7">
         <v>-1</v>
@@ -28153,10 +28154,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
@@ -28261,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="AN211" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AO211" s="7">
         <v>-1</v>
@@ -28278,10 +28279,10 @@
         <v>6</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
@@ -28386,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="AN212" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AO212" s="7">
         <v>-1</v>
@@ -28403,10 +28404,10 @@
         <v>6</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
@@ -28511,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="AN213" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AO213" s="7">
         <v>-1</v>
@@ -28528,10 +28529,10 @@
         <v>6</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F214" s="3">
         <v>0</v>
@@ -28636,7 +28637,7 @@
         <v>0</v>
       </c>
       <c r="AN214" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AO214" s="7">
         <v>-1</v>
@@ -28653,10 +28654,10 @@
         <v>4</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F215" s="3">
         <v>0</v>
@@ -28761,7 +28762,7 @@
         <v>0</v>
       </c>
       <c r="AN215" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO215" s="7">
         <v>-1</v>
@@ -28778,10 +28779,10 @@
         <v>4</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F216" s="3">
         <v>0</v>
@@ -28886,7 +28887,7 @@
         <v>0</v>
       </c>
       <c r="AN216" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO216" s="7">
         <v>-1</v>
@@ -28903,10 +28904,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F217" s="3">
         <v>0</v>
@@ -29011,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="AN217" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AO217" s="7">
         <v>-1</v>
@@ -29028,10 +29029,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F218" s="3">
         <v>0</v>
@@ -29136,7 +29137,7 @@
         <v>0</v>
       </c>
       <c r="AN218" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AO218" s="7">
         <v>-1</v>
@@ -29153,10 +29154,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F219" s="3">
         <v>0</v>
@@ -29261,7 +29262,7 @@
         <v>0</v>
       </c>
       <c r="AN219" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO219" s="7">
         <v>-1</v>
@@ -29278,10 +29279,10 @@
         <v>4</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F220" s="3">
         <v>0</v>
@@ -29386,7 +29387,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO220" s="7">
         <v>-1</v>
@@ -29403,10 +29404,10 @@
         <v>4</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F221" s="3">
         <v>0</v>
@@ -29511,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO221" s="7">
         <v>-1</v>
@@ -29528,10 +29529,10 @@
         <v>4</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F222" s="3">
         <v>0</v>
@@ -29636,7 +29637,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO222" s="7">
         <v>-1</v>
@@ -29653,10 +29654,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F223" s="3">
         <v>0</v>
@@ -29761,7 +29762,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO223" s="7">
         <v>-1</v>
@@ -29778,10 +29779,10 @@
         <v>4</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F224" s="3">
         <v>0</v>
@@ -29886,7 +29887,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO224" s="7">
         <v>-1</v>
@@ -29903,10 +29904,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F225" s="3">
         <v>0</v>
@@ -30011,7 +30012,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO225" s="7">
         <v>-1</v>
@@ -30028,10 +30029,10 @@
         <v>4</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F226" s="3">
         <v>0</v>
@@ -30136,7 +30137,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO226" s="7">
         <v>-1</v>
@@ -30153,10 +30154,10 @@
         <v>4</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F227" s="3">
         <v>0</v>
@@ -30261,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO227" s="7">
         <v>-1</v>
@@ -30278,10 +30279,10 @@
         <v>4</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F228" s="3">
         <v>0</v>
@@ -30386,7 +30387,7 @@
         <v>0</v>
       </c>
       <c r="AN228" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO228" s="7">
         <v>-1</v>
@@ -30403,10 +30404,10 @@
         <v>4</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F229" s="3">
         <v>0</v>
@@ -30528,10 +30529,10 @@
         <v>4</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F230" s="3">
         <v>0</v>
@@ -30653,10 +30654,10 @@
         <v>4</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F231" s="3">
         <v>0</v>
@@ -30778,10 +30779,10 @@
         <v>4</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F232" s="3">
         <v>0</v>
@@ -30886,7 +30887,7 @@
         <v>0</v>
       </c>
       <c r="AN232" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO232" s="7">
         <v>-1</v>
@@ -30903,10 +30904,10 @@
         <v>4</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F233" s="3">
         <v>0</v>
@@ -31011,7 +31012,7 @@
         <v>0</v>
       </c>
       <c r="AN233" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO233" s="7">
         <v>-1</v>
@@ -31028,10 +31029,10 @@
         <v>4</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F234" s="3">
         <v>0</v>
@@ -31136,7 +31137,7 @@
         <v>0</v>
       </c>
       <c r="AN234" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO234" s="7">
         <v>-1</v>
@@ -31153,10 +31154,10 @@
         <v>8</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F235" s="3">
         <v>0</v>
@@ -31261,7 +31262,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO235" s="7">
         <v>-1</v>
@@ -31278,10 +31279,10 @@
         <v>8</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F236" s="3">
         <v>0</v>
@@ -31386,7 +31387,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO236" s="7">
         <v>-1</v>
@@ -31403,10 +31404,10 @@
         <v>8</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F237" s="3">
         <v>0</v>
@@ -31511,7 +31512,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO237" s="7">
         <v>-1</v>
@@ -31528,10 +31529,10 @@
         <v>8</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F238" s="3">
         <v>0</v>
@@ -31636,7 +31637,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO238" s="7">
         <v>-1</v>
@@ -31653,10 +31654,10 @@
         <v>8</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F239" s="3">
         <v>0</v>
@@ -31761,7 +31762,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO239" s="7">
         <v>-1</v>
@@ -31778,10 +31779,10 @@
         <v>8</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F240" s="3">
         <v>0</v>
@@ -31886,7 +31887,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO240" s="7">
         <v>-1</v>
@@ -31903,10 +31904,10 @@
         <v>8</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F241" s="3">
         <v>0</v>
@@ -32011,7 +32012,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO241" s="7">
         <v>-1</v>
@@ -32028,10 +32029,10 @@
         <v>8</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F242" s="3">
         <v>0</v>
@@ -32136,7 +32137,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO242" s="7">
         <v>-1</v>
@@ -32153,10 +32154,10 @@
         <v>8</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F243" s="3">
         <v>0</v>
@@ -32261,7 +32262,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO243" s="7">
         <v>-1</v>
@@ -32278,10 +32279,10 @@
         <v>8</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F244" s="3">
         <v>0</v>
@@ -32386,7 +32387,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AO244" s="7">
         <v>-1</v>
@@ -32403,10 +32404,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F245" s="3">
         <v>0</v>
@@ -32511,7 +32512,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO245" s="7">
         <v>-1</v>
@@ -32528,10 +32529,10 @@
         <v>3</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F246" s="3">
         <v>0</v>
@@ -32636,7 +32637,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO246" s="7">
         <v>-1</v>
@@ -32653,10 +32654,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F247" s="3">
         <v>0</v>
@@ -32761,7 +32762,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO247" s="7">
         <v>-1</v>
@@ -32778,10 +32779,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F248" s="3">
         <v>0</v>
@@ -32886,7 +32887,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO248" s="7">
         <v>-1</v>
@@ -32903,10 +32904,10 @@
         <v>4</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F249" s="3">
         <v>0</v>
@@ -33011,7 +33012,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO249" s="7">
         <v>-1</v>
@@ -33028,10 +33029,10 @@
         <v>5</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F250" s="3">
         <v>0</v>
@@ -33136,7 +33137,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO250" s="7">
         <v>-1</v>
@@ -33153,10 +33154,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F251" s="3">
         <v>0</v>
@@ -33261,7 +33262,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AO251" s="7">
         <v>-1</v>
@@ -33278,10 +33279,10 @@
         <v>5</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F252" s="3">
         <v>0</v>
@@ -33386,7 +33387,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AO252" s="7">
         <v>-1</v>
@@ -33403,10 +33404,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F253" s="3">
         <v>0</v>
@@ -33511,7 +33512,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO253" s="7">
         <v>-1</v>
@@ -33528,10 +33529,10 @@
         <v>5</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F254" s="3">
         <v>0</v>
@@ -33636,7 +33637,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO254" s="7">
         <v>-1</v>
@@ -33653,10 +33654,10 @@
         <v>7</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F255" s="3">
         <v>0</v>
@@ -33761,7 +33762,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO255" s="7">
         <v>-1</v>
@@ -33778,10 +33779,10 @@
         <v>7</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F256" s="3">
         <v>0</v>
@@ -33886,7 +33887,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO256" s="7">
         <v>-1</v>
@@ -33903,10 +33904,10 @@
         <v>7</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F257" s="3">
         <v>0</v>
@@ -34011,7 +34012,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO257" s="7">
         <v>-1</v>
@@ -34028,10 +34029,10 @@
         <v>7</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F258" s="3">
         <v>0</v>
@@ -34136,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO258" s="7">
         <v>-1</v>
@@ -34153,10 +34154,10 @@
         <v>7</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F259" s="3">
         <v>0</v>
@@ -34261,7 +34262,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AO259" s="7">
         <v>-1</v>
@@ -34278,10 +34279,10 @@
         <v>7</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F260" s="3">
         <v>0</v>
@@ -34386,7 +34387,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AO260" s="7">
         <v>-1</v>
@@ -34403,10 +34404,10 @@
         <v>7</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F261" s="3">
         <v>0</v>
@@ -34511,7 +34512,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO261" s="7">
         <v>-1</v>
@@ -34528,10 +34529,10 @@
         <v>7</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F262" s="3">
         <v>0</v>
@@ -34636,7 +34637,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO262" s="7">
         <v>-1</v>
@@ -34653,10 +34654,10 @@
         <v>7</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F263" s="3">
         <v>0</v>
@@ -34761,7 +34762,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO263" s="7">
         <v>-1</v>
@@ -34778,10 +34779,10 @@
         <v>7</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F264" s="3">
         <v>0</v>
@@ -34886,7 +34887,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO264" s="7">
         <v>-1</v>
@@ -34903,10 +34904,10 @@
         <v>5</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F265" s="3">
         <v>0</v>
@@ -35011,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO265" s="7">
         <v>-1</v>
@@ -35028,10 +35029,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F266" s="3">
         <v>0</v>
@@ -35136,7 +35137,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO266" s="7">
         <v>-1</v>
@@ -35153,10 +35154,10 @@
         <v>5</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F267" s="3">
         <v>0</v>
@@ -35261,7 +35262,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO267" s="7">
         <v>-1</v>
@@ -35278,10 +35279,10 @@
         <v>5</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F268" s="3">
         <v>0</v>
@@ -35386,7 +35387,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO268" s="7">
         <v>-1</v>
@@ -35403,10 +35404,10 @@
         <v>5</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F269" s="3">
         <v>0</v>
@@ -35511,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO269" s="7">
         <v>-1</v>
@@ -35528,10 +35529,10 @@
         <v>5</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F270" s="3">
         <v>0</v>
@@ -35636,7 +35637,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO270" s="7">
         <v>-1</v>
@@ -35653,10 +35654,10 @@
         <v>5</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F271" s="3">
         <v>0</v>
@@ -35761,7 +35762,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO271" s="7">
         <v>-1</v>
@@ -35778,10 +35779,10 @@
         <v>5</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F272" s="3">
         <v>0</v>
@@ -35886,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO272" s="7">
         <v>-1</v>
@@ -35903,10 +35904,10 @@
         <v>5</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F273" s="3">
         <v>0</v>
@@ -36011,7 +36012,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO273" s="7">
         <v>-1</v>
@@ -36028,10 +36029,10 @@
         <v>5</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F274" s="3">
         <v>0</v>
@@ -36136,7 +36137,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO274" s="7">
         <v>-1</v>
@@ -36153,10 +36154,10 @@
         <v>8</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F275" s="3">
         <v>0</v>
@@ -36261,7 +36262,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO275" s="7">
         <v>-1</v>
@@ -36278,10 +36279,10 @@
         <v>8</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F276" s="3">
         <v>0</v>
@@ -36386,7 +36387,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO276" s="7">
         <v>-1</v>
@@ -36403,10 +36404,10 @@
         <v>8</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F277" s="3">
         <v>0</v>
@@ -36511,7 +36512,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AO277" s="7">
         <v>-1</v>
@@ -36528,10 +36529,10 @@
         <v>8</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F278" s="3">
         <v>0</v>
@@ -36636,7 +36637,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AO278" s="7">
         <v>-1</v>
@@ -36653,10 +36654,10 @@
         <v>8</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F279" s="3">
         <v>0</v>
@@ -36761,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO279" s="7">
         <v>-1</v>
@@ -36778,10 +36779,10 @@
         <v>8</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F280" s="3">
         <v>0</v>
@@ -36886,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO280" s="7">
         <v>-1</v>
@@ -36903,10 +36904,10 @@
         <v>8</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F281" s="3">
         <v>0</v>
@@ -37011,7 +37012,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO281" s="7">
         <v>-1</v>
@@ -37028,10 +37029,10 @@
         <v>8</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F282" s="3">
         <v>0</v>
@@ -37136,7 +37137,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO282" s="7">
         <v>-1</v>
@@ -37153,10 +37154,10 @@
         <v>8</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F283" s="3">
         <v>0</v>
@@ -37261,7 +37262,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AO283" s="7">
         <v>-1</v>
@@ -37278,10 +37279,10 @@
         <v>8</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F284" s="3">
         <v>0</v>
@@ -37386,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AO284" s="7">
         <v>-1</v>
@@ -37403,10 +37404,10 @@
         <v>5</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F285" s="3">
         <v>0</v>
@@ -37511,7 +37512,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO285" s="7">
         <v>-1</v>
@@ -37528,10 +37529,10 @@
         <v>5</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F286" s="3">
         <v>0</v>
@@ -37636,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO286" s="7">
         <v>-1</v>
@@ -37653,10 +37654,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F287" s="3">
         <v>0</v>
@@ -37761,7 +37762,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO287" s="7">
         <v>-1</v>
@@ -37778,10 +37779,10 @@
         <v>5</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F288" s="3">
         <v>0</v>
@@ -37886,7 +37887,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO288" s="7">
         <v>-1</v>
@@ -37903,10 +37904,10 @@
         <v>5</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F289" s="3">
         <v>0</v>
@@ -38028,10 +38029,10 @@
         <v>6</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F290" s="3">
         <v>0</v>
@@ -38153,10 +38154,10 @@
         <v>7</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F291" s="3">
         <v>0</v>
@@ -38278,10 +38279,10 @@
         <v>7</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F292" s="3">
         <v>0</v>
@@ -38386,7 +38387,7 @@
         <v>0</v>
       </c>
       <c r="AN292" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO292" s="7">
         <v>-1</v>
@@ -38403,10 +38404,10 @@
         <v>7</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F293" s="3">
         <v>0</v>
@@ -38511,7 +38512,7 @@
         <v>0</v>
       </c>
       <c r="AN293" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO293" s="7">
         <v>-1</v>
@@ -38528,10 +38529,10 @@
         <v>7</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F294" s="3">
         <v>0</v>
@@ -38636,7 +38637,7 @@
         <v>0</v>
       </c>
       <c r="AN294" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO294" s="7">
         <v>-1</v>
@@ -38653,10 +38654,10 @@
         <v>5</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F295" s="3">
         <v>0</v>
@@ -38761,7 +38762,7 @@
         <v>0</v>
       </c>
       <c r="AN295" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO295" s="7">
         <v>-1</v>
@@ -38778,10 +38779,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F296" s="3">
         <v>0</v>
@@ -38886,7 +38887,7 @@
         <v>0</v>
       </c>
       <c r="AN296" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO296" s="7">
         <v>-1</v>
@@ -38903,10 +38904,10 @@
         <v>5</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F297" s="3">
         <v>0</v>
@@ -39011,7 +39012,7 @@
         <v>0</v>
       </c>
       <c r="AN297" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO297" s="7">
         <v>-1</v>
@@ -39028,10 +39029,10 @@
         <v>5</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F298" s="3">
         <v>0</v>
@@ -39136,7 +39137,7 @@
         <v>0</v>
       </c>
       <c r="AN298" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO298" s="7">
         <v>-1</v>
@@ -39153,10 +39154,10 @@
         <v>5</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F299" s="3">
         <v>0</v>
@@ -39261,7 +39262,7 @@
         <v>0</v>
       </c>
       <c r="AN299" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AO299" s="7">
         <v>-1</v>
@@ -39278,10 +39279,10 @@
         <v>5</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F300" s="3">
         <v>0</v>
@@ -39386,7 +39387,7 @@
         <v>0</v>
       </c>
       <c r="AN300" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AO300" s="7">
         <v>-1</v>
@@ -39403,10 +39404,10 @@
         <v>5</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F301" s="3">
         <v>0</v>
@@ -39511,7 +39512,7 @@
         <v>0</v>
       </c>
       <c r="AN301" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO301" s="7">
         <v>-1</v>
@@ -39528,10 +39529,10 @@
         <v>5</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F302" s="3">
         <v>0</v>
@@ -39636,7 +39637,7 @@
         <v>0</v>
       </c>
       <c r="AN302" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO302" s="7">
         <v>-1</v>
@@ -39653,10 +39654,10 @@
         <v>5</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F303" s="3">
         <v>0</v>
@@ -39761,7 +39762,7 @@
         <v>0</v>
       </c>
       <c r="AN303" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO303" s="7">
         <v>-1</v>
@@ -39778,10 +39779,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F304" s="3">
         <v>0</v>
@@ -39886,7 +39887,7 @@
         <v>0</v>
       </c>
       <c r="AN304" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO304" s="7">
         <v>-1</v>
@@ -39903,10 +39904,10 @@
         <v>7</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F305" s="3">
         <v>0</v>
@@ -40011,7 +40012,7 @@
         <v>0</v>
       </c>
       <c r="AN305" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO305" s="7">
         <v>-1</v>
@@ -40028,10 +40029,10 @@
         <v>7</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F306" s="3">
         <v>0</v>
@@ -40136,7 +40137,7 @@
         <v>0</v>
       </c>
       <c r="AN306" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO306" s="7">
         <v>-1</v>
@@ -40153,10 +40154,10 @@
         <v>7</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F307" s="3">
         <v>0</v>
@@ -40261,7 +40262,7 @@
         <v>0</v>
       </c>
       <c r="AN307" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO307" s="7">
         <v>-1</v>
@@ -40278,10 +40279,10 @@
         <v>7</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F308" s="3">
         <v>0</v>
@@ -40386,7 +40387,7 @@
         <v>0</v>
       </c>
       <c r="AN308" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO308" s="7">
         <v>-1</v>
@@ -40403,10 +40404,10 @@
         <v>7</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F309" s="3">
         <v>0</v>
@@ -40511,7 +40512,7 @@
         <v>0</v>
       </c>
       <c r="AN309" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO309" s="7">
         <v>-1</v>
@@ -40528,10 +40529,10 @@
         <v>7</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F310" s="3">
         <v>0</v>
@@ -40636,7 +40637,7 @@
         <v>0</v>
       </c>
       <c r="AN310" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AO310" s="7">
         <v>-1</v>
@@ -40653,10 +40654,10 @@
         <v>7</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F311" s="3">
         <v>0</v>
@@ -40761,7 +40762,7 @@
         <v>0</v>
       </c>
       <c r="AN311" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AO311" s="7">
         <v>-1</v>
@@ -40778,10 +40779,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F312" s="3">
         <v>0</v>
@@ -40886,7 +40887,7 @@
         <v>0</v>
       </c>
       <c r="AN312" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AO312" s="7">
         <v>-1</v>
@@ -40903,10 +40904,10 @@
         <v>7</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F313" s="3">
         <v>0</v>
@@ -41011,7 +41012,7 @@
         <v>0</v>
       </c>
       <c r="AN313" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AO313" s="7">
         <v>-1</v>
@@ -41028,10 +41029,10 @@
         <v>7</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F314" s="3">
         <v>0</v>
@@ -41136,7 +41137,7 @@
         <v>0</v>
       </c>
       <c r="AN314" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO314" s="7">
         <v>-1</v>
@@ -41153,10 +41154,10 @@
         <v>6</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F315" s="3">
         <v>0</v>
@@ -41261,7 +41262,7 @@
         <v>0</v>
       </c>
       <c r="AN315" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO315" s="7">
         <v>-1</v>
@@ -41278,10 +41279,10 @@
         <v>6</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F316" s="3">
         <v>0</v>
@@ -41386,7 +41387,7 @@
         <v>0</v>
       </c>
       <c r="AN316" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO316" s="7">
         <v>-1</v>
@@ -41403,10 +41404,10 @@
         <v>6</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F317" s="3">
         <v>0</v>
@@ -41511,7 +41512,7 @@
         <v>0</v>
       </c>
       <c r="AN317" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO317" s="7">
         <v>-1</v>
@@ -41528,10 +41529,10 @@
         <v>6</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F318" s="3">
         <v>0</v>
@@ -41636,7 +41637,7 @@
         <v>0</v>
       </c>
       <c r="AN318" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO318" s="7">
         <v>-1</v>
@@ -41653,10 +41654,10 @@
         <v>6</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F319" s="3">
         <v>0</v>
@@ -41761,7 +41762,7 @@
         <v>0</v>
       </c>
       <c r="AN319" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO319" s="7">
         <v>-1</v>
@@ -41778,10 +41779,10 @@
         <v>6</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F320" s="3">
         <v>0</v>
@@ -41886,7 +41887,7 @@
         <v>0</v>
       </c>
       <c r="AN320" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO320" s="7">
         <v>-1</v>
@@ -41903,10 +41904,10 @@
         <v>6</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F321" s="3">
         <v>0</v>
@@ -42011,7 +42012,7 @@
         <v>0</v>
       </c>
       <c r="AN321" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO321" s="7">
         <v>-1</v>
@@ -42028,10 +42029,10 @@
         <v>6</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F322" s="3">
         <v>0</v>
@@ -42136,7 +42137,7 @@
         <v>0</v>
       </c>
       <c r="AN322" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO322" s="7">
         <v>-1</v>
@@ -42153,10 +42154,10 @@
         <v>6</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F323" s="3">
         <v>0</v>
@@ -42261,7 +42262,7 @@
         <v>0</v>
       </c>
       <c r="AN323" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO323" s="7">
         <v>-1</v>

--- a/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="486">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -98,9 +98,6 @@
     <t>AntiPoison</t>
   </si>
   <si>
-    <t>Quanzhang</t>
-  </si>
-  <si>
     <t>Yujian</t>
   </si>
   <si>
@@ -113,16 +110,7 @@
     <t>Anqi</t>
   </si>
   <si>
-    <t>Wuxuechangshi</t>
-  </si>
-  <si>
     <t>Pinde</t>
-  </si>
-  <si>
-    <t>AttackPoison</t>
-  </si>
-  <si>
-    <t>Zuoyouhubo</t>
   </si>
   <si>
     <t>IQ</t>
@@ -1497,6 +1485,26 @@
   </si>
   <si>
     <t>1,10|9,10|20,10|14,20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveStoryId</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quanzhang</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wuxuechangshi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPoison</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zuoyouhubo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1504,7 +1512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1546,6 +1554,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1581,7 +1596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1600,6 +1615,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1954,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF54" workbookViewId="0">
-      <selection activeCell="AO75" sqref="AO75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2028,169 +2046,172 @@
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AN2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AO2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>31</v>
+      <c r="AP2" s="10" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AN3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AO3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AP3" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
@@ -2204,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -2312,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
@@ -2329,10 +2350,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -2437,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AP5">
         <v>950</v>
@@ -2457,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -2565,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="AN6" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AP6">
         <v>952</v>
@@ -2585,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -2693,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
@@ -2710,10 +2731,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -2818,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
@@ -2835,10 +2856,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -2943,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
@@ -2960,10 +2981,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -3068,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.2">
@@ -3085,10 +3106,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -3193,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
@@ -3210,10 +3231,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -3318,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AO12" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.2">
@@ -3335,10 +3356,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -3443,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AP13">
         <v>954</v>
@@ -3463,10 +3484,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -3571,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AO14" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
@@ -3588,10 +3609,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -3696,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AO15" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
@@ -3713,10 +3734,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -3821,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AO16" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
@@ -3838,10 +3859,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -3946,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AO17" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.2">
@@ -3963,10 +3984,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -4071,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AO18" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.2">
@@ -4088,10 +4109,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -4196,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
@@ -4213,10 +4234,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -4321,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AO20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AP20">
         <v>956</v>
@@ -4341,10 +4362,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -4449,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AP21">
         <v>958</v>
@@ -4469,10 +4490,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -4577,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AO22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
@@ -4594,10 +4615,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -4702,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AO23" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
@@ -4719,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -4827,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="AN24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AO24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
@@ -4844,10 +4865,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -4952,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AO25" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.2">
@@ -4969,10 +4990,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -5077,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="AN26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AO26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
@@ -5094,10 +5115,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -5202,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="AN27" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AO27" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
@@ -5219,10 +5240,10 @@
         <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -5327,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="AN28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AO28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
@@ -5344,10 +5365,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -5452,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="AN29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AO29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AP29">
         <v>960</v>
@@ -5472,10 +5493,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -5580,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AO30" s="7">
         <v>-1</v>
@@ -5597,10 +5618,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -5705,10 +5726,10 @@
         <v>0</v>
       </c>
       <c r="AN31" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AO31" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.2">
@@ -5722,10 +5743,10 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -5830,10 +5851,10 @@
         <v>0</v>
       </c>
       <c r="AN32" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AO32" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AP32">
         <v>962</v>
@@ -5850,10 +5871,10 @@
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -5958,10 +5979,10 @@
         <v>0</v>
       </c>
       <c r="AN33" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AO33" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AP33">
         <v>964</v>
@@ -5978,10 +5999,10 @@
         <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -6086,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="AN34" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AO34" s="7">
         <v>-1</v>
@@ -6103,10 +6124,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -6211,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="AN35" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AO35" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.2">
@@ -6228,10 +6249,10 @@
         <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -6336,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="AN36" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AO36" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
@@ -6353,10 +6374,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -6461,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="AN37" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AO37" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
@@ -6478,10 +6499,10 @@
         <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -6586,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="AN38" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AO38" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
@@ -6603,10 +6624,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -6711,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AO39" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AP39">
         <v>966</v>
@@ -6731,10 +6752,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F40" s="3">
         <v>2</v>
@@ -6839,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="AN40" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AO40" s="7">
         <v>-1</v>
@@ -6859,10 +6880,10 @@
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -6967,10 +6988,10 @@
         <v>0</v>
       </c>
       <c r="AN41" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AO41" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AP41">
         <v>970</v>
@@ -6987,10 +7008,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -7095,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AO42" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AP42" s="3">
         <v>972</v>
@@ -7115,10 +7136,10 @@
         <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -7223,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="AN43" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AO43" s="7">
         <v>-1</v>
@@ -7240,10 +7261,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -7348,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AO44" s="7">
         <v>-1</v>
@@ -7365,10 +7386,10 @@
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -7473,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AO45" s="7">
         <v>-1</v>
@@ -7490,10 +7511,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -7598,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AO46" s="7">
         <v>-1</v>
@@ -7615,10 +7636,10 @@
         <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -7723,10 +7744,10 @@
         <v>0</v>
       </c>
       <c r="AN47" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AO47" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.2">
@@ -7740,10 +7761,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -7848,10 +7869,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AO48" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AP48">
         <v>974</v>
@@ -7868,10 +7889,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -7976,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AO49" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AP49">
         <v>976</v>
@@ -7996,10 +8017,10 @@
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -8104,10 +8125,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AO50" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
@@ -8121,10 +8142,10 @@
         <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -8229,10 +8250,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AO51" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AP51">
         <v>978</v>
@@ -8249,10 +8270,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -8357,10 +8378,10 @@
         <v>0</v>
       </c>
       <c r="AN52" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AO52" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AP52">
         <v>980</v>
@@ -8377,10 +8398,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -8485,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AO53" s="7">
         <v>-1</v>
@@ -8505,10 +8526,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -8613,10 +8634,10 @@
         <v>0</v>
       </c>
       <c r="AN54" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AO54" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.2">
@@ -8630,10 +8651,10 @@
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -8738,10 +8759,10 @@
         <v>0</v>
       </c>
       <c r="AN55" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AO55" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AP55">
         <v>984</v>
@@ -8758,10 +8779,10 @@
         <v>6</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -8866,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AO56" s="7">
         <v>-1</v>
@@ -8883,10 +8904,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -8991,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="AN57" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AO57" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AP57">
         <v>986</v>
@@ -9011,10 +9032,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -9119,10 +9140,10 @@
         <v>0</v>
       </c>
       <c r="AN58" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO58" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AP58">
         <v>988</v>
@@ -9139,10 +9160,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -9247,10 +9268,10 @@
         <v>0</v>
       </c>
       <c r="AN59" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AO59" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
@@ -9264,10 +9285,10 @@
         <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -9372,10 +9393,10 @@
         <v>0</v>
       </c>
       <c r="AN60" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AO60" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
@@ -9389,10 +9410,10 @@
         <v>8</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -9497,10 +9518,10 @@
         <v>0</v>
       </c>
       <c r="AN61" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AO61" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
@@ -9514,10 +9535,10 @@
         <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -9622,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="AN62" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AO62" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AP62">
         <v>990</v>
@@ -9642,10 +9663,10 @@
         <v>6</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F63" s="3">
         <v>1</v>
@@ -9750,10 +9771,10 @@
         <v>0</v>
       </c>
       <c r="AN63" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AO63" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AP63">
         <v>992</v>
@@ -9770,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -9878,10 +9899,10 @@
         <v>0</v>
       </c>
       <c r="AN64" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AO64" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.2">
@@ -9895,10 +9916,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -10003,10 +10024,10 @@
         <v>0</v>
       </c>
       <c r="AN65" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AO65" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AP65">
         <v>994</v>
@@ -10023,10 +10044,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -10131,10 +10152,10 @@
         <v>0</v>
       </c>
       <c r="AN66" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AO66" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.2">
@@ -10148,10 +10169,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
@@ -10256,10 +10277,10 @@
         <v>0</v>
       </c>
       <c r="AN67" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AO67" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AP67">
         <v>996</v>
@@ -10276,10 +10297,10 @@
         <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -10384,10 +10405,10 @@
         <v>0</v>
       </c>
       <c r="AN68" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AO68" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.2">
@@ -10401,10 +10422,10 @@
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -10509,10 +10530,10 @@
         <v>0</v>
       </c>
       <c r="AN69" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AO69" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.2">
@@ -10526,10 +10547,10 @@
         <v>8</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -10634,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="AN70" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO70" s="7">
         <v>-1</v>
@@ -10651,10 +10672,10 @@
         <v>8</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -10759,10 +10780,10 @@
         <v>0</v>
       </c>
       <c r="AN71" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AO71" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.2">
@@ -10776,10 +10797,10 @@
         <v>5</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -10884,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="AN72" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AO72" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.2">
@@ -10901,10 +10922,10 @@
         <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -11009,10 +11030,10 @@
         <v>0</v>
       </c>
       <c r="AN73" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AO73" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.2">
@@ -11026,10 +11047,10 @@
         <v>8</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -11134,10 +11155,10 @@
         <v>0</v>
       </c>
       <c r="AN74" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AO74" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.2">
@@ -11151,10 +11172,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -11259,10 +11280,10 @@
         <v>0</v>
       </c>
       <c r="AN75" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AO75" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.2">
@@ -11276,10 +11297,10 @@
         <v>9</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -11384,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="AN76" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AO76" s="7">
         <v>-1</v>
@@ -11401,10 +11422,10 @@
         <v>5</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -11509,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="AN77" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO77" s="7">
         <v>-1</v>
@@ -11526,10 +11547,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -11634,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="AN78" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO78" s="7">
         <v>-1</v>
@@ -11651,10 +11672,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -11759,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="AN79" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AO79" s="7">
         <v>-1</v>
@@ -11776,10 +11797,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -11884,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="AN80" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AO80" s="7">
         <v>-1</v>
@@ -11904,10 +11925,10 @@
         <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -12012,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="AN81" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AO81" s="7">
         <v>-1</v>
@@ -12029,10 +12050,10 @@
         <v>6</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -12137,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="AN82" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AO82" s="7">
         <v>-1</v>
@@ -12154,10 +12175,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -12262,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="AN83" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AO83" s="7">
         <v>-1</v>
@@ -12279,10 +12300,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -12387,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AN84" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AO84" s="7">
         <v>-1</v>
@@ -12404,10 +12425,10 @@
         <v>6</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -12512,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="AN85" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AO85" s="7">
         <v>-1</v>
@@ -12529,10 +12550,10 @@
         <v>6</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -12637,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="AN86" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AO86" s="7">
         <v>-1</v>
@@ -12654,10 +12675,10 @@
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -12762,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="AN87" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AO87" s="7">
         <v>-1</v>
@@ -12779,10 +12800,10 @@
         <v>6</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -12887,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="AN88" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AO88" s="7">
         <v>-1</v>
@@ -12904,10 +12925,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -13012,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="AN89" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AO89" s="7">
         <v>-1</v>
@@ -13029,10 +13050,10 @@
         <v>6</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -13137,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="AN90" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AO90" s="7">
         <v>-1</v>
@@ -13154,10 +13175,10 @@
         <v>6</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -13262,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AN91" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AO91" s="7">
         <v>-1</v>
@@ -13279,10 +13300,10 @@
         <v>6</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -13387,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AN92" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AO92" s="7">
         <v>-1</v>
@@ -13404,10 +13425,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -13512,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="AN93" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AO93" s="7">
         <v>-1</v>
@@ -13529,10 +13550,10 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -13637,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="AN94" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AO94" s="7">
         <v>-1</v>
@@ -13654,10 +13675,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -13762,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="AN95" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AO95" s="7">
         <v>-1</v>
@@ -13779,10 +13800,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -13887,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="AN96" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AO96" s="7">
         <v>-1</v>
@@ -13904,10 +13925,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -14012,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="AN97" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AO97" s="7">
         <v>-1</v>
@@ -14029,10 +14050,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -14137,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="AN98" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AO98" s="7">
         <v>-1</v>
@@ -14154,10 +14175,10 @@
         <v>7</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -14262,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="AN99" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AO99" s="7">
         <v>-1</v>
@@ -14279,10 +14300,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -14387,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="AN100" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AO100" s="7">
         <v>-1</v>
@@ -14404,10 +14425,10 @@
         <v>7</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -14512,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="AN101" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AO101" s="7">
         <v>-1</v>
@@ -14529,10 +14550,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -14637,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="AN102" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AO102" s="7">
         <v>-1</v>
@@ -14654,10 +14675,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -14762,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="AN103" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AO103" s="7">
         <v>-1</v>
@@ -14779,10 +14800,10 @@
         <v>7</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -14887,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="AN104" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AO104" s="7">
         <v>-1</v>
@@ -14904,10 +14925,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -15012,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="AN105" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AO105" s="7">
         <v>-1</v>
@@ -15029,10 +15050,10 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -15137,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="AN106" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AO106" s="7">
         <v>-1</v>
@@ -15154,10 +15175,10 @@
         <v>6</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -15262,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="AN107" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AO107" s="7">
         <v>-1</v>
@@ -15279,10 +15300,10 @@
         <v>7</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -15387,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="AN108" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AO108" s="7">
         <v>-1</v>
@@ -15404,10 +15425,10 @@
         <v>6</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -15512,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="AN109" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AO109" s="7">
         <v>-1</v>
@@ -15529,10 +15550,10 @@
         <v>5</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -15637,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="AN110" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AO110" s="7">
         <v>-1</v>
@@ -15654,10 +15675,10 @@
         <v>6</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -15762,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="AN111" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AO111" s="7">
         <v>-1</v>
@@ -15779,10 +15800,10 @@
         <v>7</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -15887,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AN112" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AO112" s="7">
         <v>-1</v>
@@ -15904,10 +15925,10 @@
         <v>6</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -16012,7 +16033,7 @@
         <v>0</v>
       </c>
       <c r="AN113" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AO113" s="7">
         <v>-1</v>
@@ -16029,10 +16050,10 @@
         <v>8</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -16137,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="AN114" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AO114" s="7">
         <v>-1</v>
@@ -16154,10 +16175,10 @@
         <v>9</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -16262,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="AN115" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AO115" s="7">
         <v>-1</v>
@@ -16279,10 +16300,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -16387,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="AN116" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AO116" s="7">
         <v>-1</v>
@@ -16404,10 +16425,10 @@
         <v>9</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -16512,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="AN117" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AO117" s="7">
         <v>-1</v>
@@ -16529,10 +16550,10 @@
         <v>8</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -16637,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="AN118" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AO118" s="7">
         <v>-1</v>
@@ -16654,10 +16675,10 @@
         <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -16762,7 +16783,7 @@
         <v>0</v>
       </c>
       <c r="AN119" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AO119" s="7">
         <v>-1</v>
@@ -16779,10 +16800,10 @@
         <v>9</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -16887,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="AN120" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AO120" s="7">
         <v>-1</v>
@@ -16904,10 +16925,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -17012,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="AN121" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AO121" s="7">
         <v>-1</v>
@@ -17029,10 +17050,10 @@
         <v>9</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -17137,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="AN122" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO122" s="7">
         <v>-1</v>
@@ -17154,10 +17175,10 @@
         <v>9</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -17262,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="AN123" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO123" s="7">
         <v>-1</v>
@@ -17279,10 +17300,10 @@
         <v>9</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -17387,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="AN124" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AO124" s="7">
         <v>-1</v>
@@ -17404,10 +17425,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -17512,7 +17533,7 @@
         <v>0</v>
       </c>
       <c r="AN125" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AO125" s="7">
         <v>-1</v>
@@ -17529,10 +17550,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -17637,7 +17658,7 @@
         <v>0</v>
       </c>
       <c r="AN126" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO126" s="7">
         <v>-1</v>
@@ -17654,10 +17675,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -17762,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="AN127" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO127" s="7">
         <v>-1</v>
@@ -17779,10 +17800,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -17887,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="AN128" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO128" s="7">
         <v>-1</v>
@@ -17904,10 +17925,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -18012,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="AN129" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AO129" s="7">
         <v>-1</v>
@@ -18029,10 +18050,10 @@
         <v>5</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -18137,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="AN130" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AO130" s="7">
         <v>-1</v>
@@ -18154,10 +18175,10 @@
         <v>6</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -18262,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="AN131" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO131" s="7">
         <v>-1</v>
@@ -18279,10 +18300,10 @@
         <v>6</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -18387,7 +18408,7 @@
         <v>0</v>
       </c>
       <c r="AN132" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO132" s="7">
         <v>-1</v>
@@ -18404,10 +18425,10 @@
         <v>6</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -18512,7 +18533,7 @@
         <v>0</v>
       </c>
       <c r="AN133" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AO133" s="7">
         <v>-1</v>
@@ -18529,10 +18550,10 @@
         <v>9</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -18637,7 +18658,7 @@
         <v>0</v>
       </c>
       <c r="AN134" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AO134" s="7">
         <v>-1</v>
@@ -18654,10 +18675,10 @@
         <v>7</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -18762,10 +18783,10 @@
         <v>0</v>
       </c>
       <c r="AN135" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AO135" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.2">
@@ -18779,10 +18800,10 @@
         <v>7</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -18887,10 +18908,10 @@
         <v>0</v>
       </c>
       <c r="AN136" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AO136" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.2">
@@ -18904,10 +18925,10 @@
         <v>7</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -19012,10 +19033,10 @@
         <v>0</v>
       </c>
       <c r="AN137" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AO137" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.2">
@@ -19029,10 +19050,10 @@
         <v>7</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -19137,10 +19158,10 @@
         <v>0</v>
       </c>
       <c r="AN138" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AO138" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.2">
@@ -19154,10 +19175,10 @@
         <v>7</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -19262,10 +19283,10 @@
         <v>0</v>
       </c>
       <c r="AN139" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO139" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.2">
@@ -19279,10 +19300,10 @@
         <v>7</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -19387,10 +19408,10 @@
         <v>0</v>
       </c>
       <c r="AN140" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AO140" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.2">
@@ -19404,10 +19425,10 @@
         <v>7</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -19512,10 +19533,10 @@
         <v>0</v>
       </c>
       <c r="AN141" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AO141" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.2">
@@ -19529,10 +19550,10 @@
         <v>7</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -19637,10 +19658,10 @@
         <v>0</v>
       </c>
       <c r="AN142" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AO142" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.2">
@@ -19654,10 +19675,10 @@
         <v>7</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -19762,10 +19783,10 @@
         <v>0</v>
       </c>
       <c r="AN143" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO143" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.2">
@@ -19779,10 +19800,10 @@
         <v>7</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -19887,10 +19908,10 @@
         <v>0</v>
       </c>
       <c r="AN144" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO144" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.2">
@@ -19904,10 +19925,10 @@
         <v>6</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -20012,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="AN145" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AO145" s="7">
         <v>-1</v>
@@ -20029,10 +20050,10 @@
         <v>6</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -20137,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="AN146" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AO146" s="7">
         <v>-1</v>
@@ -20154,10 +20175,10 @@
         <v>6</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -20262,7 +20283,7 @@
         <v>0</v>
       </c>
       <c r="AN147" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AO147" s="7">
         <v>-1</v>
@@ -20279,10 +20300,10 @@
         <v>6</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -20387,7 +20408,7 @@
         <v>0</v>
       </c>
       <c r="AN148" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AO148" s="7">
         <v>-1</v>
@@ -20404,10 +20425,10 @@
         <v>6</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -20512,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="AN149" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AO149" s="7">
         <v>-1</v>
@@ -20529,10 +20550,10 @@
         <v>6</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -20637,7 +20658,7 @@
         <v>0</v>
       </c>
       <c r="AN150" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AO150" s="7">
         <v>-1</v>
@@ -20654,10 +20675,10 @@
         <v>6</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -20762,7 +20783,7 @@
         <v>0</v>
       </c>
       <c r="AN151" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AO151" s="7">
         <v>-1</v>
@@ -20779,10 +20800,10 @@
         <v>6</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -20887,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="AN152" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AO152" s="7">
         <v>-1</v>
@@ -20904,10 +20925,10 @@
         <v>6</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -21012,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="AN153" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AO153" s="7">
         <v>-1</v>
@@ -21029,10 +21050,10 @@
         <v>6</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -21137,7 +21158,7 @@
         <v>0</v>
       </c>
       <c r="AN154" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AO154" s="7">
         <v>-1</v>
@@ -21154,10 +21175,10 @@
         <v>7</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -21262,10 +21283,10 @@
         <v>0</v>
       </c>
       <c r="AN155" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO155" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.2">
@@ -21279,10 +21300,10 @@
         <v>7</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -21387,10 +21408,10 @@
         <v>0</v>
       </c>
       <c r="AN156" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO156" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.2">
@@ -21404,10 +21425,10 @@
         <v>7</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -21512,10 +21533,10 @@
         <v>0</v>
       </c>
       <c r="AN157" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO157" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.2">
@@ -21529,10 +21550,10 @@
         <v>7</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -21637,10 +21658,10 @@
         <v>0</v>
       </c>
       <c r="AN158" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO158" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.2">
@@ -21654,10 +21675,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -21762,10 +21783,10 @@
         <v>0</v>
       </c>
       <c r="AN159" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO159" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.2">
@@ -21779,10 +21800,10 @@
         <v>7</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -21887,10 +21908,10 @@
         <v>0</v>
       </c>
       <c r="AN160" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AO160" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.2">
@@ -21904,10 +21925,10 @@
         <v>7</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -22012,10 +22033,10 @@
         <v>0</v>
       </c>
       <c r="AN161" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AO161" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.2">
@@ -22029,10 +22050,10 @@
         <v>7</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -22137,10 +22158,10 @@
         <v>0</v>
       </c>
       <c r="AN162" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AO162" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.2">
@@ -22154,10 +22175,10 @@
         <v>7</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -22262,10 +22283,10 @@
         <v>0</v>
       </c>
       <c r="AN163" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AO163" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.2">
@@ -22279,10 +22300,10 @@
         <v>7</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
@@ -22387,10 +22408,10 @@
         <v>0</v>
       </c>
       <c r="AN164" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO164" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.2">
@@ -22404,10 +22425,10 @@
         <v>5</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
@@ -22512,10 +22533,10 @@
         <v>0</v>
       </c>
       <c r="AN165" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AO165" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.2">
@@ -22529,10 +22550,10 @@
         <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
@@ -22637,10 +22658,10 @@
         <v>0</v>
       </c>
       <c r="AN166" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AO166" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.2">
@@ -22654,10 +22675,10 @@
         <v>5</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
@@ -22762,10 +22783,10 @@
         <v>0</v>
       </c>
       <c r="AN167" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AO167" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.2">
@@ -22779,10 +22800,10 @@
         <v>5</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
@@ -22887,10 +22908,10 @@
         <v>0</v>
       </c>
       <c r="AN168" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AO168" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.2">
@@ -22904,10 +22925,10 @@
         <v>5</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F169" s="3">
         <v>0</v>
@@ -23012,10 +23033,10 @@
         <v>0</v>
       </c>
       <c r="AN169" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AO169" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.2">
@@ -23029,10 +23050,10 @@
         <v>5</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
@@ -23137,10 +23158,10 @@
         <v>0</v>
       </c>
       <c r="AN170" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AO170" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.2">
@@ -23154,10 +23175,10 @@
         <v>5</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F171" s="3">
         <v>0</v>
@@ -23262,10 +23283,10 @@
         <v>0</v>
       </c>
       <c r="AN171" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AO171" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.2">
@@ -23279,10 +23300,10 @@
         <v>5</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F172" s="3">
         <v>0</v>
@@ -23387,10 +23408,10 @@
         <v>0</v>
       </c>
       <c r="AN172" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AO172" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="173" spans="1:41" x14ac:dyDescent="0.2">
@@ -23404,10 +23425,10 @@
         <v>5</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
@@ -23512,10 +23533,10 @@
         <v>0</v>
       </c>
       <c r="AN173" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AO173" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.2">
@@ -23529,10 +23550,10 @@
         <v>5</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
@@ -23637,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AO174" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.2">
@@ -23654,10 +23675,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
@@ -23762,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AO175" s="7">
         <v>-1</v>
@@ -23779,10 +23800,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
@@ -23887,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="AN176" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AO176" s="7">
         <v>-1</v>
@@ -23904,10 +23925,10 @@
         <v>4</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
@@ -24012,7 +24033,7 @@
         <v>0</v>
       </c>
       <c r="AN177" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AO177" s="7">
         <v>-1</v>
@@ -24029,10 +24050,10 @@
         <v>4</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
@@ -24137,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="AN178" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AO178" s="7">
         <v>-1</v>
@@ -24154,10 +24175,10 @@
         <v>4</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F179" s="3">
         <v>0</v>
@@ -24262,7 +24283,7 @@
         <v>0</v>
       </c>
       <c r="AN179" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AO179" s="7">
         <v>-1</v>
@@ -24279,10 +24300,10 @@
         <v>5</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
@@ -24387,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="AN180" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AO180" s="7">
         <v>-1</v>
@@ -24404,10 +24425,10 @@
         <v>5</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F181" s="3">
         <v>0</v>
@@ -24512,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="AN181" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AO181" s="7">
         <v>-1</v>
@@ -24529,10 +24550,10 @@
         <v>5</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F182" s="3">
         <v>0</v>
@@ -24637,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AO182" s="7">
         <v>-1</v>
@@ -24654,10 +24675,10 @@
         <v>5</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F183" s="3">
         <v>0</v>
@@ -24762,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="AN183" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AO183" s="7">
         <v>-1</v>
@@ -24779,10 +24800,10 @@
         <v>5</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F184" s="3">
         <v>0</v>
@@ -24887,7 +24908,7 @@
         <v>0</v>
       </c>
       <c r="AN184" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AO184" s="7">
         <v>-1</v>
@@ -24904,10 +24925,10 @@
         <v>5</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F185" s="3">
         <v>0</v>
@@ -25012,10 +25033,10 @@
         <v>0</v>
       </c>
       <c r="AN185" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AO185" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.2">
@@ -25029,10 +25050,10 @@
         <v>5</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F186" s="3">
         <v>0</v>
@@ -25137,10 +25158,10 @@
         <v>0</v>
       </c>
       <c r="AN186" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AO186" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.2">
@@ -25154,10 +25175,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F187" s="3">
         <v>0</v>
@@ -25262,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="AN187" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AO187" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.2">
@@ -25279,10 +25300,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F188" s="3">
         <v>0</v>
@@ -25387,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="AN188" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AO188" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.2">
@@ -25404,10 +25425,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F189" s="3">
         <v>0</v>
@@ -25512,10 +25533,10 @@
         <v>0</v>
       </c>
       <c r="AN189" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AO189" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.2">
@@ -25529,10 +25550,10 @@
         <v>5</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F190" s="3">
         <v>0</v>
@@ -25637,10 +25658,10 @@
         <v>0</v>
       </c>
       <c r="AN190" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AO190" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.2">
@@ -25654,10 +25675,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F191" s="3">
         <v>0</v>
@@ -25762,10 +25783,10 @@
         <v>0</v>
       </c>
       <c r="AN191" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AO191" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.2">
@@ -25779,10 +25800,10 @@
         <v>5</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F192" s="3">
         <v>0</v>
@@ -25887,10 +25908,10 @@
         <v>0</v>
       </c>
       <c r="AN192" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AO192" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="193" spans="1:41" x14ac:dyDescent="0.2">
@@ -25904,10 +25925,10 @@
         <v>5</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F193" s="3">
         <v>0</v>
@@ -26012,10 +26033,10 @@
         <v>0</v>
       </c>
       <c r="AN193" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AO193" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.2">
@@ -26029,10 +26050,10 @@
         <v>5</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F194" s="3">
         <v>0</v>
@@ -26137,10 +26158,10 @@
         <v>0</v>
       </c>
       <c r="AN194" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AO194" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="195" spans="1:41" x14ac:dyDescent="0.2">
@@ -26154,10 +26175,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F195" s="3">
         <v>0</v>
@@ -26262,10 +26283,10 @@
         <v>0</v>
       </c>
       <c r="AN195" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AO195" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="196" spans="1:41" x14ac:dyDescent="0.2">
@@ -26279,10 +26300,10 @@
         <v>7</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F196" s="3">
         <v>0</v>
@@ -26387,10 +26408,10 @@
         <v>0</v>
       </c>
       <c r="AN196" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AO196" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="197" spans="1:41" x14ac:dyDescent="0.2">
@@ -26404,10 +26425,10 @@
         <v>7</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F197" s="3">
         <v>0</v>
@@ -26512,10 +26533,10 @@
         <v>0</v>
       </c>
       <c r="AN197" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AO197" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="198" spans="1:41" x14ac:dyDescent="0.2">
@@ -26529,10 +26550,10 @@
         <v>7</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F198" s="3">
         <v>0</v>
@@ -26637,10 +26658,10 @@
         <v>0</v>
       </c>
       <c r="AN198" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AO198" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="199" spans="1:41" x14ac:dyDescent="0.2">
@@ -26654,10 +26675,10 @@
         <v>7</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F199" s="3">
         <v>0</v>
@@ -26762,10 +26783,10 @@
         <v>0</v>
       </c>
       <c r="AN199" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AO199" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="200" spans="1:41" x14ac:dyDescent="0.2">
@@ -26779,10 +26800,10 @@
         <v>7</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F200" s="3">
         <v>0</v>
@@ -26887,10 +26908,10 @@
         <v>0</v>
       </c>
       <c r="AN200" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AO200" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="201" spans="1:41" x14ac:dyDescent="0.2">
@@ -26904,10 +26925,10 @@
         <v>7</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F201" s="3">
         <v>0</v>
@@ -27012,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="AN201" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AO201" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.2">
@@ -27029,10 +27050,10 @@
         <v>7</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F202" s="3">
         <v>0</v>
@@ -27137,10 +27158,10 @@
         <v>0</v>
       </c>
       <c r="AN202" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AO202" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="203" spans="1:41" x14ac:dyDescent="0.2">
@@ -27154,10 +27175,10 @@
         <v>8</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F203" s="3">
         <v>0</v>
@@ -27262,10 +27283,10 @@
         <v>0</v>
       </c>
       <c r="AN203" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AO203" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="204" spans="1:41" x14ac:dyDescent="0.2">
@@ -27279,10 +27300,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F204" s="3">
         <v>0</v>
@@ -27387,10 +27408,10 @@
         <v>0</v>
       </c>
       <c r="AN204" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AO204" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="205" spans="1:41" x14ac:dyDescent="0.2">
@@ -27404,10 +27425,10 @@
         <v>6</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F205" s="3">
         <v>0</v>
@@ -27512,7 +27533,7 @@
         <v>0</v>
       </c>
       <c r="AN205" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AO205" s="7">
         <v>-1</v>
@@ -27529,10 +27550,10 @@
         <v>6</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F206" s="3">
         <v>0</v>
@@ -27637,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="AN206" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AO206" s="7">
         <v>-1</v>
@@ -27654,10 +27675,10 @@
         <v>6</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F207" s="3">
         <v>0</v>
@@ -27762,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="AN207" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AO207" s="7">
         <v>-1</v>
@@ -27779,10 +27800,10 @@
         <v>6</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F208" s="3">
         <v>0</v>
@@ -27887,7 +27908,7 @@
         <v>0</v>
       </c>
       <c r="AN208" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AO208" s="7">
         <v>-1</v>
@@ -27904,10 +27925,10 @@
         <v>6</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
@@ -28012,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="AN209" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AO209" s="7">
         <v>-1</v>
@@ -28029,10 +28050,10 @@
         <v>6</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
@@ -28137,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="AN210" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AO210" s="7">
         <v>-1</v>
@@ -28154,10 +28175,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
@@ -28262,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="AN211" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AO211" s="7">
         <v>-1</v>
@@ -28279,10 +28300,10 @@
         <v>6</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
@@ -28387,7 +28408,7 @@
         <v>0</v>
       </c>
       <c r="AN212" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AO212" s="7">
         <v>-1</v>
@@ -28404,10 +28425,10 @@
         <v>6</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
@@ -28512,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="AN213" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AO213" s="7">
         <v>-1</v>
@@ -28529,10 +28550,10 @@
         <v>6</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F214" s="3">
         <v>0</v>
@@ -28637,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="AN214" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AO214" s="7">
         <v>-1</v>
@@ -28654,10 +28675,10 @@
         <v>4</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F215" s="3">
         <v>0</v>
@@ -28762,7 +28783,7 @@
         <v>0</v>
       </c>
       <c r="AN215" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO215" s="7">
         <v>-1</v>
@@ -28779,10 +28800,10 @@
         <v>4</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F216" s="3">
         <v>0</v>
@@ -28887,7 +28908,7 @@
         <v>0</v>
       </c>
       <c r="AN216" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO216" s="7">
         <v>-1</v>
@@ -28904,10 +28925,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F217" s="3">
         <v>0</v>
@@ -29012,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="AN217" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AO217" s="7">
         <v>-1</v>
@@ -29029,10 +29050,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F218" s="3">
         <v>0</v>
@@ -29137,7 +29158,7 @@
         <v>0</v>
       </c>
       <c r="AN218" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AO218" s="7">
         <v>-1</v>
@@ -29154,10 +29175,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F219" s="3">
         <v>0</v>
@@ -29262,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="AN219" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO219" s="7">
         <v>-1</v>
@@ -29279,10 +29300,10 @@
         <v>4</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F220" s="3">
         <v>0</v>
@@ -29387,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO220" s="7">
         <v>-1</v>
@@ -29404,10 +29425,10 @@
         <v>4</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F221" s="3">
         <v>0</v>
@@ -29512,7 +29533,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO221" s="7">
         <v>-1</v>
@@ -29529,10 +29550,10 @@
         <v>4</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F222" s="3">
         <v>0</v>
@@ -29637,7 +29658,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO222" s="7">
         <v>-1</v>
@@ -29654,10 +29675,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F223" s="3">
         <v>0</v>
@@ -29762,7 +29783,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO223" s="7">
         <v>-1</v>
@@ -29779,10 +29800,10 @@
         <v>4</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F224" s="3">
         <v>0</v>
@@ -29887,7 +29908,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO224" s="7">
         <v>-1</v>
@@ -29904,10 +29925,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F225" s="3">
         <v>0</v>
@@ -30012,7 +30033,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AO225" s="7">
         <v>-1</v>
@@ -30029,10 +30050,10 @@
         <v>4</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F226" s="3">
         <v>0</v>
@@ -30137,7 +30158,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AO226" s="7">
         <v>-1</v>
@@ -30154,10 +30175,10 @@
         <v>4</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F227" s="3">
         <v>0</v>
@@ -30262,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AO227" s="7">
         <v>-1</v>
@@ -30279,10 +30300,10 @@
         <v>4</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F228" s="3">
         <v>0</v>
@@ -30387,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="AN228" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AO228" s="7">
         <v>-1</v>
@@ -30404,10 +30425,10 @@
         <v>4</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F229" s="3">
         <v>0</v>
@@ -30512,7 +30533,7 @@
         <v>0</v>
       </c>
       <c r="AN229" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AO229" s="7">
         <v>-1</v>
@@ -30529,10 +30550,10 @@
         <v>4</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F230" s="3">
         <v>0</v>
@@ -30637,7 +30658,7 @@
         <v>0</v>
       </c>
       <c r="AN230" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AO230" s="7">
         <v>-1</v>
@@ -30654,10 +30675,10 @@
         <v>4</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F231" s="3">
         <v>0</v>
@@ -30762,7 +30783,7 @@
         <v>0</v>
       </c>
       <c r="AN231" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AO231" s="7">
         <v>-1</v>
@@ -30779,10 +30800,10 @@
         <v>4</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F232" s="3">
         <v>0</v>
@@ -30887,7 +30908,7 @@
         <v>0</v>
       </c>
       <c r="AN232" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AO232" s="7">
         <v>-1</v>
@@ -30904,10 +30925,10 @@
         <v>4</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F233" s="3">
         <v>0</v>
@@ -31012,7 +31033,7 @@
         <v>0</v>
       </c>
       <c r="AN233" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AO233" s="7">
         <v>-1</v>
@@ -31029,10 +31050,10 @@
         <v>4</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F234" s="3">
         <v>0</v>
@@ -31137,7 +31158,7 @@
         <v>0</v>
       </c>
       <c r="AN234" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AO234" s="7">
         <v>-1</v>
@@ -31154,10 +31175,10 @@
         <v>8</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F235" s="3">
         <v>0</v>
@@ -31262,7 +31283,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AO235" s="7">
         <v>-1</v>
@@ -31279,10 +31300,10 @@
         <v>8</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F236" s="3">
         <v>0</v>
@@ -31387,7 +31408,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AO236" s="7">
         <v>-1</v>
@@ -31404,10 +31425,10 @@
         <v>8</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F237" s="3">
         <v>0</v>
@@ -31512,7 +31533,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AO237" s="7">
         <v>-1</v>
@@ -31529,10 +31550,10 @@
         <v>8</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F238" s="3">
         <v>0</v>
@@ -31637,7 +31658,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AO238" s="7">
         <v>-1</v>
@@ -31654,10 +31675,10 @@
         <v>8</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F239" s="3">
         <v>0</v>
@@ -31762,7 +31783,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AO239" s="7">
         <v>-1</v>
@@ -31779,10 +31800,10 @@
         <v>8</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F240" s="3">
         <v>0</v>
@@ -31887,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AO240" s="7">
         <v>-1</v>
@@ -31904,10 +31925,10 @@
         <v>8</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F241" s="3">
         <v>0</v>
@@ -32012,7 +32033,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AO241" s="7">
         <v>-1</v>
@@ -32029,10 +32050,10 @@
         <v>8</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F242" s="3">
         <v>0</v>
@@ -32137,7 +32158,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AO242" s="7">
         <v>-1</v>
@@ -32154,10 +32175,10 @@
         <v>8</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F243" s="3">
         <v>0</v>
@@ -32262,7 +32283,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AO243" s="7">
         <v>-1</v>
@@ -32279,10 +32300,10 @@
         <v>8</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F244" s="3">
         <v>0</v>
@@ -32387,7 +32408,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AO244" s="7">
         <v>-1</v>
@@ -32404,10 +32425,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F245" s="3">
         <v>0</v>
@@ -32512,7 +32533,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO245" s="7">
         <v>-1</v>
@@ -32529,10 +32550,10 @@
         <v>3</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F246" s="3">
         <v>0</v>
@@ -32637,7 +32658,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO246" s="7">
         <v>-1</v>
@@ -32654,10 +32675,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F247" s="3">
         <v>0</v>
@@ -32762,7 +32783,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AO247" s="7">
         <v>-1</v>
@@ -32779,10 +32800,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F248" s="3">
         <v>0</v>
@@ -32887,7 +32908,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AO248" s="7">
         <v>-1</v>
@@ -32904,10 +32925,10 @@
         <v>4</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F249" s="3">
         <v>0</v>
@@ -33012,7 +33033,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AO249" s="7">
         <v>-1</v>
@@ -33029,10 +33050,10 @@
         <v>5</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F250" s="3">
         <v>0</v>
@@ -33137,7 +33158,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AO250" s="7">
         <v>-1</v>
@@ -33154,10 +33175,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F251" s="3">
         <v>0</v>
@@ -33262,7 +33283,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AO251" s="7">
         <v>-1</v>
@@ -33279,10 +33300,10 @@
         <v>5</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F252" s="3">
         <v>0</v>
@@ -33387,7 +33408,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AO252" s="7">
         <v>-1</v>
@@ -33404,10 +33425,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F253" s="3">
         <v>0</v>
@@ -33512,7 +33533,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AO253" s="7">
         <v>-1</v>
@@ -33529,10 +33550,10 @@
         <v>5</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F254" s="3">
         <v>0</v>
@@ -33637,7 +33658,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AO254" s="7">
         <v>-1</v>
@@ -33654,10 +33675,10 @@
         <v>7</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F255" s="3">
         <v>0</v>
@@ -33762,7 +33783,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AO255" s="7">
         <v>-1</v>
@@ -33779,10 +33800,10 @@
         <v>7</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F256" s="3">
         <v>0</v>
@@ -33887,7 +33908,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AO256" s="7">
         <v>-1</v>
@@ -33904,10 +33925,10 @@
         <v>7</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F257" s="3">
         <v>0</v>
@@ -34012,7 +34033,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AO257" s="7">
         <v>-1</v>
@@ -34029,10 +34050,10 @@
         <v>7</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F258" s="3">
         <v>0</v>
@@ -34137,7 +34158,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AO258" s="7">
         <v>-1</v>
@@ -34154,10 +34175,10 @@
         <v>7</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F259" s="3">
         <v>0</v>
@@ -34262,7 +34283,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AO259" s="7">
         <v>-1</v>
@@ -34279,10 +34300,10 @@
         <v>7</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F260" s="3">
         <v>0</v>
@@ -34387,7 +34408,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AO260" s="7">
         <v>-1</v>
@@ -34404,10 +34425,10 @@
         <v>7</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F261" s="3">
         <v>0</v>
@@ -34512,7 +34533,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AO261" s="7">
         <v>-1</v>
@@ -34529,10 +34550,10 @@
         <v>7</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F262" s="3">
         <v>0</v>
@@ -34637,7 +34658,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AO262" s="7">
         <v>-1</v>
@@ -34654,10 +34675,10 @@
         <v>7</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F263" s="3">
         <v>0</v>
@@ -34762,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AO263" s="7">
         <v>-1</v>
@@ -34779,10 +34800,10 @@
         <v>7</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F264" s="3">
         <v>0</v>
@@ -34887,7 +34908,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AO264" s="7">
         <v>-1</v>
@@ -34904,10 +34925,10 @@
         <v>5</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F265" s="3">
         <v>0</v>
@@ -35012,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AO265" s="7">
         <v>-1</v>
@@ -35029,10 +35050,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F266" s="3">
         <v>0</v>
@@ -35137,7 +35158,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AO266" s="7">
         <v>-1</v>
@@ -35154,10 +35175,10 @@
         <v>5</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F267" s="3">
         <v>0</v>
@@ -35262,7 +35283,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AO267" s="7">
         <v>-1</v>
@@ -35279,10 +35300,10 @@
         <v>5</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F268" s="3">
         <v>0</v>
@@ -35387,7 +35408,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AO268" s="7">
         <v>-1</v>
@@ -35404,10 +35425,10 @@
         <v>5</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F269" s="3">
         <v>0</v>
@@ -35512,7 +35533,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AO269" s="7">
         <v>-1</v>
@@ -35529,10 +35550,10 @@
         <v>5</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F270" s="3">
         <v>0</v>
@@ -35637,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AO270" s="7">
         <v>-1</v>
@@ -35654,10 +35675,10 @@
         <v>5</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F271" s="3">
         <v>0</v>
@@ -35762,7 +35783,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AO271" s="7">
         <v>-1</v>
@@ -35779,10 +35800,10 @@
         <v>5</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F272" s="3">
         <v>0</v>
@@ -35887,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AO272" s="7">
         <v>-1</v>
@@ -35904,10 +35925,10 @@
         <v>5</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F273" s="3">
         <v>0</v>
@@ -36012,7 +36033,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AO273" s="7">
         <v>-1</v>
@@ -36029,10 +36050,10 @@
         <v>5</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F274" s="3">
         <v>0</v>
@@ -36137,7 +36158,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AO274" s="7">
         <v>-1</v>
@@ -36154,10 +36175,10 @@
         <v>8</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F275" s="3">
         <v>0</v>
@@ -36262,7 +36283,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AO275" s="7">
         <v>-1</v>
@@ -36279,10 +36300,10 @@
         <v>8</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F276" s="3">
         <v>0</v>
@@ -36387,7 +36408,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AO276" s="7">
         <v>-1</v>
@@ -36404,10 +36425,10 @@
         <v>8</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F277" s="3">
         <v>0</v>
@@ -36512,7 +36533,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AO277" s="7">
         <v>-1</v>
@@ -36529,10 +36550,10 @@
         <v>8</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F278" s="3">
         <v>0</v>
@@ -36637,7 +36658,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AO278" s="7">
         <v>-1</v>
@@ -36654,10 +36675,10 @@
         <v>8</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F279" s="3">
         <v>0</v>
@@ -36762,7 +36783,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AO279" s="7">
         <v>-1</v>
@@ -36779,10 +36800,10 @@
         <v>8</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F280" s="3">
         <v>0</v>
@@ -36887,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AO280" s="7">
         <v>-1</v>
@@ -36904,10 +36925,10 @@
         <v>8</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F281" s="3">
         <v>0</v>
@@ -37012,7 +37033,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AO281" s="7">
         <v>-1</v>
@@ -37029,10 +37050,10 @@
         <v>8</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F282" s="3">
         <v>0</v>
@@ -37137,7 +37158,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AO282" s="7">
         <v>-1</v>
@@ -37154,10 +37175,10 @@
         <v>8</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F283" s="3">
         <v>0</v>
@@ -37262,7 +37283,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AO283" s="7">
         <v>-1</v>
@@ -37279,10 +37300,10 @@
         <v>8</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F284" s="3">
         <v>0</v>
@@ -37387,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AO284" s="7">
         <v>-1</v>
@@ -37404,10 +37425,10 @@
         <v>5</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F285" s="3">
         <v>0</v>
@@ -37512,7 +37533,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AO285" s="7">
         <v>-1</v>
@@ -37529,10 +37550,10 @@
         <v>5</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F286" s="3">
         <v>0</v>
@@ -37637,7 +37658,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AO286" s="7">
         <v>-1</v>
@@ -37654,10 +37675,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F287" s="3">
         <v>0</v>
@@ -37762,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AO287" s="7">
         <v>-1</v>
@@ -37779,10 +37800,10 @@
         <v>5</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F288" s="3">
         <v>0</v>
@@ -37887,7 +37908,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AO288" s="7">
         <v>-1</v>
@@ -37904,10 +37925,10 @@
         <v>5</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F289" s="3">
         <v>0</v>
@@ -38012,7 +38033,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AO289" s="7">
         <v>-1</v>
@@ -38029,10 +38050,10 @@
         <v>6</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F290" s="3">
         <v>0</v>
@@ -38137,7 +38158,7 @@
         <v>0</v>
       </c>
       <c r="AN290" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AO290" s="7">
         <v>-1</v>
@@ -38154,10 +38175,10 @@
         <v>7</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F291" s="3">
         <v>0</v>
@@ -38262,7 +38283,7 @@
         <v>0</v>
       </c>
       <c r="AN291" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AO291" s="7">
         <v>-1</v>
@@ -38279,10 +38300,10 @@
         <v>7</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F292" s="3">
         <v>0</v>
@@ -38387,7 +38408,7 @@
         <v>0</v>
       </c>
       <c r="AN292" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AO292" s="7">
         <v>-1</v>
@@ -38404,10 +38425,10 @@
         <v>7</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F293" s="3">
         <v>0</v>
@@ -38512,7 +38533,7 @@
         <v>0</v>
       </c>
       <c r="AN293" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AO293" s="7">
         <v>-1</v>
@@ -38529,10 +38550,10 @@
         <v>7</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F294" s="3">
         <v>0</v>
@@ -38637,7 +38658,7 @@
         <v>0</v>
       </c>
       <c r="AN294" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AO294" s="7">
         <v>-1</v>
@@ -38654,10 +38675,10 @@
         <v>5</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F295" s="3">
         <v>0</v>
@@ -38762,7 +38783,7 @@
         <v>0</v>
       </c>
       <c r="AN295" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AO295" s="7">
         <v>-1</v>
@@ -38779,10 +38800,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F296" s="3">
         <v>0</v>
@@ -38887,7 +38908,7 @@
         <v>0</v>
       </c>
       <c r="AN296" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AO296" s="7">
         <v>-1</v>
@@ -38904,10 +38925,10 @@
         <v>5</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F297" s="3">
         <v>0</v>
@@ -39012,7 +39033,7 @@
         <v>0</v>
       </c>
       <c r="AN297" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AO297" s="7">
         <v>-1</v>
@@ -39029,10 +39050,10 @@
         <v>5</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F298" s="3">
         <v>0</v>
@@ -39137,7 +39158,7 @@
         <v>0</v>
       </c>
       <c r="AN298" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AO298" s="7">
         <v>-1</v>
@@ -39154,10 +39175,10 @@
         <v>5</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F299" s="3">
         <v>0</v>
@@ -39262,7 +39283,7 @@
         <v>0</v>
       </c>
       <c r="AN299" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AO299" s="7">
         <v>-1</v>
@@ -39279,10 +39300,10 @@
         <v>5</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F300" s="3">
         <v>0</v>
@@ -39387,7 +39408,7 @@
         <v>0</v>
       </c>
       <c r="AN300" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AO300" s="7">
         <v>-1</v>
@@ -39404,10 +39425,10 @@
         <v>5</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F301" s="3">
         <v>0</v>
@@ -39512,7 +39533,7 @@
         <v>0</v>
       </c>
       <c r="AN301" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AO301" s="7">
         <v>-1</v>
@@ -39529,10 +39550,10 @@
         <v>5</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F302" s="3">
         <v>0</v>
@@ -39637,7 +39658,7 @@
         <v>0</v>
       </c>
       <c r="AN302" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AO302" s="7">
         <v>-1</v>
@@ -39654,10 +39675,10 @@
         <v>5</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F303" s="3">
         <v>0</v>
@@ -39762,7 +39783,7 @@
         <v>0</v>
       </c>
       <c r="AN303" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AO303" s="7">
         <v>-1</v>
@@ -39779,10 +39800,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F304" s="3">
         <v>0</v>
@@ -39887,7 +39908,7 @@
         <v>0</v>
       </c>
       <c r="AN304" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AO304" s="7">
         <v>-1</v>
@@ -39904,10 +39925,10 @@
         <v>7</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F305" s="3">
         <v>0</v>
@@ -40012,7 +40033,7 @@
         <v>0</v>
       </c>
       <c r="AN305" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AO305" s="7">
         <v>-1</v>
@@ -40029,10 +40050,10 @@
         <v>7</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F306" s="3">
         <v>0</v>
@@ -40137,7 +40158,7 @@
         <v>0</v>
       </c>
       <c r="AN306" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AO306" s="7">
         <v>-1</v>
@@ -40154,10 +40175,10 @@
         <v>7</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F307" s="3">
         <v>0</v>
@@ -40262,7 +40283,7 @@
         <v>0</v>
       </c>
       <c r="AN307" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AO307" s="7">
         <v>-1</v>
@@ -40279,10 +40300,10 @@
         <v>7</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F308" s="3">
         <v>0</v>
@@ -40387,7 +40408,7 @@
         <v>0</v>
       </c>
       <c r="AN308" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AO308" s="7">
         <v>-1</v>
@@ -40404,10 +40425,10 @@
         <v>7</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F309" s="3">
         <v>0</v>
@@ -40512,7 +40533,7 @@
         <v>0</v>
       </c>
       <c r="AN309" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AO309" s="7">
         <v>-1</v>
@@ -40529,10 +40550,10 @@
         <v>7</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F310" s="3">
         <v>0</v>
@@ -40637,7 +40658,7 @@
         <v>0</v>
       </c>
       <c r="AN310" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AO310" s="7">
         <v>-1</v>
@@ -40654,10 +40675,10 @@
         <v>7</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F311" s="3">
         <v>0</v>
@@ -40762,7 +40783,7 @@
         <v>0</v>
       </c>
       <c r="AN311" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AO311" s="7">
         <v>-1</v>
@@ -40779,10 +40800,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F312" s="3">
         <v>0</v>
@@ -40887,7 +40908,7 @@
         <v>0</v>
       </c>
       <c r="AN312" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AO312" s="7">
         <v>-1</v>
@@ -40904,10 +40925,10 @@
         <v>7</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F313" s="3">
         <v>0</v>
@@ -41012,7 +41033,7 @@
         <v>0</v>
       </c>
       <c r="AN313" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AO313" s="7">
         <v>-1</v>
@@ -41029,10 +41050,10 @@
         <v>7</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F314" s="3">
         <v>0</v>
@@ -41137,7 +41158,7 @@
         <v>0</v>
       </c>
       <c r="AN314" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AO314" s="7">
         <v>-1</v>
@@ -41154,10 +41175,10 @@
         <v>6</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F315" s="3">
         <v>0</v>
@@ -41262,7 +41283,7 @@
         <v>0</v>
       </c>
       <c r="AN315" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AO315" s="7">
         <v>-1</v>
@@ -41279,10 +41300,10 @@
         <v>6</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F316" s="3">
         <v>0</v>
@@ -41387,7 +41408,7 @@
         <v>0</v>
       </c>
       <c r="AN316" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AO316" s="7">
         <v>-1</v>
@@ -41404,10 +41425,10 @@
         <v>6</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F317" s="3">
         <v>0</v>
@@ -41512,7 +41533,7 @@
         <v>0</v>
       </c>
       <c r="AN317" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AO317" s="7">
         <v>-1</v>
@@ -41529,10 +41550,10 @@
         <v>6</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F318" s="3">
         <v>0</v>
@@ -41637,7 +41658,7 @@
         <v>0</v>
       </c>
       <c r="AN318" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AO318" s="7">
         <v>-1</v>
@@ -41654,10 +41675,10 @@
         <v>6</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F319" s="3">
         <v>0</v>
@@ -41762,7 +41783,7 @@
         <v>0</v>
       </c>
       <c r="AN319" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AO319" s="7">
         <v>-1</v>
@@ -41779,10 +41800,10 @@
         <v>6</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F320" s="3">
         <v>0</v>
@@ -41887,7 +41908,7 @@
         <v>0</v>
       </c>
       <c r="AN320" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AO320" s="7">
         <v>-1</v>
@@ -41904,10 +41925,10 @@
         <v>6</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F321" s="3">
         <v>0</v>
@@ -42012,7 +42033,7 @@
         <v>0</v>
       </c>
       <c r="AN321" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AO321" s="7">
         <v>-1</v>
@@ -42029,10 +42050,10 @@
         <v>6</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F322" s="3">
         <v>0</v>
@@ -42137,7 +42158,7 @@
         <v>0</v>
       </c>
       <c r="AN322" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AO322" s="7">
         <v>-1</v>
@@ -42154,10 +42175,10 @@
         <v>6</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F323" s="3">
         <v>0</v>
@@ -42262,7 +42283,7 @@
         <v>0</v>
       </c>
       <c r="AN323" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AO323" s="7">
         <v>-1</v>

--- a/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meino\Documents\Projects\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C52391-31EE-40E7-B851-931CDF91D4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="14565" yWindow="2430" windowWidth="24900" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,9 +408,6 @@
     <t>金毛狮王</t>
   </si>
   <si>
-    <t>6,900|91,900</t>
-  </si>
-  <si>
     <t>1,6|5,6|22,6|16,10</t>
   </si>
   <si>
@@ -1505,13 +1503,17 @@
   </si>
   <si>
     <t>Zuoyouhubo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,900|92,900</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1621,10 +1623,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1969,11 +1971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2047,7 +2049,7 @@
         <v>19</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>20</v>
@@ -2062,16 +2064,16 @@
         <v>23</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="AH2" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="AI2" s="10" t="s">
         <v>484</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>485</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>25</v>
@@ -2083,7 +2085,7 @@
         <v>27</v>
       </c>
       <c r="AP2" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
@@ -3967,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AO17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="AO17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.2">
@@ -3984,10 +3986,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -4092,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="AO18" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.2">
@@ -4109,10 +4111,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -4217,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="AO19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
@@ -4234,10 +4236,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -4345,7 +4347,7 @@
         <v>80</v>
       </c>
       <c r="AO20" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AP20">
         <v>956</v>
@@ -4362,10 +4364,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -4473,7 +4475,7 @@
         <v>80</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AP21">
         <v>958</v>
@@ -4490,10 +4492,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -4598,10 +4600,10 @@
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="AO22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
@@ -4615,10 +4617,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -4723,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="AO23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
@@ -4740,10 +4742,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -4848,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="AN24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="AO24" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
@@ -4865,10 +4867,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -4973,10 +4975,10 @@
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="AO25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.2">
@@ -4990,10 +4992,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -5098,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="AN26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="AO26" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
@@ -5115,10 +5117,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -5223,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO27" s="7" t="s">
         <v>101</v>
@@ -5240,10 +5242,10 @@
         <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -5348,10 +5350,10 @@
         <v>0</v>
       </c>
       <c r="AN28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="AO28" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
@@ -5365,10 +5367,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -5473,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="AN29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="AO29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="AP29">
         <v>960</v>
@@ -5493,10 +5495,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -5601,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AO30" s="7">
         <v>-1</v>
@@ -5618,10 +5620,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -5726,10 +5728,10 @@
         <v>0</v>
       </c>
       <c r="AN31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO31" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="AO31" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.2">
@@ -5743,10 +5745,10 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -5851,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="AN32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO32" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="AO32" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="AP32">
         <v>962</v>
@@ -5871,7 +5873,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>71</v>
@@ -5979,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="AN33" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO33" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="AO33" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="AP33">
         <v>964</v>
@@ -5999,10 +6001,10 @@
         <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -6107,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="AN34" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AO34" s="7">
         <v>-1</v>
@@ -6124,10 +6126,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -6232,10 +6234,10 @@
         <v>0</v>
       </c>
       <c r="AN35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="AO35" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.2">
@@ -6249,10 +6251,10 @@
         <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -6357,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="AN36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO36" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="AO36" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
@@ -6374,10 +6376,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -6482,10 +6484,10 @@
         <v>0</v>
       </c>
       <c r="AN37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO37" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="AO37" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
@@ -6499,10 +6501,10 @@
         <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -6607,10 +6609,10 @@
         <v>0</v>
       </c>
       <c r="AN38" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO38" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="AO38" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
@@ -6624,10 +6626,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -6732,10 +6734,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO39" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="AO39" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="AP39">
         <v>966</v>
@@ -6752,10 +6754,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="F40" s="3">
         <v>2</v>
@@ -6860,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="AN40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO40" s="7">
         <v>-1</v>
@@ -6880,10 +6882,10 @@
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -6988,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AN41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO41" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="AO41" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="AP41">
         <v>970</v>
@@ -7008,10 +7010,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -7116,10 +7118,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO42" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="AO42" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="AP42" s="3">
         <v>972</v>
@@ -7136,10 +7138,10 @@
         <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -7244,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="AN43" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO43" s="7">
         <v>-1</v>
@@ -7261,10 +7263,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -7369,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO44" s="7">
         <v>-1</v>
@@ -7386,10 +7388,10 @@
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -7494,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO45" s="7">
         <v>-1</v>
@@ -7511,10 +7513,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -7619,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO46" s="7">
         <v>-1</v>
@@ -7636,10 +7638,10 @@
         <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -7744,10 +7746,10 @@
         <v>0</v>
       </c>
       <c r="AN47" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO47" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="AO47" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.2">
@@ -7761,10 +7763,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -7869,10 +7871,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO48" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="AO48" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="AP48">
         <v>974</v>
@@ -7889,10 +7891,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -7997,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO49" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="AO49" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="AP49">
         <v>976</v>
@@ -8017,10 +8019,10 @@
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -8125,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO50" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="AO50" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
@@ -8142,10 +8144,10 @@
         <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -8250,10 +8252,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO51" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="AO51" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="AP51">
         <v>978</v>
@@ -8270,10 +8272,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -8378,10 +8380,10 @@
         <v>0</v>
       </c>
       <c r="AN52" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO52" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="AO52" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="AP52">
         <v>980</v>
@@ -8398,10 +8400,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -8506,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO53" s="7">
         <v>-1</v>
@@ -8526,10 +8528,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -8634,10 +8636,10 @@
         <v>0</v>
       </c>
       <c r="AN54" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO54" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="AO54" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.2">
@@ -8651,10 +8653,10 @@
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -8759,10 +8761,10 @@
         <v>0</v>
       </c>
       <c r="AN55" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO55" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="AO55" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="AP55">
         <v>984</v>
@@ -8779,10 +8781,10 @@
         <v>6</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -8887,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO56" s="7">
         <v>-1</v>
@@ -8904,10 +8906,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="AN57" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO57" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="AO57" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="AP57">
         <v>986</v>
@@ -9032,10 +9034,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -9140,10 +9142,10 @@
         <v>0</v>
       </c>
       <c r="AN58" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO58" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="AO58" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="AP58">
         <v>988</v>
@@ -9160,10 +9162,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -9268,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="AN59" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO59" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
@@ -9285,10 +9287,10 @@
         <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -9393,10 +9395,10 @@
         <v>0</v>
       </c>
       <c r="AN60" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO60" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="AO60" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
@@ -9410,10 +9412,10 @@
         <v>8</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -9518,10 +9520,10 @@
         <v>0</v>
       </c>
       <c r="AN61" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO61" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="AO61" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
@@ -9535,10 +9537,10 @@
         <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -9643,10 +9645,10 @@
         <v>0</v>
       </c>
       <c r="AN62" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO62" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="AO62" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="AP62">
         <v>990</v>
@@ -9663,10 +9665,10 @@
         <v>6</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F63" s="3">
         <v>1</v>
@@ -9771,10 +9773,10 @@
         <v>0</v>
       </c>
       <c r="AN63" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO63" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="AO63" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="AP63">
         <v>992</v>
@@ -9791,10 +9793,10 @@
         <v>8</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -9899,10 +9901,10 @@
         <v>0</v>
       </c>
       <c r="AN64" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO64" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="AO64" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.2">
@@ -9916,10 +9918,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -10024,10 +10026,10 @@
         <v>0</v>
       </c>
       <c r="AN65" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO65" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="AO65" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="AP65">
         <v>994</v>
@@ -10044,10 +10046,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -10152,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AN66" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO66" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="AO66" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.2">
@@ -10169,10 +10171,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
@@ -10277,10 +10279,10 @@
         <v>0</v>
       </c>
       <c r="AN67" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO67" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="AO67" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="AP67">
         <v>996</v>
@@ -10297,10 +10299,10 @@
         <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -10405,10 +10407,10 @@
         <v>0</v>
       </c>
       <c r="AN68" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO68" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="AO68" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.2">
@@ -10422,10 +10424,10 @@
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -10530,10 +10532,10 @@
         <v>0</v>
       </c>
       <c r="AN69" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO69" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="AO69" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.2">
@@ -10547,10 +10549,10 @@
         <v>8</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -10655,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="AN70" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AO70" s="7">
         <v>-1</v>
@@ -10672,10 +10674,10 @@
         <v>8</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -10780,10 +10782,10 @@
         <v>0</v>
       </c>
       <c r="AN71" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO71" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="AO71" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.2">
@@ -10797,10 +10799,10 @@
         <v>5</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -10905,10 +10907,10 @@
         <v>0</v>
       </c>
       <c r="AN72" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO72" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="AO72" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.2">
@@ -10922,10 +10924,10 @@
         <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -11030,10 +11032,10 @@
         <v>0</v>
       </c>
       <c r="AN73" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO73" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.2">
@@ -11047,10 +11049,10 @@
         <v>8</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -11155,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="AN74" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AO74" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="AO74" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.2">
@@ -11172,10 +11174,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -11280,10 +11282,10 @@
         <v>0</v>
       </c>
       <c r="AN75" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AO75" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.2">
@@ -11297,10 +11299,10 @@
         <v>9</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -11422,10 +11424,10 @@
         <v>5</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -11530,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="AN77" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AO77" s="7">
         <v>-1</v>
@@ -11547,10 +11549,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -11655,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="AN78" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AO78" s="7">
         <v>-1</v>
@@ -11672,10 +11674,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -11780,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="AN79" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO79" s="7">
         <v>-1</v>
@@ -11797,10 +11799,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -11925,10 +11927,10 @@
         <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -12033,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="AN81" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO81" s="7">
         <v>-1</v>
@@ -12050,10 +12052,10 @@
         <v>6</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -12158,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="AN82" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AO82" s="7">
         <v>-1</v>
@@ -12175,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>71</v>
@@ -12283,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="AN83" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO83" s="7">
         <v>-1</v>
@@ -12300,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>71</v>
@@ -12408,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="AN84" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO84" s="7">
         <v>-1</v>
@@ -12425,10 +12427,10 @@
         <v>6</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -12533,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="AN85" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO85" s="7">
         <v>-1</v>
@@ -12550,10 +12552,10 @@
         <v>6</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -12658,7 +12660,7 @@
         <v>0</v>
       </c>
       <c r="AN86" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO86" s="7">
         <v>-1</v>
@@ -12675,10 +12677,10 @@
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -12783,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="AN87" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AO87" s="7">
         <v>-1</v>
@@ -12800,10 +12802,10 @@
         <v>6</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -12908,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="AN88" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AO88" s="7">
         <v>-1</v>
@@ -12925,10 +12927,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -13033,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AN89" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AO89" s="7">
         <v>-1</v>
@@ -13050,10 +13052,10 @@
         <v>6</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -13158,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="AN90" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO90" s="7">
         <v>-1</v>
@@ -13175,10 +13177,10 @@
         <v>6</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -13283,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="AN91" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO91" s="7">
         <v>-1</v>
@@ -13300,10 +13302,10 @@
         <v>6</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -13408,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="AN92" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO92" s="7">
         <v>-1</v>
@@ -13425,10 +13427,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -13533,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="AN93" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO93" s="7">
         <v>-1</v>
@@ -13550,10 +13552,10 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -13658,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="AN94" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AO94" s="7">
         <v>-1</v>
@@ -13675,10 +13677,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -13783,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="AN95" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO95" s="7">
         <v>-1</v>
@@ -13800,10 +13802,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -13908,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="AN96" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO96" s="7">
         <v>-1</v>
@@ -13925,10 +13927,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -14033,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="AN97" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO97" s="7">
         <v>-1</v>
@@ -14050,10 +14052,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -14158,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="AN98" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO98" s="7">
         <v>-1</v>
@@ -14175,10 +14177,10 @@
         <v>7</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -14283,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="AN99" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO99" s="7">
         <v>-1</v>
@@ -14300,10 +14302,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -14408,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="AN100" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO100" s="7">
         <v>-1</v>
@@ -14425,10 +14427,10 @@
         <v>7</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -14533,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="AN101" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO101" s="7">
         <v>-1</v>
@@ -14550,10 +14552,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -14658,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="AN102" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO102" s="7">
         <v>-1</v>
@@ -14675,10 +14677,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -14783,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="AN103" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AO103" s="7">
         <v>-1</v>
@@ -14800,10 +14802,10 @@
         <v>7</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -14908,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="AN104" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AO104" s="7">
         <v>-1</v>
@@ -14925,10 +14927,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -15033,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="AN105" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO105" s="7">
         <v>-1</v>
@@ -15050,10 +15052,10 @@
         <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -15158,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="AN106" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO106" s="7">
         <v>-1</v>
@@ -15175,10 +15177,10 @@
         <v>6</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -15283,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="AN107" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO107" s="7">
         <v>-1</v>
@@ -15300,10 +15302,10 @@
         <v>7</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -15408,7 +15410,7 @@
         <v>0</v>
       </c>
       <c r="AN108" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO108" s="7">
         <v>-1</v>
@@ -15425,10 +15427,10 @@
         <v>6</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -15533,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="AN109" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO109" s="7">
         <v>-1</v>
@@ -15550,10 +15552,10 @@
         <v>5</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -15658,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="AN110" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO110" s="7">
         <v>-1</v>
@@ -15675,10 +15677,10 @@
         <v>6</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -15783,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="AN111" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AO111" s="7">
         <v>-1</v>
@@ -15800,10 +15802,10 @@
         <v>7</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -15908,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="AN112" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AO112" s="7">
         <v>-1</v>
@@ -15925,10 +15927,10 @@
         <v>6</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -16033,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="AN113" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AO113" s="7">
         <v>-1</v>
@@ -16050,10 +16052,10 @@
         <v>8</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -16158,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="AN114" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AO114" s="7">
         <v>-1</v>
@@ -16175,10 +16177,10 @@
         <v>9</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -16283,7 +16285,7 @@
         <v>0</v>
       </c>
       <c r="AN115" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AO115" s="7">
         <v>-1</v>
@@ -16300,10 +16302,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -16408,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="AN116" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AO116" s="7">
         <v>-1</v>
@@ -16425,10 +16427,10 @@
         <v>9</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -16533,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="AN117" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AO117" s="7">
         <v>-1</v>
@@ -16550,10 +16552,10 @@
         <v>8</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -16658,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="AN118" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AO118" s="7">
         <v>-1</v>
@@ -16675,10 +16677,10 @@
         <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -16783,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="AN119" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AO119" s="7">
         <v>-1</v>
@@ -16800,10 +16802,10 @@
         <v>9</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -16908,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="AN120" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AO120" s="7">
         <v>-1</v>
@@ -16925,10 +16927,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -17033,7 +17035,7 @@
         <v>0</v>
       </c>
       <c r="AN121" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AO121" s="7">
         <v>-1</v>
@@ -17050,10 +17052,10 @@
         <v>9</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -17158,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="AN122" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO122" s="7">
         <v>-1</v>
@@ -17175,10 +17177,10 @@
         <v>9</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -17283,7 +17285,7 @@
         <v>0</v>
       </c>
       <c r="AN123" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO123" s="7">
         <v>-1</v>
@@ -17300,10 +17302,10 @@
         <v>9</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -17408,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="AN124" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AO124" s="7">
         <v>-1</v>
@@ -17425,10 +17427,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -17533,7 +17535,7 @@
         <v>0</v>
       </c>
       <c r="AN125" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AO125" s="7">
         <v>-1</v>
@@ -17550,10 +17552,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -17658,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="AN126" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO126" s="7">
         <v>-1</v>
@@ -17675,10 +17677,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -17783,7 +17785,7 @@
         <v>0</v>
       </c>
       <c r="AN127" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO127" s="7">
         <v>-1</v>
@@ -17800,10 +17802,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -17908,7 +17910,7 @@
         <v>0</v>
       </c>
       <c r="AN128" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO128" s="7">
         <v>-1</v>
@@ -17925,10 +17927,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -18033,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="AN129" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AO129" s="7">
         <v>-1</v>
@@ -18050,10 +18052,10 @@
         <v>5</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -18158,7 +18160,7 @@
         <v>0</v>
       </c>
       <c r="AN130" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AO130" s="7">
         <v>-1</v>
@@ -18175,10 +18177,10 @@
         <v>6</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -18283,7 +18285,7 @@
         <v>0</v>
       </c>
       <c r="AN131" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO131" s="7">
         <v>-1</v>
@@ -18300,10 +18302,10 @@
         <v>6</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -18408,7 +18410,7 @@
         <v>0</v>
       </c>
       <c r="AN132" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO132" s="7">
         <v>-1</v>
@@ -18425,10 +18427,10 @@
         <v>6</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -18533,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="AN133" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AO133" s="7">
         <v>-1</v>
@@ -18550,10 +18552,10 @@
         <v>9</v>
       </c>
       <c r="D134" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -18658,7 +18660,7 @@
         <v>0</v>
       </c>
       <c r="AN134" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO134" s="7">
         <v>-1</v>
@@ -18675,10 +18677,10 @@
         <v>7</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -18783,10 +18785,10 @@
         <v>0</v>
       </c>
       <c r="AN135" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO135" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="AO135" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.2">
@@ -18800,10 +18802,10 @@
         <v>7</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -18908,10 +18910,10 @@
         <v>0</v>
       </c>
       <c r="AN136" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO136" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.2">
@@ -18925,10 +18927,10 @@
         <v>7</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -19033,10 +19035,10 @@
         <v>0</v>
       </c>
       <c r="AN137" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AO137" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.2">
@@ -19050,10 +19052,10 @@
         <v>7</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -19158,10 +19160,10 @@
         <v>0</v>
       </c>
       <c r="AN138" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AO138" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.2">
@@ -19175,10 +19177,10 @@
         <v>7</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -19283,10 +19285,10 @@
         <v>0</v>
       </c>
       <c r="AN139" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AO139" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.2">
@@ -19300,10 +19302,10 @@
         <v>7</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -19408,10 +19410,10 @@
         <v>0</v>
       </c>
       <c r="AN140" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AO140" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.2">
@@ -19425,10 +19427,10 @@
         <v>7</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -19533,10 +19535,10 @@
         <v>0</v>
       </c>
       <c r="AN141" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO141" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.2">
@@ -19550,10 +19552,10 @@
         <v>7</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -19658,10 +19660,10 @@
         <v>0</v>
       </c>
       <c r="AN142" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO142" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.2">
@@ -19675,10 +19677,10 @@
         <v>7</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -19783,10 +19785,10 @@
         <v>0</v>
       </c>
       <c r="AN143" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AO143" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.2">
@@ -19800,10 +19802,10 @@
         <v>7</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -19908,10 +19910,10 @@
         <v>0</v>
       </c>
       <c r="AN144" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AO144" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.2">
@@ -19925,10 +19927,10 @@
         <v>6</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -20033,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="AN145" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AO145" s="7">
         <v>-1</v>
@@ -20050,10 +20052,10 @@
         <v>6</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -20158,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="AN146" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AO146" s="7">
         <v>-1</v>
@@ -20175,10 +20177,10 @@
         <v>6</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -20283,7 +20285,7 @@
         <v>0</v>
       </c>
       <c r="AN147" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO147" s="7">
         <v>-1</v>
@@ -20300,10 +20302,10 @@
         <v>6</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -20408,7 +20410,7 @@
         <v>0</v>
       </c>
       <c r="AN148" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO148" s="7">
         <v>-1</v>
@@ -20425,10 +20427,10 @@
         <v>6</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -20533,7 +20535,7 @@
         <v>0</v>
       </c>
       <c r="AN149" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO149" s="7">
         <v>-1</v>
@@ -20550,10 +20552,10 @@
         <v>6</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -20658,7 +20660,7 @@
         <v>0</v>
       </c>
       <c r="AN150" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO150" s="7">
         <v>-1</v>
@@ -20675,10 +20677,10 @@
         <v>6</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -20783,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="AN151" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO151" s="7">
         <v>-1</v>
@@ -20800,10 +20802,10 @@
         <v>6</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -20908,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="AN152" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AO152" s="7">
         <v>-1</v>
@@ -20925,10 +20927,10 @@
         <v>6</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -21033,7 +21035,7 @@
         <v>0</v>
       </c>
       <c r="AN153" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AO153" s="7">
         <v>-1</v>
@@ -21050,10 +21052,10 @@
         <v>6</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -21158,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="AN154" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AO154" s="7">
         <v>-1</v>
@@ -21175,10 +21177,10 @@
         <v>7</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -21283,10 +21285,10 @@
         <v>0</v>
       </c>
       <c r="AN155" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AO155" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="AO155" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.2">
@@ -21300,10 +21302,10 @@
         <v>7</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -21408,10 +21410,10 @@
         <v>0</v>
       </c>
       <c r="AN156" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AO156" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="AO156" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.2">
@@ -21425,10 +21427,10 @@
         <v>7</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -21533,10 +21535,10 @@
         <v>0</v>
       </c>
       <c r="AN157" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AO157" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.2">
@@ -21550,10 +21552,10 @@
         <v>7</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -21658,10 +21660,10 @@
         <v>0</v>
       </c>
       <c r="AN158" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AO158" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.2">
@@ -21675,10 +21677,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -21783,10 +21785,10 @@
         <v>0</v>
       </c>
       <c r="AN159" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AO159" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.2">
@@ -21800,10 +21802,10 @@
         <v>7</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -21908,10 +21910,10 @@
         <v>0</v>
       </c>
       <c r="AN160" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO160" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.2">
@@ -21925,10 +21927,10 @@
         <v>7</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -22033,10 +22035,10 @@
         <v>0</v>
       </c>
       <c r="AN161" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO161" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.2">
@@ -22050,10 +22052,10 @@
         <v>7</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -22158,10 +22160,10 @@
         <v>0</v>
       </c>
       <c r="AN162" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO162" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.2">
@@ -22175,10 +22177,10 @@
         <v>7</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -22283,10 +22285,10 @@
         <v>0</v>
       </c>
       <c r="AN163" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO163" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.2">
@@ -22300,10 +22302,10 @@
         <v>7</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
@@ -22408,10 +22410,10 @@
         <v>0</v>
       </c>
       <c r="AN164" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AO164" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="AO164" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.2">
@@ -22425,10 +22427,10 @@
         <v>5</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
@@ -22533,10 +22535,10 @@
         <v>0</v>
       </c>
       <c r="AN165" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO165" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="AO165" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.2">
@@ -22550,10 +22552,10 @@
         <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
@@ -22658,10 +22660,10 @@
         <v>0</v>
       </c>
       <c r="AN166" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO166" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="AO166" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.2">
@@ -22675,10 +22677,10 @@
         <v>5</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
@@ -22783,10 +22785,10 @@
         <v>0</v>
       </c>
       <c r="AN167" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO167" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="AO167" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.2">
@@ -22800,10 +22802,10 @@
         <v>5</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
@@ -22908,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="AN168" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO168" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.2">
@@ -22925,10 +22927,10 @@
         <v>5</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F169" s="3">
         <v>0</v>
@@ -23033,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="AN169" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO169" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.2">
@@ -23050,10 +23052,10 @@
         <v>5</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
@@ -23158,10 +23160,10 @@
         <v>0</v>
       </c>
       <c r="AN170" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO170" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.2">
@@ -23175,10 +23177,10 @@
         <v>5</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F171" s="3">
         <v>0</v>
@@ -23283,10 +23285,10 @@
         <v>0</v>
       </c>
       <c r="AN171" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO171" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.2">
@@ -23300,10 +23302,10 @@
         <v>5</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F172" s="3">
         <v>0</v>
@@ -23408,10 +23410,10 @@
         <v>0</v>
       </c>
       <c r="AN172" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO172" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="173" spans="1:41" x14ac:dyDescent="0.2">
@@ -23425,10 +23427,10 @@
         <v>5</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
@@ -23533,10 +23535,10 @@
         <v>0</v>
       </c>
       <c r="AN173" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO173" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.2">
@@ -23550,10 +23552,10 @@
         <v>5</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
@@ -23658,10 +23660,10 @@
         <v>0</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO174" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.2">
@@ -23675,10 +23677,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO175" s="7">
         <v>-1</v>
@@ -23800,10 +23802,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="AN176" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO176" s="7">
         <v>-1</v>
@@ -23925,10 +23927,10 @@
         <v>4</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
@@ -24033,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="AN177" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO177" s="7">
         <v>-1</v>
@@ -24050,10 +24052,10 @@
         <v>4</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
@@ -24158,7 +24160,7 @@
         <v>0</v>
       </c>
       <c r="AN178" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO178" s="7">
         <v>-1</v>
@@ -24175,10 +24177,10 @@
         <v>4</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F179" s="3">
         <v>0</v>
@@ -24283,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="AN179" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO179" s="7">
         <v>-1</v>
@@ -24300,10 +24302,10 @@
         <v>5</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
@@ -24408,7 +24410,7 @@
         <v>0</v>
       </c>
       <c r="AN180" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO180" s="7">
         <v>-1</v>
@@ -24425,10 +24427,10 @@
         <v>5</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F181" s="3">
         <v>0</v>
@@ -24533,7 +24535,7 @@
         <v>0</v>
       </c>
       <c r="AN181" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO181" s="7">
         <v>-1</v>
@@ -24550,10 +24552,10 @@
         <v>5</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F182" s="3">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO182" s="7">
         <v>-1</v>
@@ -24675,10 +24677,10 @@
         <v>5</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F183" s="3">
         <v>0</v>
@@ -24783,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="AN183" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO183" s="7">
         <v>-1</v>
@@ -24800,10 +24802,10 @@
         <v>5</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F184" s="3">
         <v>0</v>
@@ -24908,7 +24910,7 @@
         <v>0</v>
       </c>
       <c r="AN184" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO184" s="7">
         <v>-1</v>
@@ -24925,10 +24927,10 @@
         <v>5</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F185" s="3">
         <v>0</v>
@@ -25033,10 +25035,10 @@
         <v>0</v>
       </c>
       <c r="AN185" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO185" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="AO185" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.2">
@@ -25050,10 +25052,10 @@
         <v>5</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F186" s="3">
         <v>0</v>
@@ -25158,10 +25160,10 @@
         <v>0</v>
       </c>
       <c r="AN186" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO186" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="AO186" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.2">
@@ -25175,10 +25177,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F187" s="3">
         <v>0</v>
@@ -25283,10 +25285,10 @@
         <v>0</v>
       </c>
       <c r="AN187" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO187" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="AO187" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.2">
@@ -25300,10 +25302,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F188" s="3">
         <v>0</v>
@@ -25408,10 +25410,10 @@
         <v>0</v>
       </c>
       <c r="AN188" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AO188" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.2">
@@ -25425,10 +25427,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F189" s="3">
         <v>0</v>
@@ -25533,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="AN189" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AO189" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.2">
@@ -25550,10 +25552,10 @@
         <v>5</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F190" s="3">
         <v>0</v>
@@ -25658,10 +25660,10 @@
         <v>0</v>
       </c>
       <c r="AN190" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AO190" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.2">
@@ -25675,10 +25677,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F191" s="3">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         <v>0</v>
       </c>
       <c r="AN191" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AO191" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.2">
@@ -25800,10 +25802,10 @@
         <v>5</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F192" s="3">
         <v>0</v>
@@ -25908,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="AN192" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AO192" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="193" spans="1:41" x14ac:dyDescent="0.2">
@@ -25925,10 +25927,10 @@
         <v>5</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F193" s="3">
         <v>0</v>
@@ -26033,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="AN193" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AO193" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.2">
@@ -26050,10 +26052,10 @@
         <v>5</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F194" s="3">
         <v>0</v>
@@ -26158,10 +26160,10 @@
         <v>0</v>
       </c>
       <c r="AN194" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AO194" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="195" spans="1:41" x14ac:dyDescent="0.2">
@@ -26175,10 +26177,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F195" s="3">
         <v>0</v>
@@ -26283,10 +26285,10 @@
         <v>0</v>
       </c>
       <c r="AN195" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO195" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="AO195" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="196" spans="1:41" x14ac:dyDescent="0.2">
@@ -26300,10 +26302,10 @@
         <v>7</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F196" s="3">
         <v>0</v>
@@ -26408,10 +26410,10 @@
         <v>0</v>
       </c>
       <c r="AN196" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO196" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="AO196" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="197" spans="1:41" x14ac:dyDescent="0.2">
@@ -26425,10 +26427,10 @@
         <v>7</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F197" s="3">
         <v>0</v>
@@ -26533,10 +26535,10 @@
         <v>0</v>
       </c>
       <c r="AN197" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO197" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="198" spans="1:41" x14ac:dyDescent="0.2">
@@ -26550,10 +26552,10 @@
         <v>7</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F198" s="3">
         <v>0</v>
@@ -26658,10 +26660,10 @@
         <v>0</v>
       </c>
       <c r="AN198" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO198" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="199" spans="1:41" x14ac:dyDescent="0.2">
@@ -26675,10 +26677,10 @@
         <v>7</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F199" s="3">
         <v>0</v>
@@ -26783,10 +26785,10 @@
         <v>0</v>
       </c>
       <c r="AN199" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO199" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="200" spans="1:41" x14ac:dyDescent="0.2">
@@ -26800,10 +26802,10 @@
         <v>7</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F200" s="3">
         <v>0</v>
@@ -26908,10 +26910,10 @@
         <v>0</v>
       </c>
       <c r="AN200" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO200" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="201" spans="1:41" x14ac:dyDescent="0.2">
@@ -26925,10 +26927,10 @@
         <v>7</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F201" s="3">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="AN201" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AO201" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.2">
@@ -27050,10 +27052,10 @@
         <v>7</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F202" s="3">
         <v>0</v>
@@ -27158,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="AN202" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AO202" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="203" spans="1:41" x14ac:dyDescent="0.2">
@@ -27175,10 +27177,10 @@
         <v>8</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F203" s="3">
         <v>0</v>
@@ -27283,10 +27285,10 @@
         <v>0</v>
       </c>
       <c r="AN203" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AO203" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="204" spans="1:41" x14ac:dyDescent="0.2">
@@ -27300,10 +27302,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F204" s="3">
         <v>0</v>
@@ -27408,10 +27410,10 @@
         <v>0</v>
       </c>
       <c r="AN204" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO204" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="205" spans="1:41" x14ac:dyDescent="0.2">
@@ -27425,10 +27427,10 @@
         <v>6</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F205" s="3">
         <v>0</v>
@@ -27533,7 +27535,7 @@
         <v>0</v>
       </c>
       <c r="AN205" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AO205" s="7">
         <v>-1</v>
@@ -27550,10 +27552,10 @@
         <v>6</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F206" s="3">
         <v>0</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="AN206" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AO206" s="7">
         <v>-1</v>
@@ -27675,10 +27677,10 @@
         <v>6</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F207" s="3">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="AN207" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AO207" s="7">
         <v>-1</v>
@@ -27800,10 +27802,10 @@
         <v>6</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F208" s="3">
         <v>0</v>
@@ -27908,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="AN208" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO208" s="7">
         <v>-1</v>
@@ -27925,10 +27927,10 @@
         <v>6</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
@@ -28033,7 +28035,7 @@
         <v>0</v>
       </c>
       <c r="AN209" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO209" s="7">
         <v>-1</v>
@@ -28050,10 +28052,10 @@
         <v>6</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
@@ -28158,7 +28160,7 @@
         <v>0</v>
       </c>
       <c r="AN210" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO210" s="7">
         <v>-1</v>
@@ -28175,10 +28177,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
@@ -28283,7 +28285,7 @@
         <v>0</v>
       </c>
       <c r="AN211" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO211" s="7">
         <v>-1</v>
@@ -28300,10 +28302,10 @@
         <v>6</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
@@ -28408,7 +28410,7 @@
         <v>0</v>
       </c>
       <c r="AN212" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO212" s="7">
         <v>-1</v>
@@ -28425,10 +28427,10 @@
         <v>6</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
@@ -28533,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="AN213" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO213" s="7">
         <v>-1</v>
@@ -28550,10 +28552,10 @@
         <v>6</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F214" s="3">
         <v>0</v>
@@ -28658,7 +28660,7 @@
         <v>0</v>
       </c>
       <c r="AN214" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO214" s="7">
         <v>-1</v>
@@ -28675,10 +28677,10 @@
         <v>4</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F215" s="3">
         <v>0</v>
@@ -28783,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="AN215" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO215" s="7">
         <v>-1</v>
@@ -28800,10 +28802,10 @@
         <v>4</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F216" s="3">
         <v>0</v>
@@ -28908,7 +28910,7 @@
         <v>0</v>
       </c>
       <c r="AN216" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO216" s="7">
         <v>-1</v>
@@ -28925,10 +28927,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F217" s="3">
         <v>0</v>
@@ -29033,7 +29035,7 @@
         <v>0</v>
       </c>
       <c r="AN217" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO217" s="7">
         <v>-1</v>
@@ -29050,10 +29052,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F218" s="3">
         <v>0</v>
@@ -29158,7 +29160,7 @@
         <v>0</v>
       </c>
       <c r="AN218" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO218" s="7">
         <v>-1</v>
@@ -29175,10 +29177,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F219" s="3">
         <v>0</v>
@@ -29283,7 +29285,7 @@
         <v>0</v>
       </c>
       <c r="AN219" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO219" s="7">
         <v>-1</v>
@@ -29300,10 +29302,10 @@
         <v>4</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F220" s="3">
         <v>0</v>
@@ -29408,7 +29410,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO220" s="7">
         <v>-1</v>
@@ -29425,10 +29427,10 @@
         <v>4</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F221" s="3">
         <v>0</v>
@@ -29533,7 +29535,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO221" s="7">
         <v>-1</v>
@@ -29550,10 +29552,10 @@
         <v>4</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F222" s="3">
         <v>0</v>
@@ -29658,7 +29660,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO222" s="7">
         <v>-1</v>
@@ -29675,10 +29677,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F223" s="3">
         <v>0</v>
@@ -29783,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO223" s="7">
         <v>-1</v>
@@ -29800,10 +29802,10 @@
         <v>4</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F224" s="3">
         <v>0</v>
@@ -29908,7 +29910,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO224" s="7">
         <v>-1</v>
@@ -29925,10 +29927,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F225" s="3">
         <v>0</v>
@@ -30033,7 +30035,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AO225" s="7">
         <v>-1</v>
@@ -30050,10 +30052,10 @@
         <v>4</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F226" s="3">
         <v>0</v>
@@ -30158,7 +30160,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AO226" s="7">
         <v>-1</v>
@@ -30175,10 +30177,10 @@
         <v>4</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F227" s="3">
         <v>0</v>
@@ -30283,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AO227" s="7">
         <v>-1</v>
@@ -30300,10 +30302,10 @@
         <v>4</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F228" s="3">
         <v>0</v>
@@ -30408,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="AN228" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AO228" s="7">
         <v>-1</v>
@@ -30425,10 +30427,10 @@
         <v>4</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F229" s="3">
         <v>0</v>
@@ -30533,7 +30535,7 @@
         <v>0</v>
       </c>
       <c r="AN229" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO229" s="7">
         <v>-1</v>
@@ -30550,10 +30552,10 @@
         <v>4</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F230" s="3">
         <v>0</v>
@@ -30658,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="AN230" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO230" s="7">
         <v>-1</v>
@@ -30675,10 +30677,10 @@
         <v>4</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F231" s="3">
         <v>0</v>
@@ -30783,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="AN231" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO231" s="7">
         <v>-1</v>
@@ -30800,10 +30802,10 @@
         <v>4</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F232" s="3">
         <v>0</v>
@@ -30908,7 +30910,7 @@
         <v>0</v>
       </c>
       <c r="AN232" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO232" s="7">
         <v>-1</v>
@@ -30925,10 +30927,10 @@
         <v>4</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F233" s="3">
         <v>0</v>
@@ -31033,7 +31035,7 @@
         <v>0</v>
       </c>
       <c r="AN233" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO233" s="7">
         <v>-1</v>
@@ -31050,10 +31052,10 @@
         <v>4</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F234" s="3">
         <v>0</v>
@@ -31158,7 +31160,7 @@
         <v>0</v>
       </c>
       <c r="AN234" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO234" s="7">
         <v>-1</v>
@@ -31175,10 +31177,10 @@
         <v>8</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F235" s="3">
         <v>0</v>
@@ -31283,7 +31285,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO235" s="7">
         <v>-1</v>
@@ -31300,10 +31302,10 @@
         <v>8</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F236" s="3">
         <v>0</v>
@@ -31408,7 +31410,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO236" s="7">
         <v>-1</v>
@@ -31425,10 +31427,10 @@
         <v>8</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F237" s="3">
         <v>0</v>
@@ -31533,7 +31535,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO237" s="7">
         <v>-1</v>
@@ -31550,10 +31552,10 @@
         <v>8</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F238" s="3">
         <v>0</v>
@@ -31658,7 +31660,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO238" s="7">
         <v>-1</v>
@@ -31675,10 +31677,10 @@
         <v>8</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F239" s="3">
         <v>0</v>
@@ -31783,7 +31785,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO239" s="7">
         <v>-1</v>
@@ -31800,10 +31802,10 @@
         <v>8</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F240" s="3">
         <v>0</v>
@@ -31908,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO240" s="7">
         <v>-1</v>
@@ -31925,10 +31927,10 @@
         <v>8</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F241" s="3">
         <v>0</v>
@@ -32033,7 +32035,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO241" s="7">
         <v>-1</v>
@@ -32050,10 +32052,10 @@
         <v>8</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F242" s="3">
         <v>0</v>
@@ -32158,7 +32160,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AO242" s="7">
         <v>-1</v>
@@ -32175,10 +32177,10 @@
         <v>8</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F243" s="3">
         <v>0</v>
@@ -32283,7 +32285,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AO243" s="7">
         <v>-1</v>
@@ -32300,10 +32302,10 @@
         <v>8</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F244" s="3">
         <v>0</v>
@@ -32408,7 +32410,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO244" s="7">
         <v>-1</v>
@@ -32425,10 +32427,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F245" s="3">
         <v>0</v>
@@ -32533,7 +32535,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO245" s="7">
         <v>-1</v>
@@ -32550,10 +32552,10 @@
         <v>3</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F246" s="3">
         <v>0</v>
@@ -32658,7 +32660,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO246" s="7">
         <v>-1</v>
@@ -32675,10 +32677,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F247" s="3">
         <v>0</v>
@@ -32783,7 +32785,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO247" s="7">
         <v>-1</v>
@@ -32800,10 +32802,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F248" s="3">
         <v>0</v>
@@ -32908,7 +32910,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO248" s="7">
         <v>-1</v>
@@ -32925,10 +32927,10 @@
         <v>4</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F249" s="3">
         <v>0</v>
@@ -33033,7 +33035,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO249" s="7">
         <v>-1</v>
@@ -33050,10 +33052,10 @@
         <v>5</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F250" s="3">
         <v>0</v>
@@ -33158,7 +33160,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO250" s="7">
         <v>-1</v>
@@ -33175,10 +33177,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F251" s="3">
         <v>0</v>
@@ -33283,7 +33285,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AO251" s="7">
         <v>-1</v>
@@ -33300,10 +33302,10 @@
         <v>5</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F252" s="3">
         <v>0</v>
@@ -33408,7 +33410,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AO252" s="7">
         <v>-1</v>
@@ -33425,10 +33427,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F253" s="3">
         <v>0</v>
@@ -33533,7 +33535,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO253" s="7">
         <v>-1</v>
@@ -33550,10 +33552,10 @@
         <v>5</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F254" s="3">
         <v>0</v>
@@ -33658,7 +33660,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO254" s="7">
         <v>-1</v>
@@ -33675,10 +33677,10 @@
         <v>7</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F255" s="3">
         <v>0</v>
@@ -33783,7 +33785,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO255" s="7">
         <v>-1</v>
@@ -33800,10 +33802,10 @@
         <v>7</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F256" s="3">
         <v>0</v>
@@ -33908,7 +33910,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO256" s="7">
         <v>-1</v>
@@ -33925,10 +33927,10 @@
         <v>7</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F257" s="3">
         <v>0</v>
@@ -34033,7 +34035,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO257" s="7">
         <v>-1</v>
@@ -34050,10 +34052,10 @@
         <v>7</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F258" s="3">
         <v>0</v>
@@ -34158,7 +34160,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO258" s="7">
         <v>-1</v>
@@ -34175,10 +34177,10 @@
         <v>7</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F259" s="3">
         <v>0</v>
@@ -34283,7 +34285,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AO259" s="7">
         <v>-1</v>
@@ -34300,10 +34302,10 @@
         <v>7</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F260" s="3">
         <v>0</v>
@@ -34408,7 +34410,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AO260" s="7">
         <v>-1</v>
@@ -34425,10 +34427,10 @@
         <v>7</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F261" s="3">
         <v>0</v>
@@ -34533,7 +34535,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO261" s="7">
         <v>-1</v>
@@ -34550,10 +34552,10 @@
         <v>7</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F262" s="3">
         <v>0</v>
@@ -34658,7 +34660,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO262" s="7">
         <v>-1</v>
@@ -34675,10 +34677,10 @@
         <v>7</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F263" s="3">
         <v>0</v>
@@ -34783,7 +34785,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AO263" s="7">
         <v>-1</v>
@@ -34800,10 +34802,10 @@
         <v>7</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F264" s="3">
         <v>0</v>
@@ -34908,7 +34910,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO264" s="7">
         <v>-1</v>
@@ -34925,10 +34927,10 @@
         <v>5</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F265" s="3">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AO265" s="7">
         <v>-1</v>
@@ -35050,10 +35052,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F266" s="3">
         <v>0</v>
@@ -35158,7 +35160,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AO266" s="7">
         <v>-1</v>
@@ -35175,10 +35177,10 @@
         <v>5</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F267" s="3">
         <v>0</v>
@@ -35283,7 +35285,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO267" s="7">
         <v>-1</v>
@@ -35300,10 +35302,10 @@
         <v>5</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F268" s="3">
         <v>0</v>
@@ -35408,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO268" s="7">
         <v>-1</v>
@@ -35425,10 +35427,10 @@
         <v>5</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F269" s="3">
         <v>0</v>
@@ -35533,7 +35535,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO269" s="7">
         <v>-1</v>
@@ -35550,10 +35552,10 @@
         <v>5</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F270" s="3">
         <v>0</v>
@@ -35658,7 +35660,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO270" s="7">
         <v>-1</v>
@@ -35675,10 +35677,10 @@
         <v>5</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F271" s="3">
         <v>0</v>
@@ -35783,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO271" s="7">
         <v>-1</v>
@@ -35800,10 +35802,10 @@
         <v>5</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F272" s="3">
         <v>0</v>
@@ -35908,7 +35910,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO272" s="7">
         <v>-1</v>
@@ -35925,10 +35927,10 @@
         <v>5</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F273" s="3">
         <v>0</v>
@@ -36033,7 +36035,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO273" s="7">
         <v>-1</v>
@@ -36050,10 +36052,10 @@
         <v>5</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F274" s="3">
         <v>0</v>
@@ -36158,7 +36160,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO274" s="7">
         <v>-1</v>
@@ -36175,10 +36177,10 @@
         <v>8</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F275" s="3">
         <v>0</v>
@@ -36283,7 +36285,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO275" s="7">
         <v>-1</v>
@@ -36300,10 +36302,10 @@
         <v>8</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F276" s="3">
         <v>0</v>
@@ -36408,7 +36410,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO276" s="7">
         <v>-1</v>
@@ -36425,10 +36427,10 @@
         <v>8</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F277" s="3">
         <v>0</v>
@@ -36533,7 +36535,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO277" s="7">
         <v>-1</v>
@@ -36550,10 +36552,10 @@
         <v>8</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F278" s="3">
         <v>0</v>
@@ -36658,7 +36660,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO278" s="7">
         <v>-1</v>
@@ -36675,10 +36677,10 @@
         <v>8</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F279" s="3">
         <v>0</v>
@@ -36783,7 +36785,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO279" s="7">
         <v>-1</v>
@@ -36800,10 +36802,10 @@
         <v>8</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F280" s="3">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO280" s="7">
         <v>-1</v>
@@ -36925,10 +36927,10 @@
         <v>8</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F281" s="3">
         <v>0</v>
@@ -37033,7 +37035,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO281" s="7">
         <v>-1</v>
@@ -37050,10 +37052,10 @@
         <v>8</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F282" s="3">
         <v>0</v>
@@ -37158,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO282" s="7">
         <v>-1</v>
@@ -37175,10 +37177,10 @@
         <v>8</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F283" s="3">
         <v>0</v>
@@ -37283,7 +37285,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AO283" s="7">
         <v>-1</v>
@@ -37300,10 +37302,10 @@
         <v>8</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F284" s="3">
         <v>0</v>
@@ -37408,7 +37410,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AO284" s="7">
         <v>-1</v>
@@ -37425,10 +37427,10 @@
         <v>5</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F285" s="3">
         <v>0</v>
@@ -37533,7 +37535,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AO285" s="7">
         <v>-1</v>
@@ -37550,10 +37552,10 @@
         <v>5</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F286" s="3">
         <v>0</v>
@@ -37658,7 +37660,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AO286" s="7">
         <v>-1</v>
@@ -37675,10 +37677,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F287" s="3">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO287" s="7">
         <v>-1</v>
@@ -37800,10 +37802,10 @@
         <v>5</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F288" s="3">
         <v>0</v>
@@ -37908,7 +37910,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO288" s="7">
         <v>-1</v>
@@ -37925,10 +37927,10 @@
         <v>5</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F289" s="3">
         <v>0</v>
@@ -38033,7 +38035,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO289" s="7">
         <v>-1</v>
@@ -38050,10 +38052,10 @@
         <v>6</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F290" s="3">
         <v>0</v>
@@ -38158,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="AN290" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO290" s="7">
         <v>-1</v>
@@ -38175,10 +38177,10 @@
         <v>7</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F291" s="3">
         <v>0</v>
@@ -38283,7 +38285,7 @@
         <v>0</v>
       </c>
       <c r="AN291" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO291" s="7">
         <v>-1</v>
@@ -38300,10 +38302,10 @@
         <v>7</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F292" s="3">
         <v>0</v>
@@ -38408,7 +38410,7 @@
         <v>0</v>
       </c>
       <c r="AN292" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO292" s="7">
         <v>-1</v>
@@ -38425,10 +38427,10 @@
         <v>7</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F293" s="3">
         <v>0</v>
@@ -38533,7 +38535,7 @@
         <v>0</v>
       </c>
       <c r="AN293" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO293" s="7">
         <v>-1</v>
@@ -38550,10 +38552,10 @@
         <v>7</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F294" s="3">
         <v>0</v>
@@ -38658,7 +38660,7 @@
         <v>0</v>
       </c>
       <c r="AN294" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO294" s="7">
         <v>-1</v>
@@ -38675,10 +38677,10 @@
         <v>5</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F295" s="3">
         <v>0</v>
@@ -38783,7 +38785,7 @@
         <v>0</v>
       </c>
       <c r="AN295" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO295" s="7">
         <v>-1</v>
@@ -38800,10 +38802,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F296" s="3">
         <v>0</v>
@@ -38908,7 +38910,7 @@
         <v>0</v>
       </c>
       <c r="AN296" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO296" s="7">
         <v>-1</v>
@@ -38925,10 +38927,10 @@
         <v>5</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F297" s="3">
         <v>0</v>
@@ -39033,7 +39035,7 @@
         <v>0</v>
       </c>
       <c r="AN297" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO297" s="7">
         <v>-1</v>
@@ -39050,10 +39052,10 @@
         <v>5</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F298" s="3">
         <v>0</v>
@@ -39158,7 +39160,7 @@
         <v>0</v>
       </c>
       <c r="AN298" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO298" s="7">
         <v>-1</v>
@@ -39175,10 +39177,10 @@
         <v>5</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F299" s="3">
         <v>0</v>
@@ -39283,7 +39285,7 @@
         <v>0</v>
       </c>
       <c r="AN299" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AO299" s="7">
         <v>-1</v>
@@ -39300,10 +39302,10 @@
         <v>5</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F300" s="3">
         <v>0</v>
@@ -39408,7 +39410,7 @@
         <v>0</v>
       </c>
       <c r="AN300" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AO300" s="7">
         <v>-1</v>
@@ -39425,10 +39427,10 @@
         <v>5</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F301" s="3">
         <v>0</v>
@@ -39533,7 +39535,7 @@
         <v>0</v>
       </c>
       <c r="AN301" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO301" s="7">
         <v>-1</v>
@@ -39550,10 +39552,10 @@
         <v>5</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F302" s="3">
         <v>0</v>
@@ -39658,7 +39660,7 @@
         <v>0</v>
       </c>
       <c r="AN302" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO302" s="7">
         <v>-1</v>
@@ -39675,10 +39677,10 @@
         <v>5</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F303" s="3">
         <v>0</v>
@@ -39783,7 +39785,7 @@
         <v>0</v>
       </c>
       <c r="AN303" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO303" s="7">
         <v>-1</v>
@@ -39800,10 +39802,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F304" s="3">
         <v>0</v>
@@ -39908,7 +39910,7 @@
         <v>0</v>
       </c>
       <c r="AN304" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO304" s="7">
         <v>-1</v>
@@ -39925,10 +39927,10 @@
         <v>7</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F305" s="3">
         <v>0</v>
@@ -40033,7 +40035,7 @@
         <v>0</v>
       </c>
       <c r="AN305" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO305" s="7">
         <v>-1</v>
@@ -40050,10 +40052,10 @@
         <v>7</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F306" s="3">
         <v>0</v>
@@ -40158,7 +40160,7 @@
         <v>0</v>
       </c>
       <c r="AN306" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO306" s="7">
         <v>-1</v>
@@ -40175,10 +40177,10 @@
         <v>7</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F307" s="3">
         <v>0</v>
@@ -40283,7 +40285,7 @@
         <v>0</v>
       </c>
       <c r="AN307" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO307" s="7">
         <v>-1</v>
@@ -40300,10 +40302,10 @@
         <v>7</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F308" s="3">
         <v>0</v>
@@ -40408,7 +40410,7 @@
         <v>0</v>
       </c>
       <c r="AN308" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO308" s="7">
         <v>-1</v>
@@ -40425,10 +40427,10 @@
         <v>7</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F309" s="3">
         <v>0</v>
@@ -40533,7 +40535,7 @@
         <v>0</v>
       </c>
       <c r="AN309" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO309" s="7">
         <v>-1</v>
@@ -40550,10 +40552,10 @@
         <v>7</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F310" s="3">
         <v>0</v>
@@ -40658,7 +40660,7 @@
         <v>0</v>
       </c>
       <c r="AN310" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO310" s="7">
         <v>-1</v>
@@ -40675,10 +40677,10 @@
         <v>7</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F311" s="3">
         <v>0</v>
@@ -40783,7 +40785,7 @@
         <v>0</v>
       </c>
       <c r="AN311" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO311" s="7">
         <v>-1</v>
@@ -40800,10 +40802,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F312" s="3">
         <v>0</v>
@@ -40908,7 +40910,7 @@
         <v>0</v>
       </c>
       <c r="AN312" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO312" s="7">
         <v>-1</v>
@@ -40925,10 +40927,10 @@
         <v>7</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F313" s="3">
         <v>0</v>
@@ -41033,7 +41035,7 @@
         <v>0</v>
       </c>
       <c r="AN313" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO313" s="7">
         <v>-1</v>
@@ -41050,10 +41052,10 @@
         <v>7</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F314" s="3">
         <v>0</v>
@@ -41158,7 +41160,7 @@
         <v>0</v>
       </c>
       <c r="AN314" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AO314" s="7">
         <v>-1</v>
@@ -41175,10 +41177,10 @@
         <v>6</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F315" s="3">
         <v>0</v>
@@ -41283,7 +41285,7 @@
         <v>0</v>
       </c>
       <c r="AN315" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO315" s="7">
         <v>-1</v>
@@ -41300,10 +41302,10 @@
         <v>6</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F316" s="3">
         <v>0</v>
@@ -41408,7 +41410,7 @@
         <v>0</v>
       </c>
       <c r="AN316" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO316" s="7">
         <v>-1</v>
@@ -41425,10 +41427,10 @@
         <v>6</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F317" s="3">
         <v>0</v>
@@ -41533,7 +41535,7 @@
         <v>0</v>
       </c>
       <c r="AN317" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO317" s="7">
         <v>-1</v>
@@ -41550,10 +41552,10 @@
         <v>6</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F318" s="3">
         <v>0</v>
@@ -41658,7 +41660,7 @@
         <v>0</v>
       </c>
       <c r="AN318" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO318" s="7">
         <v>-1</v>
@@ -41675,10 +41677,10 @@
         <v>6</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F319" s="3">
         <v>0</v>
@@ -41783,7 +41785,7 @@
         <v>0</v>
       </c>
       <c r="AN319" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO319" s="7">
         <v>-1</v>
@@ -41800,10 +41802,10 @@
         <v>6</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F320" s="3">
         <v>0</v>
@@ -41908,7 +41910,7 @@
         <v>0</v>
       </c>
       <c r="AN320" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO320" s="7">
         <v>-1</v>
@@ -41925,10 +41927,10 @@
         <v>6</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F321" s="3">
         <v>0</v>
@@ -42033,7 +42035,7 @@
         <v>0</v>
       </c>
       <c r="AN321" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO321" s="7">
         <v>-1</v>
@@ -42050,10 +42052,10 @@
         <v>6</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F322" s="3">
         <v>0</v>
@@ -42158,7 +42160,7 @@
         <v>0</v>
       </c>
       <c r="AN322" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO322" s="7">
         <v>-1</v>
@@ -42175,10 +42177,10 @@
         <v>6</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F323" s="3">
         <v>0</v>
@@ -42283,7 +42285,7 @@
         <v>0</v>
       </c>
       <c r="AN323" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO323" s="7">
         <v>-1</v>

--- a/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7415961D-03C2-4213-96F6-C9C62EE59085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B3F697-4844-4FFF-9698-538B8918FA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="2400" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8190" yWindow="1590" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,9 +491,6 @@
     <t>42,900</t>
   </si>
   <si>
-    <t>8,13|22,11|22,10</t>
-  </si>
-  <si>
     <t>左冷禅</t>
   </si>
   <si>
@@ -1528,6 +1525,10 @@
   </si>
   <si>
     <t>Items-Id,Count</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,13|12,11|22,10</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2000,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" topLeftCell="AI17" workbookViewId="0">
+      <selection activeCell="AO26" sqref="AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2013,10 +2014,10 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
@@ -2149,116 +2150,116 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AO3" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>484</v>
-      </c>
       <c r="AP3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -2320,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AB4" t="s">
         <v>19</v>
@@ -2335,28 +2336,28 @@
         <v>22</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG4" t="s">
         <v>23</v>
       </c>
       <c r="AH4" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="AI4" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>481</v>
       </c>
       <c r="AK4" t="s">
         <v>24</v>
       </c>
       <c r="AN4" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="AO4" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AO4" s="10" t="s">
-        <v>489</v>
-      </c>
       <c r="AP4" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -4112,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AO18" s="5" t="s">
         <v>120</v>
@@ -5121,7 +5122,7 @@
         <v>149</v>
       </c>
       <c r="AO26" s="5" t="s">
-        <v>150</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
@@ -5135,10 +5136,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -5243,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="AN27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO27" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="AO27" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
@@ -5260,10 +5261,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -5368,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO28" s="5" t="s">
         <v>98</v>
@@ -5385,10 +5386,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -5493,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AN29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO29" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="AO29" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
@@ -5510,10 +5511,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -5618,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="AN30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO30" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="AO30" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="AP30">
         <v>960</v>
@@ -5638,10 +5639,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -5746,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO31" s="5">
         <v>-1</v>
@@ -5763,10 +5764,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -5871,10 +5872,10 @@
         <v>0</v>
       </c>
       <c r="AN32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO32" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="AO32" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
@@ -5888,10 +5889,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -5996,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="AN33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO33" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="AO33" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="AP33">
         <v>962</v>
@@ -6016,7 +6017,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>68</v>
@@ -6124,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="AN34" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO34" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="AO34" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="AP34">
         <v>964</v>
@@ -6144,10 +6145,10 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -6252,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AO35" s="5">
         <v>-1</v>
@@ -6269,10 +6270,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -6377,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="AN36" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO36" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="AO36" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
@@ -6394,10 +6395,10 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -6502,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="AN37" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO37" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="AO37" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
@@ -6519,10 +6520,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -6627,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="AN38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO38" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="AO38" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
@@ -6644,10 +6645,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -6752,10 +6753,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO39" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="AO39" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
@@ -6769,10 +6770,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -6877,10 +6878,10 @@
         <v>0</v>
       </c>
       <c r="AN40" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO40" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="AO40" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="AP40">
         <v>966</v>
@@ -6897,10 +6898,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F41" s="2">
         <v>2</v>
@@ -7005,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO41" s="5">
         <v>-1</v>
@@ -7025,10 +7026,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -7133,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO42" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="AO42" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="AP42">
         <v>970</v>
@@ -7153,10 +7154,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -7261,10 +7262,10 @@
         <v>0</v>
       </c>
       <c r="AN43" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO43" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="AO43" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="AP43" s="2">
         <v>972</v>
@@ -7281,10 +7282,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -7389,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO44" s="5">
         <v>-1</v>
@@ -7406,10 +7407,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -7514,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO45" s="5">
         <v>-1</v>
@@ -7531,10 +7532,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -7639,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO46" s="5">
         <v>-1</v>
@@ -7656,10 +7657,10 @@
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
@@ -7764,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO47" s="5">
         <v>-1</v>
@@ -7781,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -7889,10 +7890,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO48" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="AO48" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
@@ -7906,10 +7907,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -8014,10 +8015,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO49" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="AO49" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="AP49">
         <v>974</v>
@@ -8034,10 +8035,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -8142,10 +8143,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO50" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="AO50" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="AP50">
         <v>976</v>
@@ -8162,10 +8163,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -8270,10 +8271,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO51" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="AO51" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
@@ -8287,10 +8288,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -8395,10 +8396,10 @@
         <v>0</v>
       </c>
       <c r="AN52" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO52" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="AO52" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="AP52">
         <v>978</v>
@@ -8415,10 +8416,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -8523,10 +8524,10 @@
         <v>0</v>
       </c>
       <c r="AN53" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO53" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="AO53" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="AP53">
         <v>980</v>
@@ -8543,10 +8544,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
@@ -8651,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO54" s="5">
         <v>-1</v>
@@ -8671,10 +8672,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -8779,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="AN55" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO55" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="AO55" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
@@ -8796,10 +8797,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -8904,10 +8905,10 @@
         <v>0</v>
       </c>
       <c r="AN56" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO56" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="AO56" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="AP56">
         <v>984</v>
@@ -8924,10 +8925,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -9032,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="AN57" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO57" s="5">
         <v>-1</v>
@@ -9049,10 +9050,10 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
@@ -9157,10 +9158,10 @@
         <v>0</v>
       </c>
       <c r="AN58" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO58" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="AO58" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="AP58">
         <v>986</v>
@@ -9177,10 +9178,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
@@ -9285,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="AN59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO59" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="AO59" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="AP59">
         <v>988</v>
@@ -9305,10 +9306,10 @@
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
@@ -9413,10 +9414,10 @@
         <v>0</v>
       </c>
       <c r="AN60" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO60" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
@@ -9430,10 +9431,10 @@
         <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -9538,10 +9539,10 @@
         <v>0</v>
       </c>
       <c r="AN61" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO61" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="AO61" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
@@ -9555,10 +9556,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -9663,10 +9664,10 @@
         <v>0</v>
       </c>
       <c r="AN62" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO62" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="AO62" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
@@ -9680,10 +9681,10 @@
         <v>5</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
@@ -9788,10 +9789,10 @@
         <v>0</v>
       </c>
       <c r="AN63" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO63" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="AO63" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="AP63">
         <v>990</v>
@@ -9808,10 +9809,10 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -9916,10 +9917,10 @@
         <v>0</v>
       </c>
       <c r="AN64" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO64" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="AO64" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="AP64">
         <v>992</v>
@@ -9936,10 +9937,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
@@ -10044,10 +10045,10 @@
         <v>0</v>
       </c>
       <c r="AN65" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO65" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="AO65" s="5" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
@@ -10061,10 +10062,10 @@
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
@@ -10169,10 +10170,10 @@
         <v>0</v>
       </c>
       <c r="AN66" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO66" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="AO66" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="AP66">
         <v>994</v>
@@ -10189,10 +10190,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
@@ -10297,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="AN67" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO67" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="AO67" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
@@ -10314,10 +10315,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -10422,10 +10423,10 @@
         <v>0</v>
       </c>
       <c r="AN68" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO68" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="AO68" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="AP68">
         <v>996</v>
@@ -10442,10 +10443,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
@@ -10550,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="AN69" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO69" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="AO69" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
@@ -10567,10 +10568,10 @@
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
@@ -10675,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="AN70" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO70" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="AO70" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
@@ -10692,10 +10693,10 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -10800,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="AN71" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AO71" s="5">
         <v>-1</v>
@@ -10817,10 +10818,10 @@
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
@@ -10925,10 +10926,10 @@
         <v>0</v>
       </c>
       <c r="AN72" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO72" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="AO72" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
@@ -10942,10 +10943,10 @@
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
@@ -11050,10 +11051,10 @@
         <v>0</v>
       </c>
       <c r="AN73" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO73" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="AO73" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
@@ -11067,10 +11068,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="F74" s="2">
         <v>0</v>
@@ -11175,10 +11176,10 @@
         <v>0</v>
       </c>
       <c r="AN74" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO74" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
@@ -11192,10 +11193,10 @@
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
@@ -11300,10 +11301,10 @@
         <v>0</v>
       </c>
       <c r="AN75" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO75" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="AO75" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
@@ -11317,10 +11318,10 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
@@ -11425,10 +11426,10 @@
         <v>0</v>
       </c>
       <c r="AN76" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AO76" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
@@ -11442,10 +11443,10 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
@@ -11567,10 +11568,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
@@ -11675,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="AN78" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AO78" s="5">
         <v>-1</v>
@@ -11692,10 +11693,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -11800,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="AN79" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AO79" s="5">
         <v>-1</v>
@@ -11817,10 +11818,10 @@
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="F80" s="2">
         <v>0</v>
@@ -11925,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="AN80" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO80" s="5">
         <v>-1</v>
@@ -11942,10 +11943,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -12070,10 +12071,10 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
@@ -12178,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="AN82" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO82" s="5">
         <v>-1</v>
@@ -12195,10 +12196,10 @@
         <v>6</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
@@ -12303,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="AN83" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AO83" s="5">
         <v>-1</v>
@@ -12320,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>68</v>
@@ -12428,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AN84" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO84" s="5">
         <v>-1</v>
@@ -12445,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>68</v>
@@ -12553,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="AN85" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO85" s="5">
         <v>-1</v>
@@ -12570,10 +12571,10 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
@@ -12678,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="AN86" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO86" s="5">
         <v>-1</v>
@@ -12695,10 +12696,10 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F87" s="2">
         <v>0</v>
@@ -12803,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="AN87" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO87" s="5">
         <v>-1</v>
@@ -12820,10 +12821,10 @@
         <v>6</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F88" s="2">
         <v>0</v>
@@ -12928,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="AN88" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AO88" s="5">
         <v>-1</v>
@@ -12945,10 +12946,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
@@ -13053,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="AN89" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AO89" s="5">
         <v>-1</v>
@@ -13070,10 +13071,10 @@
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F90" s="2">
         <v>0</v>
@@ -13178,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="AN90" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AO90" s="5">
         <v>-1</v>
@@ -13195,10 +13196,10 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F91" s="2">
         <v>0</v>
@@ -13303,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="AN91" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO91" s="5">
         <v>-1</v>
@@ -13320,10 +13321,10 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F92" s="2">
         <v>0</v>
@@ -13428,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN92" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO92" s="5">
         <v>-1</v>
@@ -13445,10 +13446,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F93" s="2">
         <v>0</v>
@@ -13553,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="AN93" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO93" s="5">
         <v>-1</v>
@@ -13570,10 +13571,10 @@
         <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F94" s="2">
         <v>0</v>
@@ -13678,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="AN94" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO94" s="5">
         <v>-1</v>
@@ -13695,10 +13696,10 @@
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F95" s="2">
         <v>0</v>
@@ -13803,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="AN95" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AO95" s="5">
         <v>-1</v>
@@ -13820,10 +13821,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F96" s="2">
         <v>0</v>
@@ -13928,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="AN96" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AO96" s="5">
         <v>-1</v>
@@ -13945,10 +13946,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F97" s="2">
         <v>0</v>
@@ -14053,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AN97" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AO97" s="5">
         <v>-1</v>
@@ -14070,10 +14071,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F98" s="2">
         <v>0</v>
@@ -14178,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="AN98" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AO98" s="5">
         <v>-1</v>
@@ -14195,10 +14196,10 @@
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F99" s="2">
         <v>0</v>
@@ -14303,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="AN99" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AO99" s="5">
         <v>-1</v>
@@ -14320,10 +14321,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F100" s="2">
         <v>0</v>
@@ -14428,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="AN100" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO100" s="5">
         <v>-1</v>
@@ -14445,10 +14446,10 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F101" s="2">
         <v>0</v>
@@ -14553,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="AN101" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO101" s="5">
         <v>-1</v>
@@ -14570,10 +14571,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F102" s="2">
         <v>0</v>
@@ -14678,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="AN102" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO102" s="5">
         <v>-1</v>
@@ -14695,10 +14696,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
@@ -14803,7 +14804,7 @@
         <v>0</v>
       </c>
       <c r="AN103" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO103" s="5">
         <v>-1</v>
@@ -14820,10 +14821,10 @@
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F104" s="2">
         <v>0</v>
@@ -14928,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="AN104" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO104" s="5">
         <v>-1</v>
@@ -14945,10 +14946,10 @@
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F105" s="2">
         <v>0</v>
@@ -15053,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="AN105" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO105" s="5">
         <v>-1</v>
@@ -15070,10 +15071,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F106" s="2">
         <v>0</v>
@@ -15178,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="AN106" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO106" s="5">
         <v>-1</v>
@@ -15195,10 +15196,10 @@
         <v>4</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F107" s="2">
         <v>0</v>
@@ -15303,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AN107" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO107" s="5">
         <v>-1</v>
@@ -15320,10 +15321,10 @@
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F108" s="2">
         <v>0</v>
@@ -15428,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="AN108" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO108" s="5">
         <v>-1</v>
@@ -15445,10 +15446,10 @@
         <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F109" s="2">
         <v>0</v>
@@ -15553,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="AN109" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO109" s="5">
         <v>-1</v>
@@ -15570,10 +15571,10 @@
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F110" s="2">
         <v>0</v>
@@ -15678,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="AN110" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO110" s="5">
         <v>-1</v>
@@ -15695,10 +15696,10 @@
         <v>5</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F111" s="2">
         <v>0</v>
@@ -15803,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="AN111" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AO111" s="5">
         <v>-1</v>
@@ -15820,10 +15821,10 @@
         <v>6</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F112" s="2">
         <v>0</v>
@@ -15928,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="AN112" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO112" s="5">
         <v>-1</v>
@@ -15945,10 +15946,10 @@
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F113" s="2">
         <v>0</v>
@@ -16053,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="AN113" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO113" s="5">
         <v>-1</v>
@@ -16070,10 +16071,10 @@
         <v>6</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F114" s="2">
         <v>0</v>
@@ -16178,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="AN114" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO114" s="5">
         <v>-1</v>
@@ -16195,10 +16196,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F115" s="2">
         <v>0</v>
@@ -16303,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="AN115" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO115" s="5">
         <v>-1</v>
@@ -16320,10 +16321,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F116" s="2">
         <v>0</v>
@@ -16428,7 +16429,7 @@
         <v>0</v>
       </c>
       <c r="AN116" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AO116" s="5">
         <v>-1</v>
@@ -16445,10 +16446,10 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F117" s="2">
         <v>0</v>
@@ -16553,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="AN117" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AO117" s="5">
         <v>-1</v>
@@ -16570,10 +16571,10 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
@@ -16678,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="AN118" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AO118" s="5">
         <v>-1</v>
@@ -16695,10 +16696,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F119" s="2">
         <v>0</v>
@@ -16803,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="AN119" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AO119" s="5">
         <v>-1</v>
@@ -16820,10 +16821,10 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F120" s="2">
         <v>0</v>
@@ -16928,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="AN120" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AO120" s="5">
         <v>-1</v>
@@ -16945,10 +16946,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F121" s="2">
         <v>0</v>
@@ -17053,7 +17054,7 @@
         <v>0</v>
       </c>
       <c r="AN121" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AO121" s="5">
         <v>-1</v>
@@ -17070,10 +17071,10 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F122" s="2">
         <v>0</v>
@@ -17178,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="AN122" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AO122" s="5">
         <v>-1</v>
@@ -17195,10 +17196,10 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
@@ -17303,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="AN123" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AO123" s="5">
         <v>-1</v>
@@ -17320,10 +17321,10 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F124" s="2">
         <v>0</v>
@@ -17428,7 +17429,7 @@
         <v>0</v>
       </c>
       <c r="AN124" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AO124" s="5">
         <v>-1</v>
@@ -17445,10 +17446,10 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F125" s="2">
         <v>0</v>
@@ -17553,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="AN125" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AO125" s="5">
         <v>-1</v>
@@ -17570,10 +17571,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
@@ -17678,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="AN126" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO126" s="5">
         <v>-1</v>
@@ -17695,10 +17696,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F127" s="2">
         <v>0</v>
@@ -17803,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="AN127" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AO127" s="5">
         <v>-1</v>
@@ -17820,10 +17821,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
@@ -17928,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="AN128" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AO128" s="5">
         <v>-1</v>
@@ -17945,10 +17946,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F129" s="2">
         <v>0</v>
@@ -18053,7 +18054,7 @@
         <v>0</v>
       </c>
       <c r="AN129" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AO129" s="5">
         <v>-1</v>
@@ -18070,10 +18071,10 @@
         <v>5</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F130" s="2">
         <v>0</v>
@@ -18178,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="AN130" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO130" s="5">
         <v>-1</v>
@@ -18195,10 +18196,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F131" s="2">
         <v>0</v>
@@ -18303,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="AN131" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO131" s="5">
         <v>-1</v>
@@ -18320,10 +18321,10 @@
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F132" s="2">
         <v>0</v>
@@ -18428,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="AN132" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AO132" s="5">
         <v>-1</v>
@@ -18445,10 +18446,10 @@
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F133" s="2">
         <v>0</v>
@@ -18553,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="AN133" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AO133" s="5">
         <v>-1</v>
@@ -18570,10 +18571,10 @@
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F134" s="2">
         <v>0</v>
@@ -18678,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="AN134" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO134" s="5">
         <v>-1</v>
@@ -18695,10 +18696,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F135" s="2">
         <v>0</v>
@@ -18803,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="AN135" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AO135" s="5">
         <v>-1</v>
@@ -18820,10 +18821,10 @@
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
@@ -18928,10 +18929,10 @@
         <v>0</v>
       </c>
       <c r="AN136" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO136" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="AO136" s="5" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.25">
@@ -18945,10 +18946,10 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F137" s="2">
         <v>0</v>
@@ -19053,10 +19054,10 @@
         <v>0</v>
       </c>
       <c r="AN137" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO137" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.25">
@@ -19070,10 +19071,10 @@
         <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F138" s="2">
         <v>0</v>
@@ -19178,10 +19179,10 @@
         <v>0</v>
       </c>
       <c r="AN138" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO138" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.25">
@@ -19195,10 +19196,10 @@
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F139" s="2">
         <v>0</v>
@@ -19303,10 +19304,10 @@
         <v>0</v>
       </c>
       <c r="AN139" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AO139" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.25">
@@ -19320,10 +19321,10 @@
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F140" s="2">
         <v>0</v>
@@ -19428,10 +19429,10 @@
         <v>0</v>
       </c>
       <c r="AN140" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AO140" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
@@ -19445,10 +19446,10 @@
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F141" s="2">
         <v>0</v>
@@ -19553,10 +19554,10 @@
         <v>0</v>
       </c>
       <c r="AN141" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO141" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.25">
@@ -19570,10 +19571,10 @@
         <v>7</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
@@ -19678,10 +19679,10 @@
         <v>0</v>
       </c>
       <c r="AN142" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AO142" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.25">
@@ -19695,10 +19696,10 @@
         <v>7</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F143" s="2">
         <v>0</v>
@@ -19803,10 +19804,10 @@
         <v>0</v>
       </c>
       <c r="AN143" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AO143" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.25">
@@ -19820,10 +19821,10 @@
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F144" s="2">
         <v>0</v>
@@ -19928,10 +19929,10 @@
         <v>0</v>
       </c>
       <c r="AN144" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AO144" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.25">
@@ -19945,10 +19946,10 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F145" s="2">
         <v>0</v>
@@ -20053,10 +20054,10 @@
         <v>0</v>
       </c>
       <c r="AN145" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AO145" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.25">
@@ -20070,10 +20071,10 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F146" s="2">
         <v>0</v>
@@ -20178,7 +20179,7 @@
         <v>0</v>
       </c>
       <c r="AN146" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AO146" s="5">
         <v>-1</v>
@@ -20195,10 +20196,10 @@
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F147" s="2">
         <v>0</v>
@@ -20303,7 +20304,7 @@
         <v>0</v>
       </c>
       <c r="AN147" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AO147" s="5">
         <v>-1</v>
@@ -20320,10 +20321,10 @@
         <v>6</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F148" s="2">
         <v>0</v>
@@ -20428,7 +20429,7 @@
         <v>0</v>
       </c>
       <c r="AN148" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AO148" s="5">
         <v>-1</v>
@@ -20445,10 +20446,10 @@
         <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F149" s="2">
         <v>0</v>
@@ -20553,7 +20554,7 @@
         <v>0</v>
       </c>
       <c r="AN149" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AO149" s="5">
         <v>-1</v>
@@ -20570,10 +20571,10 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F150" s="2">
         <v>0</v>
@@ -20678,7 +20679,7 @@
         <v>0</v>
       </c>
       <c r="AN150" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO150" s="5">
         <v>-1</v>
@@ -20695,10 +20696,10 @@
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F151" s="2">
         <v>0</v>
@@ -20803,7 +20804,7 @@
         <v>0</v>
       </c>
       <c r="AN151" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO151" s="5">
         <v>-1</v>
@@ -20820,10 +20821,10 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F152" s="2">
         <v>0</v>
@@ -20928,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="AN152" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO152" s="5">
         <v>-1</v>
@@ -20945,10 +20946,10 @@
         <v>6</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F153" s="2">
         <v>0</v>
@@ -21053,7 +21054,7 @@
         <v>0</v>
       </c>
       <c r="AN153" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AO153" s="5">
         <v>-1</v>
@@ -21070,10 +21071,10 @@
         <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F154" s="2">
         <v>0</v>
@@ -21178,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="AN154" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AO154" s="5">
         <v>-1</v>
@@ -21195,10 +21196,10 @@
         <v>6</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F155" s="2">
         <v>0</v>
@@ -21303,7 +21304,7 @@
         <v>0</v>
       </c>
       <c r="AN155" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO155" s="5">
         <v>-1</v>
@@ -21320,10 +21321,10 @@
         <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F156" s="2">
         <v>0</v>
@@ -21428,10 +21429,10 @@
         <v>0</v>
       </c>
       <c r="AN156" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO156" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="AO156" s="5" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.25">
@@ -21445,10 +21446,10 @@
         <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F157" s="2">
         <v>0</v>
@@ -21553,10 +21554,10 @@
         <v>0</v>
       </c>
       <c r="AN157" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO157" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="AO157" s="5" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.25">
@@ -21570,10 +21571,10 @@
         <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
@@ -21678,10 +21679,10 @@
         <v>0</v>
       </c>
       <c r="AN158" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AO158" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.25">
@@ -21695,10 +21696,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F159" s="2">
         <v>0</v>
@@ -21803,10 +21804,10 @@
         <v>0</v>
       </c>
       <c r="AN159" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AO159" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.25">
@@ -21820,10 +21821,10 @@
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F160" s="2">
         <v>0</v>
@@ -21928,10 +21929,10 @@
         <v>0</v>
       </c>
       <c r="AN160" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AO160" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.25">
@@ -21945,10 +21946,10 @@
         <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F161" s="2">
         <v>0</v>
@@ -22053,10 +22054,10 @@
         <v>0</v>
       </c>
       <c r="AN161" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AO161" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.25">
@@ -22070,10 +22071,10 @@
         <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F162" s="2">
         <v>0</v>
@@ -22178,10 +22179,10 @@
         <v>0</v>
       </c>
       <c r="AN162" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AO162" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.25">
@@ -22195,10 +22196,10 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F163" s="2">
         <v>0</v>
@@ -22303,10 +22304,10 @@
         <v>0</v>
       </c>
       <c r="AN163" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AO163" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.25">
@@ -22320,10 +22321,10 @@
         <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F164" s="2">
         <v>0</v>
@@ -22428,10 +22429,10 @@
         <v>0</v>
       </c>
       <c r="AN164" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AO164" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.25">
@@ -22445,10 +22446,10 @@
         <v>7</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F165" s="2">
         <v>0</v>
@@ -22553,10 +22554,10 @@
         <v>0</v>
       </c>
       <c r="AN165" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO165" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="AO165" s="5" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.25">
@@ -22570,10 +22571,10 @@
         <v>5</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F166" s="2">
         <v>0</v>
@@ -22678,10 +22679,10 @@
         <v>0</v>
       </c>
       <c r="AN166" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO166" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="AO166" s="5" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.25">
@@ -22695,10 +22696,10 @@
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F167" s="2">
         <v>0</v>
@@ -22803,10 +22804,10 @@
         <v>0</v>
       </c>
       <c r="AN167" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO167" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="AO167" s="5" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.25">
@@ -22820,10 +22821,10 @@
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F168" s="2">
         <v>0</v>
@@ -22928,10 +22929,10 @@
         <v>0</v>
       </c>
       <c r="AN168" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO168" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="AO168" s="5" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.25">
@@ -22945,10 +22946,10 @@
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F169" s="2">
         <v>0</v>
@@ -23053,10 +23054,10 @@
         <v>0</v>
       </c>
       <c r="AN169" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO169" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.25">
@@ -23070,10 +23071,10 @@
         <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F170" s="2">
         <v>0</v>
@@ -23178,10 +23179,10 @@
         <v>0</v>
       </c>
       <c r="AN170" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO170" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.25">
@@ -23195,10 +23196,10 @@
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F171" s="2">
         <v>0</v>
@@ -23303,10 +23304,10 @@
         <v>0</v>
       </c>
       <c r="AN171" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO171" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.25">
@@ -23320,10 +23321,10 @@
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F172" s="2">
         <v>0</v>
@@ -23428,10 +23429,10 @@
         <v>0</v>
       </c>
       <c r="AN172" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO172" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:41" x14ac:dyDescent="0.25">
@@ -23445,10 +23446,10 @@
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F173" s="2">
         <v>0</v>
@@ -23553,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="AN173" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO173" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.25">
@@ -23570,10 +23571,10 @@
         <v>5</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
@@ -23678,10 +23679,10 @@
         <v>0</v>
       </c>
       <c r="AN174" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO174" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.25">
@@ -23695,10 +23696,10 @@
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F175" s="2">
         <v>0</v>
@@ -23803,10 +23804,10 @@
         <v>0</v>
       </c>
       <c r="AN175" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO175" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="176" spans="1:41" x14ac:dyDescent="0.25">
@@ -23820,10 +23821,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
@@ -23928,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="AN176" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AO176" s="5">
         <v>-1</v>
@@ -23945,10 +23946,10 @@
         <v>3</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F177" s="2">
         <v>0</v>
@@ -24053,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="AN177" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AO177" s="5">
         <v>-1</v>
@@ -24070,10 +24071,10 @@
         <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F178" s="2">
         <v>0</v>
@@ -24178,7 +24179,7 @@
         <v>0</v>
       </c>
       <c r="AN178" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AO178" s="5">
         <v>-1</v>
@@ -24195,10 +24196,10 @@
         <v>4</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F179" s="2">
         <v>0</v>
@@ -24303,7 +24304,7 @@
         <v>0</v>
       </c>
       <c r="AN179" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO179" s="5">
         <v>-1</v>
@@ -24320,10 +24321,10 @@
         <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F180" s="2">
         <v>0</v>
@@ -24428,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="AN180" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO180" s="5">
         <v>-1</v>
@@ -24445,10 +24446,10 @@
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F181" s="2">
         <v>0</v>
@@ -24553,7 +24554,7 @@
         <v>0</v>
       </c>
       <c r="AN181" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AO181" s="5">
         <v>-1</v>
@@ -24570,10 +24571,10 @@
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
@@ -24678,7 +24679,7 @@
         <v>0</v>
       </c>
       <c r="AN182" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO182" s="5">
         <v>-1</v>
@@ -24695,10 +24696,10 @@
         <v>5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F183" s="2">
         <v>0</v>
@@ -24803,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="AN183" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO183" s="5">
         <v>-1</v>
@@ -24820,10 +24821,10 @@
         <v>5</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F184" s="2">
         <v>0</v>
@@ -24928,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="AN184" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO184" s="5">
         <v>-1</v>
@@ -24945,10 +24946,10 @@
         <v>5</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F185" s="2">
         <v>0</v>
@@ -25053,7 +25054,7 @@
         <v>0</v>
       </c>
       <c r="AN185" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO185" s="5">
         <v>-1</v>
@@ -25070,10 +25071,10 @@
         <v>5</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F186" s="2">
         <v>0</v>
@@ -25178,10 +25179,10 @@
         <v>0</v>
       </c>
       <c r="AN186" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO186" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="AO186" s="5" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.25">
@@ -25195,10 +25196,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F187" s="2">
         <v>0</v>
@@ -25303,10 +25304,10 @@
         <v>0</v>
       </c>
       <c r="AN187" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO187" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="AO187" s="5" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.25">
@@ -25320,10 +25321,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F188" s="2">
         <v>0</v>
@@ -25428,10 +25429,10 @@
         <v>0</v>
       </c>
       <c r="AN188" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO188" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="AO188" s="5" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.25">
@@ -25445,10 +25446,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F189" s="2">
         <v>0</v>
@@ -25553,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="AN189" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO189" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.25">
@@ -25570,10 +25571,10 @@
         <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F190" s="2">
         <v>0</v>
@@ -25678,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="AN190" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO190" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.25">
@@ -25695,10 +25696,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F191" s="2">
         <v>0</v>
@@ -25803,10 +25804,10 @@
         <v>0</v>
       </c>
       <c r="AN191" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO191" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.25">
@@ -25820,10 +25821,10 @@
         <v>5</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F192" s="2">
         <v>0</v>
@@ -25928,10 +25929,10 @@
         <v>0</v>
       </c>
       <c r="AN192" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO192" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="193" spans="1:41" x14ac:dyDescent="0.25">
@@ -25945,10 +25946,10 @@
         <v>5</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F193" s="2">
         <v>0</v>
@@ -26053,10 +26054,10 @@
         <v>0</v>
       </c>
       <c r="AN193" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AO193" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.25">
@@ -26070,10 +26071,10 @@
         <v>5</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F194" s="2">
         <v>0</v>
@@ -26178,10 +26179,10 @@
         <v>0</v>
       </c>
       <c r="AN194" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AO194" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="195" spans="1:41" x14ac:dyDescent="0.25">
@@ -26195,10 +26196,10 @@
         <v>5</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F195" s="2">
         <v>0</v>
@@ -26303,10 +26304,10 @@
         <v>0</v>
       </c>
       <c r="AN195" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AO195" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="196" spans="1:41" x14ac:dyDescent="0.25">
@@ -26320,10 +26321,10 @@
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F196" s="2">
         <v>0</v>
@@ -26428,10 +26429,10 @@
         <v>0</v>
       </c>
       <c r="AN196" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="AO196" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="AO196" s="5" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="197" spans="1:41" x14ac:dyDescent="0.25">
@@ -26445,10 +26446,10 @@
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F197" s="2">
         <v>0</v>
@@ -26553,10 +26554,10 @@
         <v>0</v>
       </c>
       <c r="AN197" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="AO197" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="AO197" s="5" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:41" x14ac:dyDescent="0.25">
@@ -26570,10 +26571,10 @@
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F198" s="2">
         <v>0</v>
@@ -26678,10 +26679,10 @@
         <v>0</v>
       </c>
       <c r="AN198" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AO198" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="1:41" x14ac:dyDescent="0.25">
@@ -26695,10 +26696,10 @@
         <v>7</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F199" s="2">
         <v>0</v>
@@ -26803,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="AN199" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO199" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200" spans="1:41" x14ac:dyDescent="0.25">
@@ -26820,10 +26821,10 @@
         <v>7</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F200" s="2">
         <v>0</v>
@@ -26928,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="AN200" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO200" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:41" x14ac:dyDescent="0.25">
@@ -26945,10 +26946,10 @@
         <v>7</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F201" s="2">
         <v>0</v>
@@ -27053,10 +27054,10 @@
         <v>0</v>
       </c>
       <c r="AN201" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO201" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.25">
@@ -27070,10 +27071,10 @@
         <v>7</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F202" s="2">
         <v>0</v>
@@ -27178,10 +27179,10 @@
         <v>0</v>
       </c>
       <c r="AN202" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AO202" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="203" spans="1:41" x14ac:dyDescent="0.25">
@@ -27195,10 +27196,10 @@
         <v>7</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F203" s="2">
         <v>0</v>
@@ -27303,10 +27304,10 @@
         <v>0</v>
       </c>
       <c r="AN203" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AO203" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" spans="1:41" x14ac:dyDescent="0.25">
@@ -27320,10 +27321,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F204" s="2">
         <v>0</v>
@@ -27428,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="AN204" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO204" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205" spans="1:41" x14ac:dyDescent="0.25">
@@ -27445,10 +27446,10 @@
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F205" s="2">
         <v>0</v>
@@ -27553,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="AN205" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AO205" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:41" x14ac:dyDescent="0.25">
@@ -27570,10 +27571,10 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F206" s="2">
         <v>0</v>
@@ -27678,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="AN206" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AO206" s="5">
         <v>-1</v>
@@ -27695,10 +27696,10 @@
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F207" s="2">
         <v>0</v>
@@ -27803,7 +27804,7 @@
         <v>0</v>
       </c>
       <c r="AN207" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AO207" s="5">
         <v>-1</v>
@@ -27820,10 +27821,10 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F208" s="2">
         <v>0</v>
@@ -27928,7 +27929,7 @@
         <v>0</v>
       </c>
       <c r="AN208" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AO208" s="5">
         <v>-1</v>
@@ -27945,10 +27946,10 @@
         <v>6</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F209" s="2">
         <v>0</v>
@@ -28053,7 +28054,7 @@
         <v>0</v>
       </c>
       <c r="AN209" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO209" s="5">
         <v>-1</v>
@@ -28070,10 +28071,10 @@
         <v>6</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F210" s="2">
         <v>0</v>
@@ -28178,7 +28179,7 @@
         <v>0</v>
       </c>
       <c r="AN210" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO210" s="5">
         <v>-1</v>
@@ -28195,10 +28196,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F211" s="2">
         <v>0</v>
@@ -28303,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="AN211" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO211" s="5">
         <v>-1</v>
@@ -28320,10 +28321,10 @@
         <v>6</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F212" s="2">
         <v>0</v>
@@ -28428,7 +28429,7 @@
         <v>0</v>
       </c>
       <c r="AN212" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO212" s="5">
         <v>-1</v>
@@ -28445,10 +28446,10 @@
         <v>6</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F213" s="2">
         <v>0</v>
@@ -28553,7 +28554,7 @@
         <v>0</v>
       </c>
       <c r="AN213" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO213" s="5">
         <v>-1</v>
@@ -28570,10 +28571,10 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F214" s="2">
         <v>0</v>
@@ -28678,7 +28679,7 @@
         <v>0</v>
       </c>
       <c r="AN214" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO214" s="5">
         <v>-1</v>
@@ -28695,10 +28696,10 @@
         <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F215" s="2">
         <v>0</v>
@@ -28803,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="AN215" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO215" s="5">
         <v>-1</v>
@@ -28820,10 +28821,10 @@
         <v>4</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F216" s="2">
         <v>0</v>
@@ -28928,7 +28929,7 @@
         <v>0</v>
       </c>
       <c r="AN216" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO216" s="5">
         <v>-1</v>
@@ -28945,10 +28946,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F217" s="2">
         <v>0</v>
@@ -29053,7 +29054,7 @@
         <v>0</v>
       </c>
       <c r="AN217" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO217" s="5">
         <v>-1</v>
@@ -29070,10 +29071,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F218" s="2">
         <v>0</v>
@@ -29178,7 +29179,7 @@
         <v>0</v>
       </c>
       <c r="AN218" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO218" s="5">
         <v>-1</v>
@@ -29195,10 +29196,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F219" s="2">
         <v>0</v>
@@ -29303,7 +29304,7 @@
         <v>0</v>
       </c>
       <c r="AN219" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO219" s="5">
         <v>-1</v>
@@ -29320,10 +29321,10 @@
         <v>4</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F220" s="2">
         <v>0</v>
@@ -29428,7 +29429,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO220" s="5">
         <v>-1</v>
@@ -29445,10 +29446,10 @@
         <v>4</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F221" s="2">
         <v>0</v>
@@ -29553,7 +29554,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO221" s="5">
         <v>-1</v>
@@ -29570,10 +29571,10 @@
         <v>4</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F222" s="2">
         <v>0</v>
@@ -29678,7 +29679,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO222" s="5">
         <v>-1</v>
@@ -29695,10 +29696,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F223" s="2">
         <v>0</v>
@@ -29803,7 +29804,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO223" s="5">
         <v>-1</v>
@@ -29820,10 +29821,10 @@
         <v>4</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F224" s="2">
         <v>0</v>
@@ -29928,7 +29929,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO224" s="5">
         <v>-1</v>
@@ -29945,10 +29946,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F225" s="2">
         <v>0</v>
@@ -30053,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO225" s="5">
         <v>-1</v>
@@ -30070,10 +30071,10 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F226" s="2">
         <v>0</v>
@@ -30178,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AO226" s="5">
         <v>-1</v>
@@ -30195,10 +30196,10 @@
         <v>4</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F227" s="2">
         <v>0</v>
@@ -30303,7 +30304,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AO227" s="5">
         <v>-1</v>
@@ -30320,10 +30321,10 @@
         <v>4</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F228" s="2">
         <v>0</v>
@@ -30428,7 +30429,7 @@
         <v>0</v>
       </c>
       <c r="AN228" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO228" s="5">
         <v>-1</v>
@@ -30445,10 +30446,10 @@
         <v>4</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F229" s="2">
         <v>0</v>
@@ -30553,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="AN229" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO229" s="5">
         <v>-1</v>
@@ -30570,10 +30571,10 @@
         <v>4</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F230" s="2">
         <v>0</v>
@@ -30678,7 +30679,7 @@
         <v>0</v>
       </c>
       <c r="AN230" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AO230" s="5">
         <v>-1</v>
@@ -30695,10 +30696,10 @@
         <v>4</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F231" s="2">
         <v>0</v>
@@ -30803,7 +30804,7 @@
         <v>0</v>
       </c>
       <c r="AN231" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AO231" s="5">
         <v>-1</v>
@@ -30820,10 +30821,10 @@
         <v>4</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F232" s="2">
         <v>0</v>
@@ -30928,7 +30929,7 @@
         <v>0</v>
       </c>
       <c r="AN232" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AO232" s="5">
         <v>-1</v>
@@ -30945,10 +30946,10 @@
         <v>4</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F233" s="2">
         <v>0</v>
@@ -31053,7 +31054,7 @@
         <v>0</v>
       </c>
       <c r="AN233" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO233" s="5">
         <v>-1</v>
@@ -31070,10 +31071,10 @@
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F234" s="2">
         <v>0</v>
@@ -31178,7 +31179,7 @@
         <v>0</v>
       </c>
       <c r="AN234" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO234" s="5">
         <v>-1</v>
@@ -31195,10 +31196,10 @@
         <v>4</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F235" s="2">
         <v>0</v>
@@ -31303,7 +31304,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO235" s="5">
         <v>-1</v>
@@ -31320,10 +31321,10 @@
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F236" s="2">
         <v>0</v>
@@ -31428,7 +31429,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AO236" s="5">
         <v>-1</v>
@@ -31445,10 +31446,10 @@
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F237" s="2">
         <v>0</v>
@@ -31553,7 +31554,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AO237" s="5">
         <v>-1</v>
@@ -31570,10 +31571,10 @@
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F238" s="2">
         <v>0</v>
@@ -31678,7 +31679,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AO238" s="5">
         <v>-1</v>
@@ -31695,10 +31696,10 @@
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F239" s="2">
         <v>0</v>
@@ -31803,7 +31804,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AO239" s="5">
         <v>-1</v>
@@ -31820,10 +31821,10 @@
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F240" s="2">
         <v>0</v>
@@ -31928,7 +31929,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO240" s="5">
         <v>-1</v>
@@ -31945,10 +31946,10 @@
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F241" s="2">
         <v>0</v>
@@ -32053,7 +32054,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO241" s="5">
         <v>-1</v>
@@ -32070,10 +32071,10 @@
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F242" s="2">
         <v>0</v>
@@ -32178,7 +32179,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AO242" s="5">
         <v>-1</v>
@@ -32195,10 +32196,10 @@
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F243" s="2">
         <v>0</v>
@@ -32303,7 +32304,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO243" s="5">
         <v>-1</v>
@@ -32320,10 +32321,10 @@
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F244" s="2">
         <v>0</v>
@@ -32428,7 +32429,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO244" s="5">
         <v>-1</v>
@@ -32445,10 +32446,10 @@
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F245" s="2">
         <v>0</v>
@@ -32553,7 +32554,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO245" s="5">
         <v>-1</v>
@@ -32570,10 +32571,10 @@
         <v>2</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F246" s="2">
         <v>0</v>
@@ -32678,7 +32679,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO246" s="5">
         <v>-1</v>
@@ -32695,10 +32696,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F247" s="2">
         <v>0</v>
@@ -32803,7 +32804,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO247" s="5">
         <v>-1</v>
@@ -32820,10 +32821,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F248" s="2">
         <v>0</v>
@@ -32928,7 +32929,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AO248" s="5">
         <v>-1</v>
@@ -32945,10 +32946,10 @@
         <v>3</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F249" s="2">
         <v>0</v>
@@ -33053,7 +33054,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AO249" s="5">
         <v>-1</v>
@@ -33070,10 +33071,10 @@
         <v>4</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F250" s="2">
         <v>0</v>
@@ -33178,7 +33179,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO250" s="5">
         <v>-1</v>
@@ -33195,10 +33196,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F251" s="2">
         <v>0</v>
@@ -33303,7 +33304,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO251" s="5">
         <v>-1</v>
@@ -33320,10 +33321,10 @@
         <v>5</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F252" s="2">
         <v>0</v>
@@ -33428,7 +33429,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO252" s="5">
         <v>-1</v>
@@ -33445,10 +33446,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F253" s="2">
         <v>0</v>
@@ -33553,7 +33554,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO253" s="5">
         <v>-1</v>
@@ -33570,10 +33571,10 @@
         <v>5</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F254" s="2">
         <v>0</v>
@@ -33678,7 +33679,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO254" s="5">
         <v>-1</v>
@@ -33695,10 +33696,10 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F255" s="2">
         <v>0</v>
@@ -33803,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO255" s="5">
         <v>-1</v>
@@ -33820,10 +33821,10 @@
         <v>7</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F256" s="2">
         <v>0</v>
@@ -33928,7 +33929,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO256" s="5">
         <v>-1</v>
@@ -33945,10 +33946,10 @@
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F257" s="2">
         <v>0</v>
@@ -34053,7 +34054,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO257" s="5">
         <v>-1</v>
@@ -34070,10 +34071,10 @@
         <v>7</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F258" s="2">
         <v>0</v>
@@ -34178,7 +34179,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AO258" s="5">
         <v>-1</v>
@@ -34195,10 +34196,10 @@
         <v>7</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F259" s="2">
         <v>0</v>
@@ -34303,7 +34304,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AO259" s="5">
         <v>-1</v>
@@ -34320,10 +34321,10 @@
         <v>7</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F260" s="2">
         <v>0</v>
@@ -34428,7 +34429,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO260" s="5">
         <v>-1</v>
@@ -34445,10 +34446,10 @@
         <v>7</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F261" s="2">
         <v>0</v>
@@ -34553,7 +34554,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO261" s="5">
         <v>-1</v>
@@ -34570,10 +34571,10 @@
         <v>7</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F262" s="2">
         <v>0</v>
@@ -34678,7 +34679,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO262" s="5">
         <v>-1</v>
@@ -34695,10 +34696,10 @@
         <v>7</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F263" s="2">
         <v>0</v>
@@ -34803,7 +34804,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO263" s="5">
         <v>-1</v>
@@ -34820,10 +34821,10 @@
         <v>7</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F264" s="2">
         <v>0</v>
@@ -34928,7 +34929,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO264" s="5">
         <v>-1</v>
@@ -34945,10 +34946,10 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F265" s="2">
         <v>0</v>
@@ -35053,7 +35054,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO265" s="5">
         <v>-1</v>
@@ -35070,10 +35071,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F266" s="2">
         <v>0</v>
@@ -35178,7 +35179,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO266" s="5">
         <v>-1</v>
@@ -35195,10 +35196,10 @@
         <v>5</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F267" s="2">
         <v>0</v>
@@ -35303,7 +35304,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO267" s="5">
         <v>-1</v>
@@ -35320,10 +35321,10 @@
         <v>5</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F268" s="2">
         <v>0</v>
@@ -35428,7 +35429,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AO268" s="5">
         <v>-1</v>
@@ -35445,10 +35446,10 @@
         <v>5</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F269" s="2">
         <v>0</v>
@@ -35553,7 +35554,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AO269" s="5">
         <v>-1</v>
@@ -35570,10 +35571,10 @@
         <v>5</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F270" s="2">
         <v>0</v>
@@ -35678,7 +35679,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AO270" s="5">
         <v>-1</v>
@@ -35695,10 +35696,10 @@
         <v>5</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F271" s="2">
         <v>0</v>
@@ -35803,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO271" s="5">
         <v>-1</v>
@@ -35820,10 +35821,10 @@
         <v>5</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F272" s="2">
         <v>0</v>
@@ -35928,7 +35929,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO272" s="5">
         <v>-1</v>
@@ -35945,10 +35946,10 @@
         <v>5</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F273" s="2">
         <v>0</v>
@@ -36053,7 +36054,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO273" s="5">
         <v>-1</v>
@@ -36070,10 +36071,10 @@
         <v>5</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F274" s="2">
         <v>0</v>
@@ -36178,7 +36179,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO274" s="5">
         <v>-1</v>
@@ -36195,10 +36196,10 @@
         <v>5</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F275" s="2">
         <v>0</v>
@@ -36303,7 +36304,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO275" s="5">
         <v>-1</v>
@@ -36320,10 +36321,10 @@
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F276" s="2">
         <v>0</v>
@@ -36428,7 +36429,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO276" s="5">
         <v>-1</v>
@@ -36445,10 +36446,10 @@
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F277" s="2">
         <v>0</v>
@@ -36553,7 +36554,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO277" s="5">
         <v>-1</v>
@@ -36570,10 +36571,10 @@
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F278" s="2">
         <v>0</v>
@@ -36678,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO278" s="5">
         <v>-1</v>
@@ -36695,10 +36696,10 @@
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F279" s="2">
         <v>0</v>
@@ -36803,7 +36804,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO279" s="5">
         <v>-1</v>
@@ -36820,10 +36821,10 @@
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F280" s="2">
         <v>0</v>
@@ -36928,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO280" s="5">
         <v>-1</v>
@@ -36945,10 +36946,10 @@
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F281" s="2">
         <v>0</v>
@@ -37053,7 +37054,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO281" s="5">
         <v>-1</v>
@@ -37070,10 +37071,10 @@
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F282" s="2">
         <v>0</v>
@@ -37178,7 +37179,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AO282" s="5">
         <v>-1</v>
@@ -37195,10 +37196,10 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F283" s="2">
         <v>0</v>
@@ -37303,7 +37304,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AO283" s="5">
         <v>-1</v>
@@ -37320,10 +37321,10 @@
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F284" s="2">
         <v>0</v>
@@ -37428,7 +37429,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO284" s="5">
         <v>-1</v>
@@ -37445,10 +37446,10 @@
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F285" s="2">
         <v>0</v>
@@ -37553,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO285" s="5">
         <v>-1</v>
@@ -37570,10 +37571,10 @@
         <v>5</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F286" s="2">
         <v>0</v>
@@ -37678,7 +37679,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO286" s="5">
         <v>-1</v>
@@ -37695,10 +37696,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F287" s="2">
         <v>0</v>
@@ -37803,7 +37804,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO287" s="5">
         <v>-1</v>
@@ -37820,10 +37821,10 @@
         <v>5</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F288" s="2">
         <v>0</v>
@@ -37928,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO288" s="5">
         <v>-1</v>
@@ -37945,10 +37946,10 @@
         <v>5</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F289" s="2">
         <v>0</v>
@@ -38053,7 +38054,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO289" s="5">
         <v>-1</v>
@@ -38070,10 +38071,10 @@
         <v>5</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F290" s="2">
         <v>0</v>
@@ -38178,7 +38179,7 @@
         <v>0</v>
       </c>
       <c r="AN290" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO290" s="5">
         <v>-1</v>
@@ -38195,10 +38196,10 @@
         <v>6</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F291" s="2">
         <v>0</v>
@@ -38303,7 +38304,7 @@
         <v>0</v>
       </c>
       <c r="AN291" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO291" s="5">
         <v>-1</v>
@@ -38320,10 +38321,10 @@
         <v>7</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F292" s="2">
         <v>0</v>
@@ -38428,7 +38429,7 @@
         <v>0</v>
       </c>
       <c r="AN292" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO292" s="5">
         <v>-1</v>
@@ -38445,10 +38446,10 @@
         <v>7</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F293" s="2">
         <v>0</v>
@@ -38553,7 +38554,7 @@
         <v>0</v>
       </c>
       <c r="AN293" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AO293" s="5">
         <v>-1</v>
@@ -38570,10 +38571,10 @@
         <v>7</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F294" s="2">
         <v>0</v>
@@ -38678,7 +38679,7 @@
         <v>0</v>
       </c>
       <c r="AN294" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AO294" s="5">
         <v>-1</v>
@@ -38695,10 +38696,10 @@
         <v>7</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F295" s="2">
         <v>0</v>
@@ -38803,7 +38804,7 @@
         <v>0</v>
       </c>
       <c r="AN295" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AO295" s="5">
         <v>-1</v>
@@ -38820,10 +38821,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F296" s="2">
         <v>0</v>
@@ -38928,7 +38929,7 @@
         <v>0</v>
       </c>
       <c r="AN296" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO296" s="5">
         <v>-1</v>
@@ -38945,10 +38946,10 @@
         <v>5</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F297" s="2">
         <v>0</v>
@@ -39053,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="AN297" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AO297" s="5">
         <v>-1</v>
@@ -39070,10 +39071,10 @@
         <v>5</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F298" s="2">
         <v>0</v>
@@ -39178,7 +39179,7 @@
         <v>0</v>
       </c>
       <c r="AN298" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO298" s="5">
         <v>-1</v>
@@ -39195,10 +39196,10 @@
         <v>5</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F299" s="2">
         <v>0</v>
@@ -39303,7 +39304,7 @@
         <v>0</v>
       </c>
       <c r="AN299" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO299" s="5">
         <v>-1</v>
@@ -39320,10 +39321,10 @@
         <v>5</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F300" s="2">
         <v>0</v>
@@ -39428,7 +39429,7 @@
         <v>0</v>
       </c>
       <c r="AN300" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO300" s="5">
         <v>-1</v>
@@ -39445,10 +39446,10 @@
         <v>5</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F301" s="2">
         <v>0</v>
@@ -39553,7 +39554,7 @@
         <v>0</v>
       </c>
       <c r="AN301" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO301" s="5">
         <v>-1</v>
@@ -39570,10 +39571,10 @@
         <v>5</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F302" s="2">
         <v>0</v>
@@ -39678,7 +39679,7 @@
         <v>0</v>
       </c>
       <c r="AN302" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AO302" s="5">
         <v>-1</v>
@@ -39695,10 +39696,10 @@
         <v>5</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F303" s="2">
         <v>0</v>
@@ -39803,7 +39804,7 @@
         <v>0</v>
       </c>
       <c r="AN303" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO303" s="5">
         <v>-1</v>
@@ -39820,10 +39821,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F304" s="2">
         <v>0</v>
@@ -39928,7 +39929,7 @@
         <v>0</v>
       </c>
       <c r="AN304" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO304" s="5">
         <v>-1</v>
@@ -39945,10 +39946,10 @@
         <v>5</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F305" s="2">
         <v>0</v>
@@ -40053,7 +40054,7 @@
         <v>0</v>
       </c>
       <c r="AN305" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO305" s="5">
         <v>-1</v>
@@ -40070,10 +40071,10 @@
         <v>7</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F306" s="2">
         <v>0</v>
@@ -40178,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AN306" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO306" s="5">
         <v>-1</v>
@@ -40195,10 +40196,10 @@
         <v>7</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F307" s="2">
         <v>0</v>
@@ -40303,7 +40304,7 @@
         <v>0</v>
       </c>
       <c r="AN307" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO307" s="5">
         <v>-1</v>
@@ -40320,10 +40321,10 @@
         <v>7</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F308" s="2">
         <v>0</v>
@@ -40428,7 +40429,7 @@
         <v>0</v>
       </c>
       <c r="AN308" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO308" s="5">
         <v>-1</v>
@@ -40445,10 +40446,10 @@
         <v>7</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F309" s="2">
         <v>0</v>
@@ -40553,7 +40554,7 @@
         <v>0</v>
       </c>
       <c r="AN309" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO309" s="5">
         <v>-1</v>
@@ -40570,10 +40571,10 @@
         <v>7</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F310" s="2">
         <v>0</v>
@@ -40678,7 +40679,7 @@
         <v>0</v>
       </c>
       <c r="AN310" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO310" s="5">
         <v>-1</v>
@@ -40695,10 +40696,10 @@
         <v>7</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F311" s="2">
         <v>0</v>
@@ -40803,7 +40804,7 @@
         <v>0</v>
       </c>
       <c r="AN311" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO311" s="5">
         <v>-1</v>
@@ -40820,10 +40821,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F312" s="2">
         <v>0</v>
@@ -40928,7 +40929,7 @@
         <v>0</v>
       </c>
       <c r="AN312" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO312" s="5">
         <v>-1</v>
@@ -40945,10 +40946,10 @@
         <v>7</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F313" s="2">
         <v>0</v>
@@ -41053,7 +41054,7 @@
         <v>0</v>
       </c>
       <c r="AN313" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO313" s="5">
         <v>-1</v>
@@ -41070,10 +41071,10 @@
         <v>7</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F314" s="2">
         <v>0</v>
@@ -41178,7 +41179,7 @@
         <v>0</v>
       </c>
       <c r="AN314" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO314" s="5">
         <v>-1</v>
@@ -41195,10 +41196,10 @@
         <v>7</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F315" s="2">
         <v>0</v>
@@ -41303,7 +41304,7 @@
         <v>0</v>
       </c>
       <c r="AN315" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO315" s="5">
         <v>-1</v>
@@ -41320,10 +41321,10 @@
         <v>6</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F316" s="2">
         <v>0</v>
@@ -41428,7 +41429,7 @@
         <v>0</v>
       </c>
       <c r="AN316" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO316" s="5">
         <v>-1</v>
@@ -41445,10 +41446,10 @@
         <v>6</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F317" s="2">
         <v>0</v>
@@ -41553,7 +41554,7 @@
         <v>0</v>
       </c>
       <c r="AN317" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO317" s="5">
         <v>-1</v>
@@ -41570,10 +41571,10 @@
         <v>6</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F318" s="2">
         <v>0</v>
@@ -41678,7 +41679,7 @@
         <v>0</v>
       </c>
       <c r="AN318" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO318" s="5">
         <v>-1</v>
@@ -41695,10 +41696,10 @@
         <v>6</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F319" s="2">
         <v>0</v>
@@ -41803,7 +41804,7 @@
         <v>0</v>
       </c>
       <c r="AN319" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO319" s="5">
         <v>-1</v>
@@ -41820,10 +41821,10 @@
         <v>6</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F320" s="2">
         <v>0</v>
@@ -41928,7 +41929,7 @@
         <v>0</v>
       </c>
       <c r="AN320" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO320" s="5">
         <v>-1</v>
@@ -41945,10 +41946,10 @@
         <v>6</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F321" s="2">
         <v>0</v>
@@ -42053,7 +42054,7 @@
         <v>0</v>
       </c>
       <c r="AN321" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO321" s="5">
         <v>-1</v>
@@ -42070,10 +42071,10 @@
         <v>6</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F322" s="2">
         <v>0</v>
@@ -42178,7 +42179,7 @@
         <v>0</v>
       </c>
       <c r="AN322" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO322" s="5">
         <v>-1</v>
@@ -42195,10 +42196,10 @@
         <v>6</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F323" s="2">
         <v>0</v>
@@ -42303,7 +42304,7 @@
         <v>0</v>
       </c>
       <c r="AN323" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO323" s="5">
         <v>-1</v>
@@ -42320,10 +42321,10 @@
         <v>6</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F324" s="2">
         <v>0</v>
@@ -42428,7 +42429,7 @@
         <v>0</v>
       </c>
       <c r="AN324" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO324" s="5">
         <v>-1</v>

--- a/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B3F697-4844-4FFF-9698-538B8918FA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657BB898-1243-4E3E-A3D2-A7003FDDA20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="1590" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AP$326</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="518">
   <si>
     <t>Id</t>
   </si>
@@ -1531,12 +1534,298 @@
     <t>8,13|12,11|22,10</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧阳克婢女</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>婢女</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山弟子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇嘛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>星宿弟子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁掌弟子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全真弟子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙弟子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪怪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>千年冰蚕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动物</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神雕</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵物</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>掌柜</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>店小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>书信</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大夫</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王语嫣</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神仙姐姐</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫地僧</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>世外高人</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韦小宝</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商人</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>霍青桐</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随从</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软体娃娃</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1590,6 +1879,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1625,7 +1928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,6 +1950,8 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1999,20 +2304,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP324"/>
+  <dimension ref="A1:AP337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI17" workbookViewId="0">
-      <selection activeCell="AO26" sqref="AO26"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="K332" sqref="K332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.08984375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7265625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.06640625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>486</v>
       </c>
@@ -2020,7 +2325,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2148,7 +2453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>482</v>
       </c>
@@ -2262,7 +2567,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2360,7 +2665,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2485,7 +2790,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2613,7 +2918,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2741,7 +3046,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2866,7 +3171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -2991,7 +3296,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -3116,7 +3421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -3241,7 +3546,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -3366,7 +3671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -3491,7 +3796,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -3619,7 +3924,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -3744,7 +4049,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -3869,7 +4174,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -3994,7 +4299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -4119,7 +4424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -4244,7 +4549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -4369,7 +4674,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -4497,7 +4802,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -4625,7 +4930,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -4750,7 +5055,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -4875,7 +5180,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -5000,7 +5305,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -5125,7 +5430,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -5250,7 +5555,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -5375,7 +5680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -5500,7 +5805,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -5628,7 +5933,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -5753,7 +6058,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -5878,7 +6183,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -6006,7 +6311,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -6134,7 +6439,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -6259,7 +6564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -6384,7 +6689,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -6509,7 +6814,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -6634,7 +6939,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -6759,7 +7064,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -6887,7 +7192,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -7015,7 +7320,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -7143,7 +7448,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -7271,7 +7576,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -7396,7 +7701,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -7521,7 +7826,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -7646,7 +7951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -7771,7 +8076,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -7896,7 +8201,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -8024,7 +8329,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -8152,7 +8457,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -8277,7 +8582,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -8405,7 +8710,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -8533,7 +8838,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -8661,7 +8966,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -8786,7 +9091,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -8914,7 +9219,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -9039,7 +9344,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -9167,7 +9472,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -9295,7 +9600,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -9420,7 +9725,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -9545,7 +9850,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -9670,7 +9975,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -9798,7 +10103,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -9926,7 +10231,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -10051,7 +10356,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -10179,7 +10484,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -10304,7 +10609,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -10432,7 +10737,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -10557,7 +10862,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -10682,7 +10987,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>66</v>
       </c>
@@ -10807,7 +11112,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>67</v>
       </c>
@@ -10932,7 +11237,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -11057,7 +11362,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>69</v>
       </c>
@@ -11182,7 +11487,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>70</v>
       </c>
@@ -11307,7 +11612,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -11432,7 +11737,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -11557,7 +11862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -11682,7 +11987,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -11807,7 +12112,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -11932,7 +12237,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>76</v>
       </c>
@@ -12060,7 +12365,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>77</v>
       </c>
@@ -12185,7 +12490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:42" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:42" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>78</v>
       </c>
@@ -12310,7 +12615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>79</v>
       </c>
@@ -12435,7 +12740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>80</v>
       </c>
@@ -12560,7 +12865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>81</v>
       </c>
@@ -12685,7 +12990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>82</v>
       </c>
@@ -12810,7 +13115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>83</v>
       </c>
@@ -12935,7 +13240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>84</v>
       </c>
@@ -13060,7 +13365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -13185,7 +13490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>86</v>
       </c>
@@ -13310,7 +13615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>87</v>
       </c>
@@ -13435,7 +13740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>88</v>
       </c>
@@ -13560,7 +13865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>89</v>
       </c>
@@ -13685,7 +13990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>90</v>
       </c>
@@ -13810,7 +14115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>91</v>
       </c>
@@ -13935,7 +14240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -14060,7 +14365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>93</v>
       </c>
@@ -14185,7 +14490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>94</v>
       </c>
@@ -14310,7 +14615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>95</v>
       </c>
@@ -14435,7 +14740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>96</v>
       </c>
@@ -14560,7 +14865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>97</v>
       </c>
@@ -14685,7 +14990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>98</v>
       </c>
@@ -14810,7 +15115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>99</v>
       </c>
@@ -14935,7 +15240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>100</v>
       </c>
@@ -15060,7 +15365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>101</v>
       </c>
@@ -15070,8 +15375,8 @@
       <c r="C106" s="2">
         <v>3</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>348</v>
+      <c r="D106" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>348</v>
@@ -15185,7 +15490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>102</v>
       </c>
@@ -15195,8 +15500,8 @@
       <c r="C107" s="2">
         <v>4</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>348</v>
+      <c r="D107" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>348</v>
@@ -15310,7 +15615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>103</v>
       </c>
@@ -15320,8 +15625,8 @@
       <c r="C108" s="2">
         <v>6</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>348</v>
+      <c r="D108" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>348</v>
@@ -15435,7 +15740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>104</v>
       </c>
@@ -15445,8 +15750,8 @@
       <c r="C109" s="2">
         <v>7</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>348</v>
+      <c r="D109" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>348</v>
@@ -15560,7 +15865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>105</v>
       </c>
@@ -15570,8 +15875,8 @@
       <c r="C110" s="2">
         <v>6</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>348</v>
+      <c r="D110" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>348</v>
@@ -15685,7 +15990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>106</v>
       </c>
@@ -15695,8 +16000,8 @@
       <c r="C111" s="2">
         <v>5</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>348</v>
+      <c r="D111" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>348</v>
@@ -15810,7 +16115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>107</v>
       </c>
@@ -15820,8 +16125,8 @@
       <c r="C112" s="2">
         <v>6</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>348</v>
+      <c r="D112" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>348</v>
@@ -15935,7 +16240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>108</v>
       </c>
@@ -15945,8 +16250,8 @@
       <c r="C113" s="2">
         <v>7</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>348</v>
+      <c r="D113" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>348</v>
@@ -16060,7 +16365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>109</v>
       </c>
@@ -16070,8 +16375,8 @@
       <c r="C114" s="2">
         <v>6</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>348</v>
+      <c r="D114" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>348</v>
@@ -16185,7 +16490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>110</v>
       </c>
@@ -16195,8 +16500,8 @@
       <c r="C115" s="2">
         <v>8</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>348</v>
+      <c r="D115" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>348</v>
@@ -16310,7 +16615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>111</v>
       </c>
@@ -16320,8 +16625,8 @@
       <c r="C116" s="2">
         <v>9</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>356</v>
+      <c r="D116" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>356</v>
@@ -16435,7 +16740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>112</v>
       </c>
@@ -16445,8 +16750,8 @@
       <c r="C117" s="2">
         <v>9</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>356</v>
+      <c r="D117" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>356</v>
@@ -16560,7 +16865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>113</v>
       </c>
@@ -16570,8 +16875,8 @@
       <c r="C118" s="2">
         <v>9</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>356</v>
+      <c r="D118" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>356</v>
@@ -16685,7 +16990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>114</v>
       </c>
@@ -16695,8 +17000,8 @@
       <c r="C119" s="2">
         <v>8</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>356</v>
+      <c r="D119" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>356</v>
@@ -16810,7 +17115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>115</v>
       </c>
@@ -16820,8 +17125,8 @@
       <c r="C120" s="2">
         <v>9</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>356</v>
+      <c r="D120" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>356</v>
@@ -16935,7 +17240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>116</v>
       </c>
@@ -16945,8 +17250,8 @@
       <c r="C121" s="2">
         <v>9</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>356</v>
+      <c r="D121" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>356</v>
@@ -17060,7 +17365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>117</v>
       </c>
@@ -17070,8 +17375,8 @@
       <c r="C122" s="2">
         <v>9</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>356</v>
+      <c r="D122" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>356</v>
@@ -17185,7 +17490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>118</v>
       </c>
@@ -17195,8 +17500,8 @@
       <c r="C123" s="2">
         <v>9</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>356</v>
+      <c r="D123" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>356</v>
@@ -17310,7 +17615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>119</v>
       </c>
@@ -17320,8 +17625,8 @@
       <c r="C124" s="2">
         <v>9</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>356</v>
+      <c r="D124" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>356</v>
@@ -17435,7 +17740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>120</v>
       </c>
@@ -17445,8 +17750,8 @@
       <c r="C125" s="2">
         <v>9</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>356</v>
+      <c r="D125" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>356</v>
@@ -17560,7 +17865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>121</v>
       </c>
@@ -17685,7 +17990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>122</v>
       </c>
@@ -17810,7 +18115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>123</v>
       </c>
@@ -17935,7 +18240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>124</v>
       </c>
@@ -18060,7 +18365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>125</v>
       </c>
@@ -18185,7 +18490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>126</v>
       </c>
@@ -18310,7 +18615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>127</v>
       </c>
@@ -18435,7 +18740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>128</v>
       </c>
@@ -18560,7 +18865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>129</v>
       </c>
@@ -18685,7 +18990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>130</v>
       </c>
@@ -18810,7 +19115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>131</v>
       </c>
@@ -18935,7 +19240,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>132</v>
       </c>
@@ -19060,7 +19365,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>133</v>
       </c>
@@ -19185,7 +19490,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>134</v>
       </c>
@@ -19310,7 +19615,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>135</v>
       </c>
@@ -19435,7 +19740,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>136</v>
       </c>
@@ -19560,7 +19865,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>137</v>
       </c>
@@ -19685,7 +19990,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>138</v>
       </c>
@@ -19810,7 +20115,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>139</v>
       </c>
@@ -19935,7 +20240,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>140</v>
       </c>
@@ -20060,7 +20365,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>141</v>
       </c>
@@ -20185,7 +20490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>142</v>
       </c>
@@ -20310,7 +20615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>143</v>
       </c>
@@ -20435,7 +20740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>144</v>
       </c>
@@ -20560,7 +20865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>145</v>
       </c>
@@ -20685,7 +20990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>146</v>
       </c>
@@ -20810,7 +21115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>147</v>
       </c>
@@ -20935,7 +21240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>148</v>
       </c>
@@ -21060,7 +21365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>149</v>
       </c>
@@ -21185,7 +21490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>150</v>
       </c>
@@ -21310,7 +21615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>151</v>
       </c>
@@ -21435,7 +21740,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>152</v>
       </c>
@@ -21560,7 +21865,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>153</v>
       </c>
@@ -21685,7 +21990,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>154</v>
       </c>
@@ -21810,7 +22115,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>155</v>
       </c>
@@ -21935,7 +22240,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>156</v>
       </c>
@@ -22060,7 +22365,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>157</v>
       </c>
@@ -22185,7 +22490,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="163" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>158</v>
       </c>
@@ -22310,7 +22615,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>159</v>
       </c>
@@ -22435,7 +22740,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="165" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>160</v>
       </c>
@@ -22560,7 +22865,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="166" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>161</v>
       </c>
@@ -22685,7 +22990,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="167" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>162</v>
       </c>
@@ -22810,7 +23115,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="168" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>163</v>
       </c>
@@ -22935,7 +23240,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="169" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>164</v>
       </c>
@@ -23060,7 +23365,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="170" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>165</v>
       </c>
@@ -23185,7 +23490,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>166</v>
       </c>
@@ -23310,7 +23615,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>167</v>
       </c>
@@ -23435,7 +23740,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="173" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>168</v>
       </c>
@@ -23560,7 +23865,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="174" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>169</v>
       </c>
@@ -23685,7 +23990,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="175" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>170</v>
       </c>
@@ -23810,7 +24115,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="176" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>171</v>
       </c>
@@ -23935,7 +24240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>172</v>
       </c>
@@ -24060,7 +24365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>173</v>
       </c>
@@ -24185,7 +24490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>174</v>
       </c>
@@ -24310,7 +24615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>175</v>
       </c>
@@ -24435,7 +24740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>176</v>
       </c>
@@ -24560,7 +24865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>177</v>
       </c>
@@ -24685,7 +24990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>178</v>
       </c>
@@ -24810,7 +25115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>179</v>
       </c>
@@ -24935,7 +25240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>180</v>
       </c>
@@ -25060,7 +25365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>181</v>
       </c>
@@ -25185,7 +25490,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="187" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>182</v>
       </c>
@@ -25310,7 +25615,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="188" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>183</v>
       </c>
@@ -25435,7 +25740,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="189" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>184</v>
       </c>
@@ -25560,7 +25865,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="190" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>185</v>
       </c>
@@ -25685,7 +25990,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="191" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>186</v>
       </c>
@@ -25810,7 +26115,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="192" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>187</v>
       </c>
@@ -25935,7 +26240,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="193" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>188</v>
       </c>
@@ -26060,7 +26365,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="194" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>189</v>
       </c>
@@ -26185,7 +26490,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="195" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>190</v>
       </c>
@@ -26310,7 +26615,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>191</v>
       </c>
@@ -26435,7 +26740,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="197" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>192</v>
       </c>
@@ -26560,7 +26865,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>193</v>
       </c>
@@ -26685,7 +26990,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="199" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>194</v>
       </c>
@@ -26810,7 +27115,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="200" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>195</v>
       </c>
@@ -26935,7 +27240,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="201" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>196</v>
       </c>
@@ -27060,7 +27365,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="202" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>197</v>
       </c>
@@ -27185,7 +27490,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="203" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>198</v>
       </c>
@@ -27310,7 +27615,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="204" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>199</v>
       </c>
@@ -27435,7 +27740,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>200</v>
       </c>
@@ -27560,7 +27865,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="206" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>201</v>
       </c>
@@ -27685,7 +27990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="207" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>202</v>
       </c>
@@ -27810,7 +28115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>203</v>
       </c>
@@ -27935,7 +28240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>204</v>
       </c>
@@ -28060,7 +28365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="210" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>205</v>
       </c>
@@ -28185,7 +28490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>206</v>
       </c>
@@ -28310,7 +28615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>207</v>
       </c>
@@ -28435,7 +28740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>208</v>
       </c>
@@ -28560,7 +28865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="214" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>209</v>
       </c>
@@ -28685,7 +28990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="215" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>210</v>
       </c>
@@ -28810,7 +29115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="216" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>211</v>
       </c>
@@ -28935,7 +29240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="217" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>212</v>
       </c>
@@ -29060,7 +29365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="218" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>213</v>
       </c>
@@ -29185,7 +29490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="219" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>214</v>
       </c>
@@ -29310,7 +29615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="220" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>215</v>
       </c>
@@ -29435,7 +29740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="221" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>216</v>
       </c>
@@ -29560,7 +29865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="222" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>217</v>
       </c>
@@ -29685,7 +29990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="223" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>218</v>
       </c>
@@ -29810,7 +30115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>219</v>
       </c>
@@ -29935,7 +30240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="225" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>220</v>
       </c>
@@ -30060,7 +30365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="226" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>221</v>
       </c>
@@ -30185,7 +30490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>222</v>
       </c>
@@ -30310,7 +30615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="228" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>223</v>
       </c>
@@ -30435,7 +30740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>224</v>
       </c>
@@ -30560,7 +30865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>225</v>
       </c>
@@ -30685,7 +30990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>226</v>
       </c>
@@ -30810,7 +31115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="232" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>227</v>
       </c>
@@ -30935,7 +31240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>228</v>
       </c>
@@ -31060,7 +31365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="234" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>229</v>
       </c>
@@ -31185,7 +31490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="235" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>230</v>
       </c>
@@ -31310,7 +31615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="236" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>231</v>
       </c>
@@ -31435,7 +31740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="237" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>232</v>
       </c>
@@ -31560,7 +31865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>233</v>
       </c>
@@ -31685,7 +31990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="239" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>234</v>
       </c>
@@ -31810,7 +32115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="240" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>235</v>
       </c>
@@ -31935,7 +32240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>236</v>
       </c>
@@ -32060,7 +32365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>237</v>
       </c>
@@ -32185,7 +32490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>238</v>
       </c>
@@ -32310,7 +32615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>239</v>
       </c>
@@ -32435,7 +32740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>240</v>
       </c>
@@ -32560,7 +32865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A246" s="2">
         <v>241</v>
       </c>
@@ -32570,8 +32875,8 @@
       <c r="C246" s="2">
         <v>2</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>429</v>
+      <c r="D246" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>429</v>
@@ -32685,7 +32990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A247" s="2">
         <v>242</v>
       </c>
@@ -32695,8 +33000,8 @@
       <c r="C247" s="2">
         <v>3</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>429</v>
+      <c r="D247" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>429</v>
@@ -32810,7 +33115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A248" s="2">
         <v>243</v>
       </c>
@@ -32820,8 +33125,8 @@
       <c r="C248" s="2">
         <v>3</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>429</v>
+      <c r="D248" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>429</v>
@@ -32935,7 +33240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A249" s="2">
         <v>244</v>
       </c>
@@ -32945,8 +33250,8 @@
       <c r="C249" s="2">
         <v>3</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>429</v>
+      <c r="D249" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>429</v>
@@ -33060,7 +33365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A250" s="2">
         <v>245</v>
       </c>
@@ -33070,8 +33375,8 @@
       <c r="C250" s="2">
         <v>4</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>429</v>
+      <c r="D250" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>429</v>
@@ -33185,7 +33490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A251" s="2">
         <v>246</v>
       </c>
@@ -33195,8 +33500,8 @@
       <c r="C251" s="2">
         <v>5</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>429</v>
+      <c r="D251" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>429</v>
@@ -33310,7 +33615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A252" s="2">
         <v>247</v>
       </c>
@@ -33320,8 +33625,8 @@
       <c r="C252" s="2">
         <v>5</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>429</v>
+      <c r="D252" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>429</v>
@@ -33435,7 +33740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="253" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A253" s="2">
         <v>248</v>
       </c>
@@ -33445,8 +33750,8 @@
       <c r="C253" s="2">
         <v>5</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>429</v>
+      <c r="D253" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>429</v>
@@ -33560,7 +33865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A254" s="2">
         <v>249</v>
       </c>
@@ -33570,8 +33875,8 @@
       <c r="C254" s="2">
         <v>5</v>
       </c>
-      <c r="D254" s="2" t="s">
-        <v>429</v>
+      <c r="D254" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>429</v>
@@ -33685,7 +33990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="255" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A255" s="2">
         <v>250</v>
       </c>
@@ -33695,8 +34000,8 @@
       <c r="C255" s="2">
         <v>5</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>429</v>
+      <c r="D255" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>429</v>
@@ -33810,7 +34115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>251</v>
       </c>
@@ -33820,8 +34125,8 @@
       <c r="C256" s="2">
         <v>7</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>435</v>
+      <c r="D256" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>435</v>
@@ -33935,7 +34240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>252</v>
       </c>
@@ -33945,8 +34250,8 @@
       <c r="C257" s="2">
         <v>7</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>435</v>
+      <c r="D257" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>435</v>
@@ -34060,7 +34365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>253</v>
       </c>
@@ -34070,8 +34375,8 @@
       <c r="C258" s="2">
         <v>7</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>435</v>
+      <c r="D258" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>435</v>
@@ -34185,7 +34490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>254</v>
       </c>
@@ -34195,8 +34500,8 @@
       <c r="C259" s="2">
         <v>7</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>435</v>
+      <c r="D259" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>435</v>
@@ -34310,7 +34615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>255</v>
       </c>
@@ -34320,8 +34625,8 @@
       <c r="C260" s="2">
         <v>7</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>435</v>
+      <c r="D260" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>435</v>
@@ -34435,7 +34740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="261" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>256</v>
       </c>
@@ -34445,8 +34750,8 @@
       <c r="C261" s="2">
         <v>7</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>435</v>
+      <c r="D261" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>435</v>
@@ -34560,7 +34865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="262" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>257</v>
       </c>
@@ -34570,8 +34875,8 @@
       <c r="C262" s="2">
         <v>7</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>435</v>
+      <c r="D262" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>435</v>
@@ -34685,7 +34990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>258</v>
       </c>
@@ -34695,8 +35000,8 @@
       <c r="C263" s="2">
         <v>7</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>435</v>
+      <c r="D263" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>435</v>
@@ -34810,7 +35115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>259</v>
       </c>
@@ -34820,8 +35125,8 @@
       <c r="C264" s="2">
         <v>7</v>
       </c>
-      <c r="D264" s="2" t="s">
-        <v>435</v>
+      <c r="D264" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>435</v>
@@ -34935,7 +35240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>260</v>
       </c>
@@ -34945,8 +35250,8 @@
       <c r="C265" s="2">
         <v>7</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>435</v>
+      <c r="D265" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>435</v>
@@ -35060,7 +35365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A266" s="2">
         <v>261</v>
       </c>
@@ -35070,8 +35375,8 @@
       <c r="C266" s="2">
         <v>5</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>442</v>
+      <c r="D266" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>442</v>
@@ -35185,7 +35490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A267" s="2">
         <v>262</v>
       </c>
@@ -35195,8 +35500,8 @@
       <c r="C267" s="2">
         <v>5</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>442</v>
+      <c r="D267" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>442</v>
@@ -35310,7 +35615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="268" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A268" s="2">
         <v>263</v>
       </c>
@@ -35320,8 +35625,8 @@
       <c r="C268" s="2">
         <v>5</v>
       </c>
-      <c r="D268" s="2" t="s">
-        <v>442</v>
+      <c r="D268" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>442</v>
@@ -35435,7 +35740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="269" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A269" s="2">
         <v>264</v>
       </c>
@@ -35445,8 +35750,8 @@
       <c r="C269" s="2">
         <v>5</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>442</v>
+      <c r="D269" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>442</v>
@@ -35560,7 +35865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="270" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A270" s="2">
         <v>265</v>
       </c>
@@ -35570,8 +35875,8 @@
       <c r="C270" s="2">
         <v>5</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>442</v>
+      <c r="D270" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>442</v>
@@ -35685,7 +35990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="271" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A271" s="2">
         <v>266</v>
       </c>
@@ -35695,8 +36000,8 @@
       <c r="C271" s="2">
         <v>5</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>442</v>
+      <c r="D271" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>442</v>
@@ -35810,7 +36115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="272" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A272" s="2">
         <v>267</v>
       </c>
@@ -35820,8 +36125,8 @@
       <c r="C272" s="2">
         <v>5</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>442</v>
+      <c r="D272" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>442</v>
@@ -35935,7 +36240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="273" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A273" s="2">
         <v>268</v>
       </c>
@@ -35945,8 +36250,8 @@
       <c r="C273" s="2">
         <v>5</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>442</v>
+      <c r="D273" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>442</v>
@@ -36060,7 +36365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="274" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A274" s="2">
         <v>269</v>
       </c>
@@ -36070,8 +36375,8 @@
       <c r="C274" s="2">
         <v>5</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>442</v>
+      <c r="D274" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>442</v>
@@ -36185,7 +36490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="275" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A275" s="2">
         <v>270</v>
       </c>
@@ -36195,8 +36500,8 @@
       <c r="C275" s="2">
         <v>5</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>442</v>
+      <c r="D275" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>442</v>
@@ -36310,7 +36615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="276" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>271</v>
       </c>
@@ -36435,7 +36740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="277" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>272</v>
       </c>
@@ -36560,7 +36865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="278" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>273</v>
       </c>
@@ -36685,7 +36990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="279" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>274</v>
       </c>
@@ -36810,7 +37115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="280" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>275</v>
       </c>
@@ -36935,7 +37240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="281" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>276</v>
       </c>
@@ -37060,7 +37365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="282" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>277</v>
       </c>
@@ -37185,7 +37490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="283" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>278</v>
       </c>
@@ -37310,7 +37615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="284" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>279</v>
       </c>
@@ -37435,7 +37740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="285" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>280</v>
       </c>
@@ -37560,7 +37865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="286" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A286" s="2">
         <v>281</v>
       </c>
@@ -37570,8 +37875,8 @@
       <c r="C286" s="2">
         <v>5</v>
       </c>
-      <c r="D286" s="2" t="s">
-        <v>453</v>
+      <c r="D286" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>453</v>
@@ -37685,7 +37990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="287" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A287" s="2">
         <v>282</v>
       </c>
@@ -37695,8 +38000,8 @@
       <c r="C287" s="2">
         <v>5</v>
       </c>
-      <c r="D287" s="2" t="s">
-        <v>453</v>
+      <c r="D287" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>453</v>
@@ -37810,7 +38115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="288" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A288" s="2">
         <v>283</v>
       </c>
@@ -37820,8 +38125,8 @@
       <c r="C288" s="2">
         <v>5</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>453</v>
+      <c r="D288" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>453</v>
@@ -37935,7 +38240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="289" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A289" s="2">
         <v>284</v>
       </c>
@@ -37945,8 +38250,8 @@
       <c r="C289" s="2">
         <v>5</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>453</v>
+      <c r="D289" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>453</v>
@@ -38060,7 +38365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="290" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A290" s="2">
         <v>285</v>
       </c>
@@ -38070,8 +38375,8 @@
       <c r="C290" s="2">
         <v>5</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>453</v>
+      <c r="D290" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>453</v>
@@ -38185,7 +38490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="291" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A291" s="2">
         <v>286</v>
       </c>
@@ -38195,8 +38500,8 @@
       <c r="C291" s="2">
         <v>6</v>
       </c>
-      <c r="D291" s="2" t="s">
-        <v>453</v>
+      <c r="D291" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>453</v>
@@ -38310,7 +38615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="292" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A292" s="2">
         <v>287</v>
       </c>
@@ -38320,8 +38625,8 @@
       <c r="C292" s="2">
         <v>7</v>
       </c>
-      <c r="D292" s="2" t="s">
-        <v>453</v>
+      <c r="D292" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>453</v>
@@ -38435,7 +38740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="293" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A293" s="2">
         <v>288</v>
       </c>
@@ -38445,8 +38750,8 @@
       <c r="C293" s="2">
         <v>7</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>453</v>
+      <c r="D293" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>453</v>
@@ -38560,7 +38865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="294" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A294" s="2">
         <v>289</v>
       </c>
@@ -38570,8 +38875,8 @@
       <c r="C294" s="2">
         <v>7</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>453</v>
+      <c r="D294" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>453</v>
@@ -38685,7 +38990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="295" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A295" s="2">
         <v>290</v>
       </c>
@@ -38695,8 +39000,8 @@
       <c r="C295" s="2">
         <v>7</v>
       </c>
-      <c r="D295" s="2" t="s">
-        <v>453</v>
+      <c r="D295" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>453</v>
@@ -38810,7 +39115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="296" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A296" s="2">
         <v>291</v>
       </c>
@@ -38820,8 +39125,8 @@
       <c r="C296" s="2">
         <v>5</v>
       </c>
-      <c r="D296" s="2" t="s">
-        <v>457</v>
+      <c r="D296" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>457</v>
@@ -38935,7 +39240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="297" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A297" s="2">
         <v>292</v>
       </c>
@@ -38945,8 +39250,8 @@
       <c r="C297" s="2">
         <v>5</v>
       </c>
-      <c r="D297" s="2" t="s">
-        <v>457</v>
+      <c r="D297" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>457</v>
@@ -39060,7 +39365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="298" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A298" s="2">
         <v>293</v>
       </c>
@@ -39070,8 +39375,8 @@
       <c r="C298" s="2">
         <v>5</v>
       </c>
-      <c r="D298" s="2" t="s">
-        <v>457</v>
+      <c r="D298" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>457</v>
@@ -39185,7 +39490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="299" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A299" s="2">
         <v>294</v>
       </c>
@@ -39195,8 +39500,8 @@
       <c r="C299" s="2">
         <v>5</v>
       </c>
-      <c r="D299" s="2" t="s">
-        <v>457</v>
+      <c r="D299" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>457</v>
@@ -39310,7 +39615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A300" s="2">
         <v>295</v>
       </c>
@@ -39320,8 +39625,8 @@
       <c r="C300" s="2">
         <v>5</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>457</v>
+      <c r="D300" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>457</v>
@@ -39435,7 +39740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="301" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A301" s="2">
         <v>296</v>
       </c>
@@ -39445,8 +39750,8 @@
       <c r="C301" s="2">
         <v>5</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>457</v>
+      <c r="D301" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>457</v>
@@ -39560,7 +39865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="302" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A302" s="2">
         <v>297</v>
       </c>
@@ -39570,8 +39875,8 @@
       <c r="C302" s="2">
         <v>5</v>
       </c>
-      <c r="D302" s="2" t="s">
-        <v>457</v>
+      <c r="D302" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>457</v>
@@ -39685,7 +39990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="303" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A303" s="2">
         <v>298</v>
       </c>
@@ -39695,8 +40000,8 @@
       <c r="C303" s="2">
         <v>5</v>
       </c>
-      <c r="D303" s="2" t="s">
-        <v>457</v>
+      <c r="D303" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>457</v>
@@ -39810,7 +40115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A304" s="2">
         <v>299</v>
       </c>
@@ -39820,8 +40125,8 @@
       <c r="C304" s="2">
         <v>5</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>457</v>
+      <c r="D304" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>457</v>
@@ -39935,7 +40240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="305" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:41" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A305" s="2">
         <v>300</v>
       </c>
@@ -39945,8 +40250,8 @@
       <c r="C305" s="2">
         <v>5</v>
       </c>
-      <c r="D305" s="2" t="s">
-        <v>457</v>
+      <c r="D305" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>457</v>
@@ -40060,7 +40365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="306" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>301</v>
       </c>
@@ -40185,7 +40490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="307" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>302</v>
       </c>
@@ -40310,7 +40615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="308" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>303</v>
       </c>
@@ -40435,7 +40740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="309" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>304</v>
       </c>
@@ -40560,7 +40865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="310" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>305</v>
       </c>
@@ -40685,7 +40990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="311" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>306</v>
       </c>
@@ -40810,7 +41115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="312" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>307</v>
       </c>
@@ -40935,7 +41240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="313" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>308</v>
       </c>
@@ -41060,7 +41365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="314" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>309</v>
       </c>
@@ -41185,7 +41490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="315" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>310</v>
       </c>
@@ -41310,7 +41615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="316" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>311</v>
       </c>
@@ -41435,7 +41740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="317" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>312</v>
       </c>
@@ -41560,7 +41865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="318" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>313</v>
       </c>
@@ -41685,7 +41990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="319" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>314</v>
       </c>
@@ -41810,7 +42115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="320" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>315</v>
       </c>
@@ -41935,7 +42240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="321" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>316</v>
       </c>
@@ -42060,7 +42365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="322" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>317</v>
       </c>
@@ -42185,7 +42490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="323" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>318</v>
       </c>
@@ -42310,7 +42615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="324" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>319</v>
       </c>
@@ -42435,7 +42740,229 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="325" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A325" s="2">
+        <v>320</v>
+      </c>
+      <c r="B325" s="2">
+        <v>89</v>
+      </c>
+      <c r="C325" s="2">
+        <v>0</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="326" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A326" s="2">
+        <v>321</v>
+      </c>
+      <c r="B326" s="2">
+        <v>103</v>
+      </c>
+      <c r="C326" s="2">
+        <v>0</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="327" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A327" s="2">
+        <v>322</v>
+      </c>
+      <c r="B327" s="2">
+        <v>104</v>
+      </c>
+      <c r="C327" s="2">
+        <v>0</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="328" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A328" s="2">
+        <v>323</v>
+      </c>
+      <c r="B328" s="2">
+        <v>105</v>
+      </c>
+      <c r="C328" s="2">
+        <v>0</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="329" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A329" s="2">
+        <v>324</v>
+      </c>
+      <c r="B329" s="2">
+        <v>106</v>
+      </c>
+      <c r="C329" s="2">
+        <v>0</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="330" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A330" s="2">
+        <v>325</v>
+      </c>
+      <c r="B330" s="2">
+        <v>107</v>
+      </c>
+      <c r="C330" s="2">
+        <v>0</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="331" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A331" s="2">
+        <v>326</v>
+      </c>
+      <c r="B331" s="2">
+        <v>108</v>
+      </c>
+      <c r="C331" s="2">
+        <v>0</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="332" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A332" s="2">
+        <v>327</v>
+      </c>
+      <c r="B332" s="2">
+        <v>109</v>
+      </c>
+      <c r="C332" s="2">
+        <v>0</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="333" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A333" s="2">
+        <v>328</v>
+      </c>
+      <c r="B333" s="2">
+        <v>110</v>
+      </c>
+      <c r="C333" s="2">
+        <v>0</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="334" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A334" s="2">
+        <v>329</v>
+      </c>
+      <c r="B334" s="2">
+        <v>111</v>
+      </c>
+      <c r="C334" s="2">
+        <v>0</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="335" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A335" s="2">
+        <v>330</v>
+      </c>
+      <c r="B335" s="2">
+        <v>112</v>
+      </c>
+      <c r="C335" s="2">
+        <v>0</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="336" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A336" s="2">
+        <v>331</v>
+      </c>
+      <c r="B336" s="2">
+        <v>113</v>
+      </c>
+      <c r="C336" s="2">
+        <v>0</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" s="2">
+        <v>332</v>
+      </c>
+      <c r="B337" s="2">
+        <v>114</v>
+      </c>
+      <c r="C337" s="2">
+        <v>0</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A4:AP326" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
